--- a/thermal xlm/500х10.xlsx
+++ b/thermal xlm/500х10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\01_Postgraduate\Статьи\ВАК\ВАК Пожары и ЧС3 Сталебетон\Python program_V2\fire_column_app\thermal xlm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1DDFA0-DABA-47F2-8914-3D55CA62A98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05314FF-9B4F-4DAA-8E01-43B657C477CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{6EEF9BC8-23BF-450E-9042-F798D29F0F82}"/>
   </bookViews>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EB8B82-DEFF-4CFC-9AAE-C98B3F9C19FD}">
   <dimension ref="A1:J242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J242"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,22 +493,22 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>33.828000000000003</v>
+        <v>32.536000000000001</v>
       </c>
       <c r="C3">
-        <v>26.914000000000001</v>
+        <v>26.265999999999998</v>
       </c>
       <c r="D3">
-        <v>20.959</v>
+        <v>20.864999999999998</v>
       </c>
       <c r="E3">
-        <v>20.035</v>
+        <v>20.067</v>
       </c>
       <c r="F3">
-        <v>20.052</v>
+        <v>20.065000000000001</v>
       </c>
       <c r="G3">
-        <v>20.003</v>
+        <v>20.006</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -525,25 +525,25 @@
         <v>120</v>
       </c>
       <c r="B4">
-        <v>51.252000000000002</v>
+        <v>47.465000000000003</v>
       </c>
       <c r="C4">
-        <v>38.033999999999999</v>
+        <v>35.921999999999997</v>
       </c>
       <c r="D4">
-        <v>23.452999999999999</v>
+        <v>23.056999999999999</v>
       </c>
       <c r="E4">
-        <v>20.183</v>
+        <v>20.321000000000002</v>
       </c>
       <c r="F4">
-        <v>20.263000000000002</v>
+        <v>20.314</v>
       </c>
       <c r="G4">
-        <v>20.021999999999998</v>
+        <v>20.038</v>
       </c>
       <c r="H4">
-        <v>20.001999999999999</v>
+        <v>20.003</v>
       </c>
       <c r="I4">
         <v>20</v>
@@ -557,28 +557,28 @@
         <v>180</v>
       </c>
       <c r="B5">
-        <v>70.453999999999994</v>
+        <v>63.262</v>
       </c>
       <c r="C5">
-        <v>51.62</v>
+        <v>47.311</v>
       </c>
       <c r="D5">
-        <v>27.556999999999999</v>
+        <v>26.579000000000001</v>
       </c>
       <c r="E5">
-        <v>20.545000000000002</v>
+        <v>20.884</v>
       </c>
       <c r="F5">
-        <v>20.754999999999999</v>
+        <v>20.872</v>
       </c>
       <c r="G5">
-        <v>20.077000000000002</v>
+        <v>20.126000000000001</v>
       </c>
       <c r="H5">
-        <v>20.007000000000001</v>
+        <v>20.012</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>20.001000000000001</v>
       </c>
       <c r="J5">
         <v>20</v>
@@ -589,28 +589,28 @@
         <v>240</v>
       </c>
       <c r="B6">
-        <v>90.718999999999994</v>
+        <v>79.406999999999996</v>
       </c>
       <c r="C6">
-        <v>66.771000000000001</v>
+        <v>59.645000000000003</v>
       </c>
       <c r="D6">
-        <v>33.109000000000002</v>
+        <v>31.24</v>
       </c>
       <c r="E6">
-        <v>21.213999999999999</v>
+        <v>21.843</v>
       </c>
       <c r="F6">
-        <v>21.632999999999999</v>
+        <v>21.827999999999999</v>
       </c>
       <c r="G6">
-        <v>20.199000000000002</v>
+        <v>20.308</v>
       </c>
       <c r="H6">
-        <v>20.023</v>
+        <v>20.035</v>
       </c>
       <c r="I6">
-        <v>20.001000000000001</v>
+        <v>20.004000000000001</v>
       </c>
       <c r="J6">
         <v>20</v>
@@ -621,28 +621,28 @@
         <v>300</v>
       </c>
       <c r="B7">
-        <v>111.64</v>
+        <v>95.671000000000006</v>
       </c>
       <c r="C7">
-        <v>82.962999999999994</v>
+        <v>72.522000000000006</v>
       </c>
       <c r="D7">
-        <v>39.884</v>
+        <v>36.819000000000003</v>
       </c>
       <c r="E7">
-        <v>22.262</v>
+        <v>23.245000000000001</v>
       </c>
       <c r="F7">
-        <v>22.966999999999999</v>
+        <v>23.23</v>
       </c>
       <c r="G7">
-        <v>20.422999999999998</v>
+        <v>20.620999999999999</v>
       </c>
       <c r="H7">
-        <v>20.055</v>
+        <v>20.082999999999998</v>
       </c>
       <c r="I7">
-        <v>20.004000000000001</v>
+        <v>20.010999999999999</v>
       </c>
       <c r="J7">
         <v>20</v>
@@ -653,28 +653,28 @@
         <v>360</v>
       </c>
       <c r="B8">
-        <v>132.25</v>
+        <v>111.93</v>
       </c>
       <c r="C8">
-        <v>99.272000000000006</v>
+        <v>85.712000000000003</v>
       </c>
       <c r="D8">
-        <v>47.581000000000003</v>
+        <v>43.118000000000002</v>
       </c>
       <c r="E8">
-        <v>23.731000000000002</v>
+        <v>25.1</v>
       </c>
       <c r="F8">
-        <v>24.789000000000001</v>
+        <v>25.091000000000001</v>
       </c>
       <c r="G8">
-        <v>20.782</v>
+        <v>21.1</v>
       </c>
       <c r="H8">
-        <v>20.116</v>
+        <v>20.167000000000002</v>
       </c>
       <c r="I8">
-        <v>20.010000000000002</v>
+        <v>20.024000000000001</v>
       </c>
       <c r="J8">
         <v>20</v>
@@ -685,28 +685,28 @@
         <v>420</v>
       </c>
       <c r="B9">
-        <v>151.9</v>
+        <v>127.87</v>
       </c>
       <c r="C9">
-        <v>113.9</v>
+        <v>98.694999999999993</v>
       </c>
       <c r="D9">
-        <v>55.734000000000002</v>
+        <v>49.929000000000002</v>
       </c>
       <c r="E9">
-        <v>25.626999999999999</v>
+        <v>27.393000000000001</v>
       </c>
       <c r="F9">
-        <v>27.087</v>
+        <v>27.395</v>
       </c>
       <c r="G9">
-        <v>21.306999999999999</v>
+        <v>21.768000000000001</v>
       </c>
       <c r="H9">
-        <v>20.218</v>
+        <v>20.303000000000001</v>
       </c>
       <c r="I9">
-        <v>20.021000000000001</v>
+        <v>20.047999999999998</v>
       </c>
       <c r="J9">
         <v>20</v>
@@ -717,28 +717,28 @@
         <v>480</v>
       </c>
       <c r="B10">
-        <v>171.43</v>
+        <v>142.26</v>
       </c>
       <c r="C10">
-        <v>127.88</v>
+        <v>109.78</v>
       </c>
       <c r="D10">
-        <v>64.007999999999996</v>
+        <v>56.877000000000002</v>
       </c>
       <c r="E10">
-        <v>27.925000000000001</v>
+        <v>30.074000000000002</v>
       </c>
       <c r="F10">
-        <v>29.812999999999999</v>
+        <v>30.093</v>
       </c>
       <c r="G10">
-        <v>22.018000000000001</v>
+        <v>22.640999999999998</v>
       </c>
       <c r="H10">
-        <v>20.373999999999999</v>
+        <v>20.501999999999999</v>
       </c>
       <c r="I10">
-        <v>20.041</v>
+        <v>20.088000000000001</v>
       </c>
       <c r="J10">
         <v>20</v>
@@ -749,28 +749,28 @@
         <v>540</v>
       </c>
       <c r="B11">
-        <v>191.12</v>
+        <v>156.31</v>
       </c>
       <c r="C11">
-        <v>142.5</v>
+        <v>121.05</v>
       </c>
       <c r="D11">
-        <v>72.228999999999999</v>
+        <v>63.844000000000001</v>
       </c>
       <c r="E11">
-        <v>30.579000000000001</v>
+        <v>33.08</v>
       </c>
       <c r="F11">
-        <v>32.905000000000001</v>
+        <v>33.121000000000002</v>
       </c>
       <c r="G11">
-        <v>22.927</v>
+        <v>23.722000000000001</v>
       </c>
       <c r="H11">
-        <v>20.596</v>
+        <v>20.779</v>
       </c>
       <c r="I11">
-        <v>20.073</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="J11">
         <v>20</v>
@@ -781,28 +781,28 @@
         <v>600</v>
       </c>
       <c r="B12">
-        <v>211.07</v>
+        <v>170.22</v>
       </c>
       <c r="C12">
-        <v>157.93</v>
+        <v>131.79</v>
       </c>
       <c r="D12">
-        <v>80.340999999999994</v>
+        <v>70.650000000000006</v>
       </c>
       <c r="E12">
-        <v>33.539000000000001</v>
+        <v>36.343000000000004</v>
       </c>
       <c r="F12">
-        <v>36.296999999999997</v>
+        <v>36.408000000000001</v>
       </c>
       <c r="G12">
-        <v>24.035</v>
+        <v>25.004999999999999</v>
       </c>
       <c r="H12">
-        <v>20.895</v>
+        <v>21.141999999999999</v>
       </c>
       <c r="I12">
-        <v>20.120999999999999</v>
+        <v>20.239000000000001</v>
       </c>
       <c r="J12">
         <v>20</v>
@@ -813,31 +813,31 @@
         <v>660</v>
       </c>
       <c r="B13">
-        <v>231.37</v>
+        <v>184.04</v>
       </c>
       <c r="C13">
-        <v>174.13</v>
+        <v>142.69</v>
       </c>
       <c r="D13">
-        <v>88.346000000000004</v>
+        <v>77.366</v>
       </c>
       <c r="E13">
-        <v>36.756</v>
+        <v>39.804000000000002</v>
       </c>
       <c r="F13">
-        <v>39.933</v>
+        <v>39.898000000000003</v>
       </c>
       <c r="G13">
-        <v>25.338000000000001</v>
+        <v>26.478999999999999</v>
       </c>
       <c r="H13">
-        <v>21.282</v>
+        <v>21.6</v>
       </c>
       <c r="I13">
-        <v>20.190000000000001</v>
+        <v>20.361000000000001</v>
       </c>
       <c r="J13">
-        <v>20</v>
+        <v>20.001000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -845,28 +845,28 @@
         <v>720</v>
       </c>
       <c r="B14">
-        <v>251.9</v>
+        <v>197.89</v>
       </c>
       <c r="C14">
-        <v>190.98</v>
+        <v>154.03</v>
       </c>
       <c r="D14">
-        <v>96.272999999999996</v>
+        <v>83.85</v>
       </c>
       <c r="E14">
-        <v>40.186</v>
+        <v>43.41</v>
       </c>
       <c r="F14">
-        <v>43.768000000000001</v>
+        <v>43.533999999999999</v>
       </c>
       <c r="G14">
-        <v>26.827999999999999</v>
+        <v>28.128</v>
       </c>
       <c r="H14">
-        <v>21.763000000000002</v>
+        <v>22.157</v>
       </c>
       <c r="I14">
-        <v>20.286000000000001</v>
+        <v>20.521000000000001</v>
       </c>
       <c r="J14">
         <v>20.001000000000001</v>
@@ -877,28 +877,28 @@
         <v>780</v>
       </c>
       <c r="B15">
-        <v>272.54000000000002</v>
+        <v>211.82</v>
       </c>
       <c r="C15">
-        <v>208.26</v>
+        <v>165.59</v>
       </c>
       <c r="D15">
-        <v>104.14</v>
+        <v>90.234999999999999</v>
       </c>
       <c r="E15">
-        <v>43.795999999999999</v>
+        <v>47.125999999999998</v>
       </c>
       <c r="F15">
-        <v>47.767000000000003</v>
+        <v>47.277999999999999</v>
       </c>
       <c r="G15">
-        <v>28.492000000000001</v>
+        <v>29.934000000000001</v>
       </c>
       <c r="H15">
-        <v>22.341000000000001</v>
+        <v>22.814</v>
       </c>
       <c r="I15">
-        <v>20.411999999999999</v>
+        <v>20.725999999999999</v>
       </c>
       <c r="J15">
         <v>20.001999999999999</v>
@@ -909,31 +909,31 @@
         <v>840</v>
       </c>
       <c r="B16">
-        <v>293.16000000000003</v>
+        <v>225.87</v>
       </c>
       <c r="C16">
-        <v>225.67</v>
+        <v>177.44</v>
       </c>
       <c r="D16">
-        <v>112.04</v>
+        <v>96.468999999999994</v>
       </c>
       <c r="E16">
-        <v>47.558999999999997</v>
+        <v>50.921999999999997</v>
       </c>
       <c r="F16">
-        <v>51.902000000000001</v>
+        <v>51.101999999999997</v>
       </c>
       <c r="G16">
-        <v>30.318999999999999</v>
+        <v>31.88</v>
       </c>
       <c r="H16">
-        <v>23.021000000000001</v>
+        <v>23.571999999999999</v>
       </c>
       <c r="I16">
-        <v>20.573</v>
+        <v>20.978999999999999</v>
       </c>
       <c r="J16">
-        <v>20.003</v>
+        <v>20.004000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -941,31 +941,31 @@
         <v>900</v>
       </c>
       <c r="B17">
-        <v>313.7</v>
+        <v>240.02</v>
       </c>
       <c r="C17">
-        <v>243.06</v>
+        <v>189.52</v>
       </c>
       <c r="D17">
-        <v>120.25</v>
+        <v>102.62</v>
       </c>
       <c r="E17">
-        <v>51.448999999999998</v>
+        <v>54.777999999999999</v>
       </c>
       <c r="F17">
-        <v>56.151000000000003</v>
+        <v>54.984999999999999</v>
       </c>
       <c r="G17">
-        <v>32.293999999999997</v>
+        <v>33.948</v>
       </c>
       <c r="H17">
-        <v>23.802</v>
+        <v>24.428999999999998</v>
       </c>
       <c r="I17">
-        <v>20.773</v>
+        <v>21.283000000000001</v>
       </c>
       <c r="J17">
-        <v>20.004000000000001</v>
+        <v>20.006</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -973,31 +973,31 @@
         <v>960</v>
       </c>
       <c r="B18">
-        <v>334.12</v>
+        <v>254.2</v>
       </c>
       <c r="C18">
-        <v>260.33</v>
+        <v>201.74</v>
       </c>
       <c r="D18">
-        <v>129</v>
+        <v>108.7</v>
       </c>
       <c r="E18">
-        <v>55.448999999999998</v>
+        <v>58.677999999999997</v>
       </c>
       <c r="F18">
-        <v>60.494999999999997</v>
+        <v>58.914999999999999</v>
       </c>
       <c r="G18">
-        <v>34.406999999999996</v>
+        <v>36.125</v>
       </c>
       <c r="H18">
-        <v>24.683</v>
+        <v>25.381</v>
       </c>
       <c r="I18">
-        <v>21.015999999999998</v>
+        <v>21.641999999999999</v>
       </c>
       <c r="J18">
-        <v>20.007000000000001</v>
+        <v>20.010000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1005,31 +1005,31 @@
         <v>1020</v>
       </c>
       <c r="B19">
-        <v>354.35</v>
+        <v>268.36</v>
       </c>
       <c r="C19">
-        <v>277.48</v>
+        <v>214.01</v>
       </c>
       <c r="D19">
-        <v>138.32</v>
+        <v>115.15</v>
       </c>
       <c r="E19">
-        <v>59.542999999999999</v>
+        <v>62.622999999999998</v>
       </c>
       <c r="F19">
-        <v>64.918999999999997</v>
+        <v>62.883000000000003</v>
       </c>
       <c r="G19">
-        <v>36.645000000000003</v>
+        <v>38.396999999999998</v>
       </c>
       <c r="H19">
-        <v>25.663</v>
+        <v>26.425000000000001</v>
       </c>
       <c r="I19">
-        <v>21.305</v>
+        <v>22.056000000000001</v>
       </c>
       <c r="J19">
-        <v>20.010000000000002</v>
+        <v>20.015000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1037,31 +1037,31 @@
         <v>1080</v>
       </c>
       <c r="B20">
-        <v>374.34</v>
+        <v>282.51</v>
       </c>
       <c r="C20">
-        <v>294.47000000000003</v>
+        <v>226.4</v>
       </c>
       <c r="D20">
-        <v>148.12</v>
+        <v>121.79</v>
       </c>
       <c r="E20">
-        <v>63.716999999999999</v>
+        <v>66.596000000000004</v>
       </c>
       <c r="F20">
-        <v>69.411000000000001</v>
+        <v>66.878</v>
       </c>
       <c r="G20">
-        <v>38.997</v>
+        <v>40.755000000000003</v>
       </c>
       <c r="H20">
-        <v>26.739000000000001</v>
+        <v>27.555</v>
       </c>
       <c r="I20">
-        <v>21.641999999999999</v>
+        <v>22.527000000000001</v>
       </c>
       <c r="J20">
-        <v>20.015000000000001</v>
+        <v>20.021000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1069,31 +1069,31 @@
         <v>1140</v>
       </c>
       <c r="B21">
-        <v>394.02</v>
+        <v>296.67</v>
       </c>
       <c r="C21">
-        <v>311.26</v>
+        <v>238.78</v>
       </c>
       <c r="D21">
-        <v>158.31</v>
+        <v>128.68</v>
       </c>
       <c r="E21">
-        <v>67.959999999999994</v>
+        <v>70.599000000000004</v>
       </c>
       <c r="F21">
-        <v>73.959000000000003</v>
+        <v>70.905000000000001</v>
       </c>
       <c r="G21">
-        <v>41.454000000000001</v>
+        <v>43.188000000000002</v>
       </c>
       <c r="H21">
-        <v>27.908000000000001</v>
+        <v>28.768000000000001</v>
       </c>
       <c r="I21">
-        <v>22.03</v>
+        <v>23.055</v>
       </c>
       <c r="J21">
-        <v>20.021999999999998</v>
+        <v>20.03</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1101,31 +1101,31 @@
         <v>1200</v>
       </c>
       <c r="B22">
-        <v>413.35</v>
+        <v>310.83</v>
       </c>
       <c r="C22">
-        <v>327.82</v>
+        <v>251.11</v>
       </c>
       <c r="D22">
-        <v>168.79</v>
+        <v>135.78</v>
       </c>
       <c r="E22">
-        <v>72.262</v>
+        <v>74.635999999999996</v>
       </c>
       <c r="F22">
-        <v>78.552000000000007</v>
+        <v>74.950999999999993</v>
       </c>
       <c r="G22">
-        <v>44.005000000000003</v>
+        <v>45.69</v>
       </c>
       <c r="H22">
-        <v>29.167000000000002</v>
+        <v>30.059000000000001</v>
       </c>
       <c r="I22">
-        <v>22.469000000000001</v>
+        <v>23.64</v>
       </c>
       <c r="J22">
-        <v>20.030999999999999</v>
+        <v>20.042000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1133,31 +1133,31 @@
         <v>1260</v>
       </c>
       <c r="B23">
-        <v>432.32</v>
+        <v>324.98</v>
       </c>
       <c r="C23">
-        <v>344.09</v>
+        <v>263.38</v>
       </c>
       <c r="D23">
-        <v>179.47</v>
+        <v>143.19999999999999</v>
       </c>
       <c r="E23">
-        <v>76.614999999999995</v>
+        <v>78.671000000000006</v>
       </c>
       <c r="F23">
-        <v>83.182000000000002</v>
+        <v>79.001000000000005</v>
       </c>
       <c r="G23">
-        <v>46.643000000000001</v>
+        <v>48.252000000000002</v>
       </c>
       <c r="H23">
-        <v>30.51</v>
+        <v>31.422000000000001</v>
       </c>
       <c r="I23">
-        <v>22.960999999999999</v>
+        <v>24.282</v>
       </c>
       <c r="J23">
-        <v>20.042999999999999</v>
+        <v>20.056999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1165,31 +1165,31 @@
         <v>1320</v>
       </c>
       <c r="B24">
-        <v>450.89</v>
+        <v>339.13</v>
       </c>
       <c r="C24">
-        <v>360.07</v>
+        <v>275.64999999999998</v>
       </c>
       <c r="D24">
-        <v>190.24</v>
+        <v>150.93</v>
       </c>
       <c r="E24">
-        <v>81.010000000000005</v>
+        <v>82.731999999999999</v>
       </c>
       <c r="F24">
-        <v>87.837000000000003</v>
+        <v>83.081000000000003</v>
       </c>
       <c r="G24">
-        <v>49.357999999999997</v>
+        <v>50.868000000000002</v>
       </c>
       <c r="H24">
-        <v>31.936</v>
+        <v>32.854999999999997</v>
       </c>
       <c r="I24">
-        <v>23.506</v>
+        <v>24.98</v>
       </c>
       <c r="J24">
-        <v>20.058</v>
+        <v>20.076000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1197,31 +1197,31 @@
         <v>1380</v>
       </c>
       <c r="B25">
-        <v>469.02</v>
+        <v>353.28</v>
       </c>
       <c r="C25">
-        <v>375.74</v>
+        <v>287.93</v>
       </c>
       <c r="D25">
-        <v>201.03</v>
+        <v>158.86000000000001</v>
       </c>
       <c r="E25">
-        <v>85.441999999999993</v>
+        <v>86.834000000000003</v>
       </c>
       <c r="F25">
-        <v>92.507999999999996</v>
+        <v>87.168000000000006</v>
       </c>
       <c r="G25">
-        <v>52.143999999999998</v>
+        <v>53.534999999999997</v>
       </c>
       <c r="H25">
-        <v>33.438000000000002</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="I25">
-        <v>24.105</v>
+        <v>25.733000000000001</v>
       </c>
       <c r="J25">
-        <v>20.077000000000002</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1229,31 +1229,31 @@
         <v>1440</v>
       </c>
       <c r="B26">
-        <v>486.69</v>
+        <v>367.44</v>
       </c>
       <c r="C26">
-        <v>391.09</v>
+        <v>300.22000000000003</v>
       </c>
       <c r="D26">
-        <v>211.76</v>
+        <v>166.94</v>
       </c>
       <c r="E26">
-        <v>89.906000000000006</v>
+        <v>90.92</v>
       </c>
       <c r="F26">
-        <v>97.182000000000002</v>
+        <v>91.234999999999999</v>
       </c>
       <c r="G26">
-        <v>54.991999999999997</v>
+        <v>56.244999999999997</v>
       </c>
       <c r="H26">
-        <v>35.014000000000003</v>
+        <v>35.908999999999999</v>
       </c>
       <c r="I26">
-        <v>24.757999999999999</v>
+        <v>26.538</v>
       </c>
       <c r="J26">
-        <v>20.100999999999999</v>
+        <v>20.129000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1261,31 +1261,31 @@
         <v>1500</v>
       </c>
       <c r="B27">
-        <v>503.88</v>
+        <v>381.61</v>
       </c>
       <c r="C27">
-        <v>406.12</v>
+        <v>312.49</v>
       </c>
       <c r="D27">
-        <v>222.38</v>
+        <v>175.18</v>
       </c>
       <c r="E27">
-        <v>94.396000000000001</v>
+        <v>95.027000000000001</v>
       </c>
       <c r="F27">
-        <v>101.84</v>
+        <v>95.34</v>
       </c>
       <c r="G27">
-        <v>57.896999999999998</v>
+        <v>58.994999999999997</v>
       </c>
       <c r="H27">
-        <v>36.658000000000001</v>
+        <v>37.521999999999998</v>
       </c>
       <c r="I27">
-        <v>25.463000000000001</v>
+        <v>27.396000000000001</v>
       </c>
       <c r="J27">
-        <v>20.13</v>
+        <v>20.164000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1293,31 +1293,31 @@
         <v>1560</v>
       </c>
       <c r="B28">
-        <v>520.57000000000005</v>
+        <v>395.79</v>
       </c>
       <c r="C28">
-        <v>420.8</v>
+        <v>324.76</v>
       </c>
       <c r="D28">
-        <v>232.84</v>
+        <v>183.55</v>
       </c>
       <c r="E28">
-        <v>98.903000000000006</v>
+        <v>99.165000000000006</v>
       </c>
       <c r="F28">
-        <v>106.49</v>
+        <v>99.4</v>
       </c>
       <c r="G28">
-        <v>60.85</v>
+        <v>61.780999999999999</v>
       </c>
       <c r="H28">
-        <v>38.368000000000002</v>
+        <v>39.189</v>
       </c>
       <c r="I28">
-        <v>26.22</v>
+        <v>28.303999999999998</v>
       </c>
       <c r="J28">
-        <v>20.164999999999999</v>
+        <v>20.206</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1325,31 +1325,31 @@
         <v>1620</v>
       </c>
       <c r="B29">
-        <v>536.77</v>
+        <v>410</v>
       </c>
       <c r="C29">
-        <v>435.11</v>
+        <v>337.02</v>
       </c>
       <c r="D29">
-        <v>243.14</v>
+        <v>191.97</v>
       </c>
       <c r="E29">
-        <v>103.41</v>
+        <v>103.3</v>
       </c>
       <c r="F29">
-        <v>111.18</v>
+        <v>103.4</v>
       </c>
       <c r="G29">
-        <v>63.844000000000001</v>
+        <v>64.596000000000004</v>
       </c>
       <c r="H29">
-        <v>40.137</v>
+        <v>40.904000000000003</v>
       </c>
       <c r="I29">
-        <v>27.029</v>
+        <v>29.26</v>
       </c>
       <c r="J29">
-        <v>20.207000000000001</v>
+        <v>20.254999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1357,31 +1357,31 @@
         <v>1680</v>
       </c>
       <c r="B30">
-        <v>552.42999999999995</v>
+        <v>424.25</v>
       </c>
       <c r="C30">
-        <v>449.04</v>
+        <v>349.27</v>
       </c>
       <c r="D30">
-        <v>253.27</v>
+        <v>200.43</v>
       </c>
       <c r="E30">
-        <v>107.94</v>
+        <v>107.46</v>
       </c>
       <c r="F30">
-        <v>115.97</v>
+        <v>107.48</v>
       </c>
       <c r="G30">
-        <v>66.867000000000004</v>
+        <v>67.435000000000002</v>
       </c>
       <c r="H30">
-        <v>41.960999999999999</v>
+        <v>42.664999999999999</v>
       </c>
       <c r="I30">
-        <v>27.888999999999999</v>
+        <v>30.263000000000002</v>
       </c>
       <c r="J30">
-        <v>20.256</v>
+        <v>20.312000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1389,31 +1389,31 @@
         <v>1740</v>
       </c>
       <c r="B31">
-        <v>567.57000000000005</v>
+        <v>438.54</v>
       </c>
       <c r="C31">
-        <v>462.6</v>
+        <v>361.48</v>
       </c>
       <c r="D31">
-        <v>263.23</v>
+        <v>208.87</v>
       </c>
       <c r="E31">
-        <v>112.5</v>
+        <v>111.7</v>
       </c>
       <c r="F31">
-        <v>120.92</v>
+        <v>111.58</v>
       </c>
       <c r="G31">
-        <v>69.912000000000006</v>
+        <v>70.292000000000002</v>
       </c>
       <c r="H31">
-        <v>43.837000000000003</v>
+        <v>44.468000000000004</v>
       </c>
       <c r="I31">
-        <v>28.797000000000001</v>
+        <v>31.311</v>
       </c>
       <c r="J31">
-        <v>20.312999999999999</v>
+        <v>20.378</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1421,31 +1421,31 @@
         <v>1800</v>
       </c>
       <c r="B32">
-        <v>582.17999999999995</v>
+        <v>452.87</v>
       </c>
       <c r="C32">
-        <v>475.77</v>
+        <v>373.69</v>
       </c>
       <c r="D32">
-        <v>273.01</v>
+        <v>217.32</v>
       </c>
       <c r="E32">
-        <v>117.15</v>
+        <v>116.02</v>
       </c>
       <c r="F32">
-        <v>126.05</v>
+        <v>115.73</v>
       </c>
       <c r="G32">
-        <v>72.968999999999994</v>
+        <v>73.165000000000006</v>
       </c>
       <c r="H32">
-        <v>45.758000000000003</v>
+        <v>46.31</v>
       </c>
       <c r="I32">
-        <v>29.751999999999999</v>
+        <v>32.402000000000001</v>
       </c>
       <c r="J32">
-        <v>20.379000000000001</v>
+        <v>20.452999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1453,31 +1453,31 @@
         <v>1860</v>
       </c>
       <c r="B33">
-        <v>596.25</v>
+        <v>467.24</v>
       </c>
       <c r="C33">
-        <v>488.56</v>
+        <v>385.97</v>
       </c>
       <c r="D33">
-        <v>282.60000000000002</v>
+        <v>225.79</v>
       </c>
       <c r="E33">
-        <v>121.9</v>
+        <v>120.47</v>
       </c>
       <c r="F33">
-        <v>131.34</v>
+        <v>120.12</v>
       </c>
       <c r="G33">
-        <v>76.031000000000006</v>
+        <v>76.057000000000002</v>
       </c>
       <c r="H33">
-        <v>47.72</v>
+        <v>48.186999999999998</v>
       </c>
       <c r="I33">
-        <v>30.753</v>
+        <v>33.533999999999999</v>
       </c>
       <c r="J33">
-        <v>20.454999999999998</v>
+        <v>20.539000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1485,31 +1485,31 @@
         <v>1920</v>
       </c>
       <c r="B34">
-        <v>609.80999999999995</v>
+        <v>481.65</v>
       </c>
       <c r="C34">
-        <v>500.97</v>
+        <v>398.29</v>
       </c>
       <c r="D34">
-        <v>292.01</v>
+        <v>234.23</v>
       </c>
       <c r="E34">
-        <v>126.77</v>
+        <v>125</v>
       </c>
       <c r="F34">
-        <v>136.78</v>
+        <v>124.66</v>
       </c>
       <c r="G34">
-        <v>79.094999999999999</v>
+        <v>78.941000000000003</v>
       </c>
       <c r="H34">
-        <v>49.719000000000001</v>
+        <v>50.097000000000001</v>
       </c>
       <c r="I34">
-        <v>31.798999999999999</v>
+        <v>34.704999999999998</v>
       </c>
       <c r="J34">
-        <v>20.541</v>
+        <v>20.635000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1517,31 +1517,31 @@
         <v>1980</v>
       </c>
       <c r="B35">
-        <v>622.85</v>
+        <v>496.12</v>
       </c>
       <c r="C35">
-        <v>512.99</v>
+        <v>410.64</v>
       </c>
       <c r="D35">
-        <v>301.24</v>
+        <v>242.67</v>
       </c>
       <c r="E35">
-        <v>131.76</v>
+        <v>129.66999999999999</v>
       </c>
       <c r="F35">
-        <v>142.33000000000001</v>
+        <v>129.33000000000001</v>
       </c>
       <c r="G35">
-        <v>82.156999999999996</v>
+        <v>81.828999999999994</v>
       </c>
       <c r="H35">
-        <v>51.750999999999998</v>
+        <v>52.034999999999997</v>
       </c>
       <c r="I35">
-        <v>32.886000000000003</v>
+        <v>35.914000000000001</v>
       </c>
       <c r="J35">
-        <v>20.638000000000002</v>
+        <v>20.742999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1549,31 +1549,31 @@
         <v>2040</v>
       </c>
       <c r="B36">
-        <v>635.36</v>
+        <v>510.65</v>
       </c>
       <c r="C36">
-        <v>524.63</v>
+        <v>422.99</v>
       </c>
       <c r="D36">
-        <v>310.27</v>
+        <v>251.08</v>
       </c>
       <c r="E36">
-        <v>136.85</v>
+        <v>134.49</v>
       </c>
       <c r="F36">
-        <v>147.99</v>
+        <v>134.16999999999999</v>
       </c>
       <c r="G36">
-        <v>85.212999999999994</v>
+        <v>84.73</v>
       </c>
       <c r="H36">
-        <v>53.811</v>
+        <v>54</v>
       </c>
       <c r="I36">
-        <v>34.014000000000003</v>
+        <v>37.158000000000001</v>
       </c>
       <c r="J36">
-        <v>20.747</v>
+        <v>20.861999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1581,31 +1581,31 @@
         <v>2100</v>
       </c>
       <c r="B37">
-        <v>647.37</v>
+        <v>525.21</v>
       </c>
       <c r="C37">
-        <v>535.88</v>
+        <v>435.34</v>
       </c>
       <c r="D37">
-        <v>319.13</v>
+        <v>259.47000000000003</v>
       </c>
       <c r="E37">
-        <v>142.04</v>
+        <v>139.44</v>
       </c>
       <c r="F37">
-        <v>153.72</v>
+        <v>139.19</v>
       </c>
       <c r="G37">
-        <v>88.262</v>
+        <v>87.647000000000006</v>
       </c>
       <c r="H37">
-        <v>55.896000000000001</v>
+        <v>55.99</v>
       </c>
       <c r="I37">
-        <v>35.179000000000002</v>
+        <v>38.436</v>
       </c>
       <c r="J37">
-        <v>20.867999999999999</v>
+        <v>20.995000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1613,31 +1613,31 @@
         <v>2160</v>
       </c>
       <c r="B38">
-        <v>658.9</v>
+        <v>539.82000000000005</v>
       </c>
       <c r="C38">
-        <v>546.76</v>
+        <v>447.69</v>
       </c>
       <c r="D38">
-        <v>327.79</v>
+        <v>267.83</v>
       </c>
       <c r="E38">
-        <v>147.30000000000001</v>
+        <v>144.49</v>
       </c>
       <c r="F38">
-        <v>159.52000000000001</v>
+        <v>144.33000000000001</v>
       </c>
       <c r="G38">
-        <v>91.299000000000007</v>
+        <v>90.545000000000002</v>
       </c>
       <c r="H38">
-        <v>58.003999999999998</v>
+        <v>58.003</v>
       </c>
       <c r="I38">
-        <v>36.381999999999998</v>
+        <v>39.746000000000002</v>
       </c>
       <c r="J38">
-        <v>21.001999999999999</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1645,31 +1645,31 @@
         <v>2220</v>
       </c>
       <c r="B39">
-        <v>669.95</v>
+        <v>554.45000000000005</v>
       </c>
       <c r="C39">
-        <v>557.28</v>
+        <v>460</v>
       </c>
       <c r="D39">
-        <v>336.26</v>
+        <v>276.19</v>
       </c>
       <c r="E39">
-        <v>152.62</v>
+        <v>149.65</v>
       </c>
       <c r="F39">
-        <v>165.35</v>
+        <v>149.57</v>
       </c>
       <c r="G39">
-        <v>94.322000000000003</v>
+        <v>93.436000000000007</v>
       </c>
       <c r="H39">
-        <v>60.13</v>
+        <v>60.033999999999999</v>
       </c>
       <c r="I39">
-        <v>37.618000000000002</v>
+        <v>41.087000000000003</v>
       </c>
       <c r="J39">
-        <v>21.15</v>
+        <v>21.298999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1677,31 +1677,31 @@
         <v>2280</v>
       </c>
       <c r="B40">
-        <v>680.54</v>
+        <v>569.05999999999995</v>
       </c>
       <c r="C40">
-        <v>567.44000000000005</v>
+        <v>472.34</v>
       </c>
       <c r="D40">
-        <v>344.56</v>
+        <v>284.55</v>
       </c>
       <c r="E40">
-        <v>157.99</v>
+        <v>154.91</v>
       </c>
       <c r="F40">
-        <v>171.21</v>
+        <v>154.93</v>
       </c>
       <c r="G40">
-        <v>97.328000000000003</v>
+        <v>96.356999999999999</v>
       </c>
       <c r="H40">
-        <v>62.271999999999998</v>
+        <v>62.085000000000001</v>
       </c>
       <c r="I40">
-        <v>38.887</v>
+        <v>42.454999999999998</v>
       </c>
       <c r="J40">
-        <v>21.312999999999999</v>
+        <v>21.472999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1709,31 +1709,31 @@
         <v>2340</v>
       </c>
       <c r="B41">
-        <v>690.69</v>
+        <v>583.62</v>
       </c>
       <c r="C41">
-        <v>577.26</v>
+        <v>484.7</v>
       </c>
       <c r="D41">
-        <v>352.68</v>
+        <v>292.91000000000003</v>
       </c>
       <c r="E41">
-        <v>163.38999999999999</v>
+        <v>160.28</v>
       </c>
       <c r="F41">
-        <v>177.08</v>
+        <v>160.4</v>
       </c>
       <c r="G41">
-        <v>100.32</v>
+        <v>99.283000000000001</v>
       </c>
       <c r="H41">
-        <v>64.427999999999997</v>
+        <v>64.153999999999996</v>
       </c>
       <c r="I41">
-        <v>40.186999999999998</v>
+        <v>43.851999999999997</v>
       </c>
       <c r="J41">
-        <v>21.489000000000001</v>
+        <v>21.66</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1741,31 +1741,31 @@
         <v>2400</v>
       </c>
       <c r="B42">
-        <v>700.41</v>
+        <v>598.11</v>
       </c>
       <c r="C42">
-        <v>586.74</v>
+        <v>497.03</v>
       </c>
       <c r="D42">
-        <v>360.62</v>
+        <v>301.26</v>
       </c>
       <c r="E42">
-        <v>168.82</v>
+        <v>165.72</v>
       </c>
       <c r="F42">
-        <v>182.94</v>
+        <v>165.97</v>
       </c>
       <c r="G42">
-        <v>103.3</v>
+        <v>102.19</v>
       </c>
       <c r="H42">
-        <v>66.593999999999994</v>
+        <v>66.238</v>
       </c>
       <c r="I42">
-        <v>41.515000000000001</v>
+        <v>45.274000000000001</v>
       </c>
       <c r="J42">
-        <v>21.681999999999999</v>
+        <v>21.863</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1773,31 +1773,31 @@
         <v>2460</v>
       </c>
       <c r="B43">
-        <v>709.73</v>
+        <v>612.49</v>
       </c>
       <c r="C43">
-        <v>595.9</v>
+        <v>509.31</v>
       </c>
       <c r="D43">
-        <v>368.39</v>
+        <v>309.58999999999997</v>
       </c>
       <c r="E43">
-        <v>174.26</v>
+        <v>171.24</v>
       </c>
       <c r="F43">
-        <v>188.78</v>
+        <v>171.6</v>
       </c>
       <c r="G43">
-        <v>106.29</v>
+        <v>105.11</v>
       </c>
       <c r="H43">
-        <v>68.769000000000005</v>
+        <v>68.334000000000003</v>
       </c>
       <c r="I43">
-        <v>42.87</v>
+        <v>46.72</v>
       </c>
       <c r="J43">
-        <v>21.888999999999999</v>
+        <v>22.08</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1805,31 +1805,31 @@
         <v>2520</v>
       </c>
       <c r="B44">
-        <v>718.66</v>
+        <v>626.71</v>
       </c>
       <c r="C44">
-        <v>604.75</v>
+        <v>521.49</v>
       </c>
       <c r="D44">
-        <v>376</v>
+        <v>317.89</v>
       </c>
       <c r="E44">
-        <v>179.7</v>
+        <v>176.82</v>
       </c>
       <c r="F44">
-        <v>194.59</v>
+        <v>177.3</v>
       </c>
       <c r="G44">
-        <v>109.31</v>
+        <v>108.09</v>
       </c>
       <c r="H44">
-        <v>70.95</v>
+        <v>70.444999999999993</v>
       </c>
       <c r="I44">
-        <v>44.25</v>
+        <v>48.19</v>
       </c>
       <c r="J44">
-        <v>22.113</v>
+        <v>22.314</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1837,31 +1837,31 @@
         <v>2580</v>
       </c>
       <c r="B45">
-        <v>727.22</v>
+        <v>640.73</v>
       </c>
       <c r="C45">
-        <v>613.32000000000005</v>
+        <v>533.53</v>
       </c>
       <c r="D45">
-        <v>383.45</v>
+        <v>326.16000000000003</v>
       </c>
       <c r="E45">
-        <v>185.14</v>
+        <v>182.44</v>
       </c>
       <c r="F45">
-        <v>200.36</v>
+        <v>183.05</v>
       </c>
       <c r="G45">
-        <v>112.37</v>
+        <v>111.13</v>
       </c>
       <c r="H45">
-        <v>73.135000000000005</v>
+        <v>72.566999999999993</v>
       </c>
       <c r="I45">
-        <v>45.654000000000003</v>
+        <v>49.680999999999997</v>
       </c>
       <c r="J45">
-        <v>22.353999999999999</v>
+        <v>22.562999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1869,31 +1869,31 @@
         <v>2640</v>
       </c>
       <c r="B46">
-        <v>735.43</v>
+        <v>654.5</v>
       </c>
       <c r="C46">
-        <v>621.59</v>
+        <v>545.41</v>
       </c>
       <c r="D46">
-        <v>390.75</v>
+        <v>334.4</v>
       </c>
       <c r="E46">
-        <v>190.55</v>
+        <v>188.12</v>
       </c>
       <c r="F46">
-        <v>206.07</v>
+        <v>188.85</v>
       </c>
       <c r="G46">
-        <v>115.49</v>
+        <v>114.21</v>
       </c>
       <c r="H46">
-        <v>75.322000000000003</v>
+        <v>74.695999999999998</v>
       </c>
       <c r="I46">
-        <v>47.079000000000001</v>
+        <v>51.192999999999998</v>
       </c>
       <c r="J46">
-        <v>22.611000000000001</v>
+        <v>22.827999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1901,31 +1901,31 @@
         <v>2700</v>
       </c>
       <c r="B47">
-        <v>743.31</v>
+        <v>667.95</v>
       </c>
       <c r="C47">
-        <v>629.58000000000004</v>
+        <v>557.09</v>
       </c>
       <c r="D47">
-        <v>397.89</v>
+        <v>342.6</v>
       </c>
       <c r="E47">
-        <v>195.94</v>
+        <v>193.83</v>
       </c>
       <c r="F47">
-        <v>211.72</v>
+        <v>194.67</v>
       </c>
       <c r="G47">
-        <v>118.67</v>
+        <v>117.35</v>
       </c>
       <c r="H47">
-        <v>77.510000000000005</v>
+        <v>76.834000000000003</v>
       </c>
       <c r="I47">
-        <v>48.524000000000001</v>
+        <v>52.723999999999997</v>
       </c>
       <c r="J47">
-        <v>22.885000000000002</v>
+        <v>23.109000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -1933,31 +1933,31 @@
         <v>2760</v>
       </c>
       <c r="B48">
-        <v>750.87</v>
+        <v>681.02</v>
       </c>
       <c r="C48">
-        <v>637.30999999999995</v>
+        <v>568.55999999999995</v>
       </c>
       <c r="D48">
-        <v>404.89</v>
+        <v>350.74</v>
       </c>
       <c r="E48">
-        <v>201.29</v>
+        <v>199.54</v>
       </c>
       <c r="F48">
-        <v>217.31</v>
+        <v>200.48</v>
       </c>
       <c r="G48">
-        <v>121.93</v>
+        <v>120.58</v>
       </c>
       <c r="H48">
-        <v>79.697000000000003</v>
+        <v>78.983000000000004</v>
       </c>
       <c r="I48">
-        <v>49.988</v>
+        <v>54.273000000000003</v>
       </c>
       <c r="J48">
-        <v>23.175999999999998</v>
+        <v>23.407</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -1965,31 +1965,31 @@
         <v>2820</v>
       </c>
       <c r="B49">
-        <v>758.12</v>
+        <v>693.66</v>
       </c>
       <c r="C49">
-        <v>644.78</v>
+        <v>579.82000000000005</v>
       </c>
       <c r="D49">
-        <v>411.74</v>
+        <v>358.81</v>
       </c>
       <c r="E49">
-        <v>206.6</v>
+        <v>205.27</v>
       </c>
       <c r="F49">
-        <v>222.82</v>
+        <v>206.31</v>
       </c>
       <c r="G49">
-        <v>125.25</v>
+        <v>123.93</v>
       </c>
       <c r="H49">
-        <v>81.88</v>
+        <v>81.135999999999996</v>
       </c>
       <c r="I49">
-        <v>51.469000000000001</v>
+        <v>55.838999999999999</v>
       </c>
       <c r="J49">
-        <v>23.484999999999999</v>
+        <v>23.721</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -1997,31 +1997,31 @@
         <v>2880</v>
       </c>
       <c r="B50">
-        <v>765.09</v>
+        <v>705.83</v>
       </c>
       <c r="C50">
-        <v>652</v>
+        <v>590.82000000000005</v>
       </c>
       <c r="D50">
-        <v>418.45</v>
+        <v>366.79</v>
       </c>
       <c r="E50">
-        <v>211.86</v>
+        <v>211</v>
       </c>
       <c r="F50">
-        <v>228.26</v>
+        <v>212.14</v>
       </c>
       <c r="G50">
-        <v>128.63</v>
+        <v>127.36</v>
       </c>
       <c r="H50">
-        <v>84.058000000000007</v>
+        <v>83.287999999999997</v>
       </c>
       <c r="I50">
-        <v>52.965000000000003</v>
+        <v>57.420999999999999</v>
       </c>
       <c r="J50">
-        <v>23.812000000000001</v>
+        <v>24.053000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2029,31 +2029,31 @@
         <v>2940</v>
       </c>
       <c r="B51">
-        <v>771.79</v>
+        <v>717.51</v>
       </c>
       <c r="C51">
-        <v>659</v>
+        <v>601.51</v>
       </c>
       <c r="D51">
-        <v>425.01</v>
+        <v>374.7</v>
       </c>
       <c r="E51">
-        <v>217.06</v>
+        <v>216.72</v>
       </c>
       <c r="F51">
-        <v>233.63</v>
+        <v>217.92</v>
       </c>
       <c r="G51">
-        <v>132.07</v>
+        <v>130.85</v>
       </c>
       <c r="H51">
-        <v>86.230999999999995</v>
+        <v>85.444999999999993</v>
       </c>
       <c r="I51">
-        <v>54.475000000000001</v>
+        <v>59.017000000000003</v>
       </c>
       <c r="J51">
-        <v>24.155999999999999</v>
+        <v>24.401</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2061,31 +2061,31 @@
         <v>3000</v>
       </c>
       <c r="B52">
-        <v>778.24</v>
+        <v>728.68</v>
       </c>
       <c r="C52">
-        <v>665.76</v>
+        <v>611.87</v>
       </c>
       <c r="D52">
-        <v>431.44</v>
+        <v>382.51</v>
       </c>
       <c r="E52">
-        <v>222.2</v>
+        <v>222.41</v>
       </c>
       <c r="F52">
-        <v>238.93</v>
+        <v>223.67</v>
       </c>
       <c r="G52">
-        <v>135.56</v>
+        <v>134.43</v>
       </c>
       <c r="H52">
-        <v>88.396000000000001</v>
+        <v>87.608999999999995</v>
       </c>
       <c r="I52">
-        <v>55.997999999999998</v>
+        <v>60.627000000000002</v>
       </c>
       <c r="J52">
-        <v>24.518999999999998</v>
+        <v>24.765000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2093,31 +2093,31 @@
         <v>3060</v>
       </c>
       <c r="B53">
-        <v>784.44</v>
+        <v>739.33</v>
       </c>
       <c r="C53">
-        <v>672.33</v>
+        <v>621.88</v>
       </c>
       <c r="D53">
-        <v>437.73</v>
+        <v>390.23</v>
       </c>
       <c r="E53">
-        <v>227.28</v>
+        <v>228.08</v>
       </c>
       <c r="F53">
-        <v>244.16</v>
+        <v>229.4</v>
       </c>
       <c r="G53">
-        <v>139.1</v>
+        <v>138.09</v>
       </c>
       <c r="H53">
-        <v>90.552000000000007</v>
+        <v>89.762</v>
       </c>
       <c r="I53">
-        <v>57.531999999999996</v>
+        <v>62.25</v>
       </c>
       <c r="J53">
-        <v>24.899000000000001</v>
+        <v>25.146999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2125,31 +2125,31 @@
         <v>3120</v>
       </c>
       <c r="B54">
-        <v>790.43</v>
+        <v>749.46</v>
       </c>
       <c r="C54">
-        <v>678.69</v>
+        <v>631.53</v>
       </c>
       <c r="D54">
-        <v>443.89</v>
+        <v>397.82</v>
       </c>
       <c r="E54">
-        <v>232.29</v>
+        <v>233.73</v>
       </c>
       <c r="F54">
-        <v>249.32</v>
+        <v>235.09</v>
       </c>
       <c r="G54">
-        <v>142.68</v>
+        <v>141.82</v>
       </c>
       <c r="H54">
-        <v>92.698999999999998</v>
+        <v>91.917000000000002</v>
       </c>
       <c r="I54">
-        <v>59.076000000000001</v>
+        <v>63.883000000000003</v>
       </c>
       <c r="J54">
-        <v>25.297000000000001</v>
+        <v>25.545999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2157,31 +2157,31 @@
         <v>3180</v>
       </c>
       <c r="B55">
-        <v>796.2</v>
+        <v>759.08</v>
       </c>
       <c r="C55">
-        <v>684.86</v>
+        <v>640.80999999999995</v>
       </c>
       <c r="D55">
-        <v>449.93</v>
+        <v>405.29</v>
       </c>
       <c r="E55">
-        <v>237.25</v>
+        <v>239.33</v>
       </c>
       <c r="F55">
-        <v>254.41</v>
+        <v>240.74</v>
       </c>
       <c r="G55">
-        <v>146.28</v>
+        <v>145.61000000000001</v>
       </c>
       <c r="H55">
-        <v>94.834999999999994</v>
+        <v>94.081999999999994</v>
       </c>
       <c r="I55">
-        <v>60.628999999999998</v>
+        <v>65.527000000000001</v>
       </c>
       <c r="J55">
-        <v>25.713999999999999</v>
+        <v>25.962</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2189,31 +2189,31 @@
         <v>3240</v>
       </c>
       <c r="B56">
-        <v>801.78</v>
+        <v>768.18</v>
       </c>
       <c r="C56">
-        <v>690.85</v>
+        <v>649.73</v>
       </c>
       <c r="D56">
-        <v>455.84</v>
+        <v>412.62</v>
       </c>
       <c r="E56">
-        <v>242.15</v>
+        <v>244.89</v>
       </c>
       <c r="F56">
-        <v>259.43</v>
+        <v>246.35</v>
       </c>
       <c r="G56">
-        <v>149.91999999999999</v>
+        <v>149.44999999999999</v>
       </c>
       <c r="H56">
-        <v>96.957999999999998</v>
+        <v>96.257000000000005</v>
       </c>
       <c r="I56">
-        <v>62.19</v>
+        <v>67.182000000000002</v>
       </c>
       <c r="J56">
-        <v>26.148</v>
+        <v>26.395</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2221,31 +2221,31 @@
         <v>3300</v>
       </c>
       <c r="B57">
-        <v>807.16</v>
+        <v>776.8</v>
       </c>
       <c r="C57">
-        <v>696.68</v>
+        <v>658.28</v>
       </c>
       <c r="D57">
-        <v>461.63</v>
+        <v>419.81</v>
       </c>
       <c r="E57">
-        <v>246.98</v>
+        <v>250.4</v>
       </c>
       <c r="F57">
-        <v>264.38</v>
+        <v>251.9</v>
       </c>
       <c r="G57">
-        <v>153.58000000000001</v>
+        <v>153.33000000000001</v>
       </c>
       <c r="H57">
-        <v>99.067999999999998</v>
+        <v>98.396000000000001</v>
       </c>
       <c r="I57">
-        <v>63.758000000000003</v>
+        <v>68.844999999999999</v>
       </c>
       <c r="J57">
-        <v>26.6</v>
+        <v>26.844000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2253,31 +2253,31 @@
         <v>3360</v>
       </c>
       <c r="B58">
-        <v>812.37</v>
+        <v>784.93</v>
       </c>
       <c r="C58">
-        <v>702.35</v>
+        <v>666.54</v>
       </c>
       <c r="D58">
-        <v>467.31</v>
+        <v>426.87</v>
       </c>
       <c r="E58">
-        <v>251.76</v>
+        <v>255.86</v>
       </c>
       <c r="F58">
-        <v>269.27</v>
+        <v>257.39999999999998</v>
       </c>
       <c r="G58">
-        <v>157.26</v>
+        <v>157.27000000000001</v>
       </c>
       <c r="H58">
-        <v>101.17</v>
+        <v>100.54</v>
       </c>
       <c r="I58">
-        <v>65.331000000000003</v>
+        <v>70.513999999999996</v>
       </c>
       <c r="J58">
-        <v>27.07</v>
+        <v>27.311</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2285,31 +2285,31 @@
         <v>3420</v>
       </c>
       <c r="B59">
-        <v>817.43</v>
+        <v>792.61</v>
       </c>
       <c r="C59">
-        <v>707.87</v>
+        <v>674.45</v>
       </c>
       <c r="D59">
-        <v>472.88</v>
+        <v>433.79</v>
       </c>
       <c r="E59">
-        <v>256.47000000000003</v>
+        <v>261.27999999999997</v>
       </c>
       <c r="F59">
-        <v>274.10000000000002</v>
+        <v>262.85000000000002</v>
       </c>
       <c r="G59">
-        <v>160.94999999999999</v>
+        <v>161.24</v>
       </c>
       <c r="H59">
-        <v>103.28</v>
+        <v>102.7</v>
       </c>
       <c r="I59">
-        <v>66.908000000000001</v>
+        <v>72.188999999999993</v>
       </c>
       <c r="J59">
-        <v>27.556999999999999</v>
+        <v>27.794</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2317,31 +2317,31 @@
         <v>3480</v>
       </c>
       <c r="B60">
-        <v>822.32</v>
+        <v>799.87</v>
       </c>
       <c r="C60">
-        <v>713.24</v>
+        <v>682.04</v>
       </c>
       <c r="D60">
-        <v>478.34</v>
+        <v>440.56</v>
       </c>
       <c r="E60">
-        <v>261.13</v>
+        <v>266.64</v>
       </c>
       <c r="F60">
-        <v>278.86</v>
+        <v>268.25</v>
       </c>
       <c r="G60">
-        <v>164.65</v>
+        <v>165.24</v>
       </c>
       <c r="H60">
-        <v>105.39</v>
+        <v>104.89</v>
       </c>
       <c r="I60">
-        <v>68.489000000000004</v>
+        <v>73.873000000000005</v>
       </c>
       <c r="J60">
-        <v>28.062000000000001</v>
+        <v>28.294</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2349,31 +2349,31 @@
         <v>3540</v>
       </c>
       <c r="B61">
-        <v>827.08</v>
+        <v>806.76</v>
       </c>
       <c r="C61">
-        <v>718.47</v>
+        <v>689.32</v>
       </c>
       <c r="D61">
-        <v>483.71</v>
+        <v>447.19</v>
       </c>
       <c r="E61">
-        <v>265.73</v>
+        <v>271.95</v>
       </c>
       <c r="F61">
-        <v>283.56</v>
+        <v>273.58999999999997</v>
       </c>
       <c r="G61">
-        <v>168.35</v>
+        <v>169.26</v>
       </c>
       <c r="H61">
-        <v>107.51</v>
+        <v>107.09</v>
       </c>
       <c r="I61">
-        <v>70.072000000000003</v>
+        <v>75.561000000000007</v>
       </c>
       <c r="J61">
-        <v>28.585000000000001</v>
+        <v>28.81</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2381,31 +2381,31 @@
         <v>3600</v>
       </c>
       <c r="B62">
-        <v>831.68</v>
+        <v>813.3</v>
       </c>
       <c r="C62">
-        <v>723.58</v>
+        <v>696.32</v>
       </c>
       <c r="D62">
-        <v>488.97</v>
+        <v>453.67</v>
       </c>
       <c r="E62">
-        <v>270.27</v>
+        <v>277.2</v>
       </c>
       <c r="F62">
-        <v>288.20999999999998</v>
+        <v>278.87</v>
       </c>
       <c r="G62">
-        <v>172.05</v>
+        <v>173.29</v>
       </c>
       <c r="H62">
-        <v>109.65</v>
+        <v>109.32</v>
       </c>
       <c r="I62">
-        <v>71.656000000000006</v>
+        <v>77.25</v>
       </c>
       <c r="J62">
-        <v>29.125</v>
+        <v>29.343</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2413,31 +2413,31 @@
         <v>3660</v>
       </c>
       <c r="B63">
-        <v>836.16</v>
+        <v>819.52</v>
       </c>
       <c r="C63">
-        <v>728.55</v>
+        <v>703.06</v>
       </c>
       <c r="D63">
-        <v>494.14</v>
+        <v>460</v>
       </c>
       <c r="E63">
-        <v>274.76</v>
+        <v>282.39</v>
       </c>
       <c r="F63">
-        <v>292.79000000000002</v>
+        <v>284.08999999999997</v>
       </c>
       <c r="G63">
-        <v>175.75</v>
+        <v>177.34</v>
       </c>
       <c r="H63">
-        <v>111.81</v>
+        <v>111.56</v>
       </c>
       <c r="I63">
-        <v>73.242000000000004</v>
+        <v>78.941999999999993</v>
       </c>
       <c r="J63">
-        <v>29.681999999999999</v>
+        <v>29.891999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2445,31 +2445,31 @@
         <v>3720</v>
       </c>
       <c r="B64">
-        <v>840.51</v>
+        <v>825.44</v>
       </c>
       <c r="C64">
-        <v>733.4</v>
+        <v>709.54</v>
       </c>
       <c r="D64">
-        <v>499.21</v>
+        <v>466.19</v>
       </c>
       <c r="E64">
-        <v>279.2</v>
+        <v>287.52</v>
       </c>
       <c r="F64">
-        <v>297.31</v>
+        <v>289.25</v>
       </c>
       <c r="G64">
-        <v>179.44</v>
+        <v>181.39</v>
       </c>
       <c r="H64">
-        <v>114.01</v>
+        <v>113.83</v>
       </c>
       <c r="I64">
-        <v>74.826999999999998</v>
+        <v>80.64</v>
       </c>
       <c r="J64">
-        <v>30.254999999999999</v>
+        <v>30.457000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2477,31 +2477,31 @@
         <v>3780</v>
       </c>
       <c r="B65">
-        <v>844.73</v>
+        <v>831.09</v>
       </c>
       <c r="C65">
-        <v>738.12</v>
+        <v>715.78</v>
       </c>
       <c r="D65">
-        <v>504.2</v>
+        <v>472.24</v>
       </c>
       <c r="E65">
-        <v>283.58</v>
+        <v>292.58999999999997</v>
       </c>
       <c r="F65">
-        <v>301.77999999999997</v>
+        <v>294.35000000000002</v>
       </c>
       <c r="G65">
-        <v>183.12</v>
+        <v>185.44</v>
       </c>
       <c r="H65">
-        <v>116.24</v>
+        <v>116.16</v>
       </c>
       <c r="I65">
-        <v>76.411000000000001</v>
+        <v>82.337999999999994</v>
       </c>
       <c r="J65">
-        <v>30.844999999999999</v>
+        <v>31.038</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2509,31 +2509,31 @@
         <v>3840</v>
       </c>
       <c r="B66">
-        <v>848.84</v>
+        <v>836.49</v>
       </c>
       <c r="C66">
-        <v>742.74</v>
+        <v>721.78</v>
       </c>
       <c r="D66">
-        <v>509.1</v>
+        <v>478.16</v>
       </c>
       <c r="E66">
-        <v>287.91000000000003</v>
+        <v>297.61</v>
       </c>
       <c r="F66">
-        <v>306.19</v>
+        <v>299.39</v>
       </c>
       <c r="G66">
-        <v>186.79</v>
+        <v>189.48</v>
       </c>
       <c r="H66">
-        <v>118.51</v>
+        <v>118.56</v>
       </c>
       <c r="I66">
-        <v>77.992999999999995</v>
+        <v>84.031000000000006</v>
       </c>
       <c r="J66">
-        <v>31.452000000000002</v>
+        <v>31.635000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2541,31 +2541,31 @@
         <v>3900</v>
       </c>
       <c r="B67">
-        <v>852.85</v>
+        <v>841.65</v>
       </c>
       <c r="C67">
-        <v>747.25</v>
+        <v>727.56</v>
       </c>
       <c r="D67">
-        <v>513.91</v>
+        <v>483.95</v>
       </c>
       <c r="E67">
-        <v>292.19</v>
+        <v>302.56</v>
       </c>
       <c r="F67">
-        <v>310.55</v>
+        <v>304.36</v>
       </c>
       <c r="G67">
-        <v>190.43</v>
+        <v>193.52</v>
       </c>
       <c r="H67">
-        <v>120.81</v>
+        <v>121</v>
       </c>
       <c r="I67">
-        <v>79.572999999999993</v>
+        <v>85.724000000000004</v>
       </c>
       <c r="J67">
-        <v>32.075000000000003</v>
+        <v>32.247</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2573,31 +2573,31 @@
         <v>3960</v>
       </c>
       <c r="B68">
-        <v>856.75</v>
+        <v>846.6</v>
       </c>
       <c r="C68">
-        <v>751.65</v>
+        <v>733.13</v>
       </c>
       <c r="D68">
-        <v>518.64</v>
+        <v>489.61</v>
       </c>
       <c r="E68">
-        <v>296.41000000000003</v>
+        <v>307.45</v>
       </c>
       <c r="F68">
-        <v>314.85000000000002</v>
+        <v>309.27</v>
       </c>
       <c r="G68">
-        <v>194.06</v>
+        <v>197.53</v>
       </c>
       <c r="H68">
-        <v>123.15</v>
+        <v>123.48</v>
       </c>
       <c r="I68">
-        <v>81.150000000000006</v>
+        <v>87.421999999999997</v>
       </c>
       <c r="J68">
-        <v>32.713000000000001</v>
+        <v>32.875</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2605,31 +2605,31 @@
         <v>4020</v>
       </c>
       <c r="B69">
-        <v>860.54</v>
+        <v>851.34</v>
       </c>
       <c r="C69">
-        <v>755.95</v>
+        <v>738.5</v>
       </c>
       <c r="D69">
-        <v>523.29</v>
+        <v>495.16</v>
       </c>
       <c r="E69">
-        <v>300.58999999999997</v>
+        <v>312.27</v>
       </c>
       <c r="F69">
-        <v>319.10000000000002</v>
+        <v>314.11</v>
       </c>
       <c r="G69">
-        <v>197.67</v>
+        <v>201.52</v>
       </c>
       <c r="H69">
-        <v>125.53</v>
+        <v>125.99</v>
       </c>
       <c r="I69">
-        <v>82.722999999999999</v>
+        <v>89.120999999999995</v>
       </c>
       <c r="J69">
-        <v>33.366999999999997</v>
+        <v>33.517000000000003</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -2637,31 +2637,31 @@
         <v>4080</v>
       </c>
       <c r="B70">
-        <v>864.25</v>
+        <v>855.9</v>
       </c>
       <c r="C70">
-        <v>760.16</v>
+        <v>743.68</v>
       </c>
       <c r="D70">
-        <v>527.86</v>
+        <v>500.58</v>
       </c>
       <c r="E70">
-        <v>304.73</v>
+        <v>317.02999999999997</v>
       </c>
       <c r="F70">
-        <v>323.3</v>
+        <v>318.89</v>
       </c>
       <c r="G70">
-        <v>201.25</v>
+        <v>205.48</v>
       </c>
       <c r="H70">
-        <v>127.94</v>
+        <v>128.54</v>
       </c>
       <c r="I70">
-        <v>84.290999999999997</v>
+        <v>90.802000000000007</v>
       </c>
       <c r="J70">
-        <v>34.036999999999999</v>
+        <v>34.174999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -2669,31 +2669,31 @@
         <v>4140</v>
       </c>
       <c r="B71">
-        <v>867.87</v>
+        <v>860.28</v>
       </c>
       <c r="C71">
-        <v>764.27</v>
+        <v>748.68</v>
       </c>
       <c r="D71">
-        <v>532.35</v>
+        <v>505.88</v>
       </c>
       <c r="E71">
-        <v>308.81</v>
+        <v>321.72000000000003</v>
       </c>
       <c r="F71">
-        <v>327.44</v>
+        <v>323.61</v>
       </c>
       <c r="G71">
-        <v>204.8</v>
+        <v>209.42</v>
       </c>
       <c r="H71">
-        <v>130.37</v>
+        <v>131.13999999999999</v>
       </c>
       <c r="I71">
-        <v>85.853999999999999</v>
+        <v>92.48</v>
       </c>
       <c r="J71">
-        <v>34.720999999999997</v>
+        <v>34.847000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -2701,31 +2701,31 @@
         <v>4200</v>
       </c>
       <c r="B72">
-        <v>871.39</v>
+        <v>864.5</v>
       </c>
       <c r="C72">
-        <v>768.3</v>
+        <v>753.55</v>
       </c>
       <c r="D72">
-        <v>536.77</v>
+        <v>511.08</v>
       </c>
       <c r="E72">
-        <v>312.83999999999997</v>
+        <v>326.35000000000002</v>
       </c>
       <c r="F72">
-        <v>331.53</v>
+        <v>328.26</v>
       </c>
       <c r="G72">
-        <v>208.33</v>
+        <v>213.33</v>
       </c>
       <c r="H72">
-        <v>132.84</v>
+        <v>133.79</v>
       </c>
       <c r="I72">
-        <v>87.412000000000006</v>
+        <v>94.162999999999997</v>
       </c>
       <c r="J72">
-        <v>35.42</v>
+        <v>35.533999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -2733,31 +2733,31 @@
         <v>4260</v>
       </c>
       <c r="B73">
-        <v>874.84</v>
+        <v>868.56</v>
       </c>
       <c r="C73">
-        <v>772.25</v>
+        <v>758.28</v>
       </c>
       <c r="D73">
-        <v>541.11</v>
+        <v>516.16999999999996</v>
       </c>
       <c r="E73">
-        <v>316.83</v>
+        <v>330.92</v>
       </c>
       <c r="F73">
-        <v>335.58</v>
+        <v>332.85</v>
       </c>
       <c r="G73">
-        <v>211.83</v>
+        <v>217.22</v>
       </c>
       <c r="H73">
-        <v>135.33000000000001</v>
+        <v>136.47</v>
       </c>
       <c r="I73">
-        <v>88.962999999999994</v>
+        <v>95.855000000000004</v>
       </c>
       <c r="J73">
-        <v>36.133000000000003</v>
+        <v>36.234999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -2765,31 +2765,31 @@
         <v>4320</v>
       </c>
       <c r="B74">
-        <v>878.21</v>
+        <v>872.47</v>
       </c>
       <c r="C74">
-        <v>776.12</v>
+        <v>762.86</v>
       </c>
       <c r="D74">
-        <v>545.39</v>
+        <v>521.16</v>
       </c>
       <c r="E74">
-        <v>320.77999999999997</v>
+        <v>335.43</v>
       </c>
       <c r="F74">
-        <v>339.57</v>
+        <v>337.38</v>
       </c>
       <c r="G74">
-        <v>215.3</v>
+        <v>221.07</v>
       </c>
       <c r="H74">
-        <v>137.84</v>
+        <v>139.16999999999999</v>
       </c>
       <c r="I74">
-        <v>90.507000000000005</v>
+        <v>97.516000000000005</v>
       </c>
       <c r="J74">
-        <v>36.86</v>
+        <v>36.948999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -2797,31 +2797,31 @@
         <v>4380</v>
       </c>
       <c r="B75">
-        <v>881.5</v>
+        <v>876.25</v>
       </c>
       <c r="C75">
-        <v>779.9</v>
+        <v>767.32</v>
       </c>
       <c r="D75">
-        <v>549.6</v>
+        <v>526.04999999999995</v>
       </c>
       <c r="E75">
-        <v>324.67</v>
+        <v>339.88</v>
       </c>
       <c r="F75">
-        <v>343.52</v>
+        <v>341.84</v>
       </c>
       <c r="G75">
-        <v>218.74</v>
+        <v>224.88</v>
       </c>
       <c r="H75">
-        <v>140.38</v>
+        <v>141.9</v>
       </c>
       <c r="I75">
-        <v>92.045000000000002</v>
+        <v>99.168000000000006</v>
       </c>
       <c r="J75">
-        <v>37.600999999999999</v>
+        <v>37.677999999999997</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -2829,31 +2829,31 @@
         <v>4440</v>
       </c>
       <c r="B76">
-        <v>884.72</v>
+        <v>879.91</v>
       </c>
       <c r="C76">
-        <v>783.61</v>
+        <v>771.66</v>
       </c>
       <c r="D76">
-        <v>553.74</v>
+        <v>530.85</v>
       </c>
       <c r="E76">
-        <v>328.53</v>
+        <v>344.27</v>
       </c>
       <c r="F76">
-        <v>347.42</v>
+        <v>346.25</v>
       </c>
       <c r="G76">
-        <v>222.15</v>
+        <v>228.66</v>
       </c>
       <c r="H76">
-        <v>142.93</v>
+        <v>144.65</v>
       </c>
       <c r="I76">
-        <v>93.573999999999998</v>
+        <v>100.83</v>
       </c>
       <c r="J76">
-        <v>38.354999999999997</v>
+        <v>38.418999999999997</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -2861,31 +2861,31 @@
         <v>4500</v>
       </c>
       <c r="B77">
-        <v>887.87</v>
+        <v>883.46</v>
       </c>
       <c r="C77">
-        <v>787.25</v>
+        <v>775.88</v>
       </c>
       <c r="D77">
-        <v>557.83000000000004</v>
+        <v>535.55999999999995</v>
       </c>
       <c r="E77">
-        <v>332.34</v>
+        <v>348.6</v>
       </c>
       <c r="F77">
-        <v>351.28</v>
+        <v>350.59</v>
       </c>
       <c r="G77">
-        <v>225.53</v>
+        <v>232.41</v>
       </c>
       <c r="H77">
-        <v>145.5</v>
+        <v>147.44</v>
       </c>
       <c r="I77">
-        <v>95.093999999999994</v>
+        <v>102.5</v>
       </c>
       <c r="J77">
-        <v>39.122</v>
+        <v>39.173999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -2893,31 +2893,31 @@
         <v>4560</v>
       </c>
       <c r="B78">
-        <v>890.96</v>
+        <v>886.91</v>
       </c>
       <c r="C78">
-        <v>790.83</v>
+        <v>779.99</v>
       </c>
       <c r="D78">
-        <v>561.85</v>
+        <v>540.17999999999995</v>
       </c>
       <c r="E78">
-        <v>336.1</v>
+        <v>352.88</v>
       </c>
       <c r="F78">
-        <v>355.1</v>
+        <v>354.88</v>
       </c>
       <c r="G78">
-        <v>228.88</v>
+        <v>236.13</v>
       </c>
       <c r="H78">
-        <v>148.09</v>
+        <v>150.24</v>
       </c>
       <c r="I78">
-        <v>96.605999999999995</v>
+        <v>104.18</v>
       </c>
       <c r="J78">
-        <v>39.902000000000001</v>
+        <v>39.941000000000003</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -2925,31 +2925,31 @@
         <v>4620</v>
       </c>
       <c r="B79">
-        <v>893.98</v>
+        <v>890.26</v>
       </c>
       <c r="C79">
-        <v>794.33</v>
+        <v>784</v>
       </c>
       <c r="D79">
-        <v>565.80999999999995</v>
+        <v>544.70000000000005</v>
       </c>
       <c r="E79">
-        <v>339.83</v>
+        <v>357.1</v>
       </c>
       <c r="F79">
-        <v>358.87</v>
+        <v>359.12</v>
       </c>
       <c r="G79">
-        <v>232.21</v>
+        <v>239.81</v>
       </c>
       <c r="H79">
-        <v>150.69</v>
+        <v>153.06</v>
       </c>
       <c r="I79">
-        <v>98.108999999999995</v>
+        <v>105.85</v>
       </c>
       <c r="J79">
-        <v>40.695</v>
+        <v>40.720999999999997</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -2957,31 +2957,31 @@
         <v>4680</v>
       </c>
       <c r="B80">
-        <v>896.95</v>
+        <v>893.52</v>
       </c>
       <c r="C80">
-        <v>797.77</v>
+        <v>787.91</v>
       </c>
       <c r="D80">
-        <v>569.71</v>
+        <v>549.15</v>
       </c>
       <c r="E80">
-        <v>343.52</v>
+        <v>361.26</v>
       </c>
       <c r="F80">
-        <v>362.6</v>
+        <v>363.3</v>
       </c>
       <c r="G80">
-        <v>235.51</v>
+        <v>243.46</v>
       </c>
       <c r="H80">
-        <v>153.30000000000001</v>
+        <v>155.88999999999999</v>
       </c>
       <c r="I80">
-        <v>99.605999999999995</v>
+        <v>107.53</v>
       </c>
       <c r="J80">
-        <v>41.499000000000002</v>
+        <v>41.512999999999998</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -2989,31 +2989,31 @@
         <v>4740</v>
       </c>
       <c r="B81">
-        <v>899.85</v>
+        <v>896.7</v>
       </c>
       <c r="C81">
-        <v>801.15</v>
+        <v>791.72</v>
       </c>
       <c r="D81">
-        <v>573.55999999999995</v>
+        <v>553.51</v>
       </c>
       <c r="E81">
-        <v>347.16</v>
+        <v>365.37</v>
       </c>
       <c r="F81">
-        <v>366.29</v>
+        <v>367.42</v>
       </c>
       <c r="G81">
-        <v>238.78</v>
+        <v>247.08</v>
       </c>
       <c r="H81">
-        <v>155.91999999999999</v>
+        <v>158.74</v>
       </c>
       <c r="I81">
-        <v>101.1</v>
+        <v>109.24</v>
       </c>
       <c r="J81">
-        <v>42.314</v>
+        <v>42.317</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3021,31 +3021,31 @@
         <v>4800</v>
       </c>
       <c r="B82">
-        <v>902.7</v>
+        <v>899.8</v>
       </c>
       <c r="C82">
-        <v>804.47</v>
+        <v>795.45</v>
       </c>
       <c r="D82">
-        <v>577.36</v>
+        <v>557.79</v>
       </c>
       <c r="E82">
-        <v>350.77</v>
+        <v>369.43</v>
       </c>
       <c r="F82">
-        <v>369.94</v>
+        <v>371.5</v>
       </c>
       <c r="G82">
-        <v>242.02</v>
+        <v>250.66</v>
       </c>
       <c r="H82">
-        <v>158.55000000000001</v>
+        <v>161.6</v>
       </c>
       <c r="I82">
-        <v>102.59</v>
+        <v>110.97</v>
       </c>
       <c r="J82">
-        <v>43.140999999999998</v>
+        <v>43.131999999999998</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3053,31 +3053,31 @@
         <v>4860</v>
       </c>
       <c r="B83">
-        <v>905.49</v>
+        <v>902.83</v>
       </c>
       <c r="C83">
-        <v>807.73</v>
+        <v>799.1</v>
       </c>
       <c r="D83">
-        <v>581.1</v>
+        <v>562</v>
       </c>
       <c r="E83">
-        <v>354.34</v>
+        <v>373.43</v>
       </c>
       <c r="F83">
-        <v>373.55</v>
+        <v>375.52</v>
       </c>
       <c r="G83">
-        <v>245.24</v>
+        <v>254.21</v>
       </c>
       <c r="H83">
-        <v>161.19</v>
+        <v>164.46</v>
       </c>
       <c r="I83">
-        <v>104.09</v>
+        <v>112.71</v>
       </c>
       <c r="J83">
-        <v>43.978999999999999</v>
+        <v>43.959000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3085,31 +3085,31 @@
         <v>4920</v>
       </c>
       <c r="B84">
-        <v>908.24</v>
+        <v>905.79</v>
       </c>
       <c r="C84">
-        <v>810.93</v>
+        <v>802.66</v>
       </c>
       <c r="D84">
-        <v>584.79</v>
+        <v>566.13</v>
       </c>
       <c r="E84">
-        <v>357.87</v>
+        <v>377.39</v>
       </c>
       <c r="F84">
-        <v>377.12</v>
+        <v>379.49</v>
       </c>
       <c r="G84">
-        <v>248.43</v>
+        <v>257.73</v>
       </c>
       <c r="H84">
-        <v>163.83000000000001</v>
+        <v>167.33</v>
       </c>
       <c r="I84">
-        <v>105.59</v>
+        <v>114.46</v>
       </c>
       <c r="J84">
-        <v>44.828000000000003</v>
+        <v>44.795999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -3117,31 +3117,31 @@
         <v>4980</v>
       </c>
       <c r="B85">
-        <v>910.93</v>
+        <v>908.68</v>
       </c>
       <c r="C85">
-        <v>814.08</v>
+        <v>806.15</v>
       </c>
       <c r="D85">
-        <v>588.42999999999995</v>
+        <v>570.19000000000005</v>
       </c>
       <c r="E85">
-        <v>361.37</v>
+        <v>381.31</v>
       </c>
       <c r="F85">
-        <v>380.65</v>
+        <v>383.42</v>
       </c>
       <c r="G85">
-        <v>251.59</v>
+        <v>261.22000000000003</v>
       </c>
       <c r="H85">
-        <v>166.47</v>
+        <v>170.21</v>
       </c>
       <c r="I85">
-        <v>107.1</v>
+        <v>116.24</v>
       </c>
       <c r="J85">
-        <v>45.686</v>
+        <v>45.643999999999998</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3149,31 +3149,31 @@
         <v>5040</v>
       </c>
       <c r="B86">
-        <v>913.58</v>
+        <v>911.51</v>
       </c>
       <c r="C86">
-        <v>817.18</v>
+        <v>809.56</v>
       </c>
       <c r="D86">
-        <v>592.03</v>
+        <v>574.17999999999995</v>
       </c>
       <c r="E86">
-        <v>364.83</v>
+        <v>385.17</v>
       </c>
       <c r="F86">
-        <v>384.15</v>
+        <v>387.29</v>
       </c>
       <c r="G86">
-        <v>254.73</v>
+        <v>264.68</v>
       </c>
       <c r="H86">
-        <v>169.12</v>
+        <v>173.08</v>
       </c>
       <c r="I86">
-        <v>108.62</v>
+        <v>118.07</v>
       </c>
       <c r="J86">
-        <v>46.555</v>
+        <v>46.503</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3181,31 +3181,31 @@
         <v>5100</v>
       </c>
       <c r="B87">
-        <v>916.18</v>
+        <v>914.26</v>
       </c>
       <c r="C87">
-        <v>820.22</v>
+        <v>812.9</v>
       </c>
       <c r="D87">
-        <v>595.57000000000005</v>
+        <v>578.11</v>
       </c>
       <c r="E87">
-        <v>368.25</v>
+        <v>388.99</v>
       </c>
       <c r="F87">
-        <v>387.61</v>
+        <v>391.12</v>
       </c>
       <c r="G87">
-        <v>257.83999999999997</v>
+        <v>268.11</v>
       </c>
       <c r="H87">
-        <v>171.77</v>
+        <v>175.95</v>
       </c>
       <c r="I87">
-        <v>110.14</v>
+        <v>119.93</v>
       </c>
       <c r="J87">
-        <v>47.433</v>
+        <v>47.371000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3213,31 +3213,31 @@
         <v>5160</v>
       </c>
       <c r="B88">
-        <v>918.73</v>
+        <v>916.9</v>
       </c>
       <c r="C88">
-        <v>823.21</v>
+        <v>816.15</v>
       </c>
       <c r="D88">
-        <v>599.08000000000004</v>
+        <v>581.98</v>
       </c>
       <c r="E88">
-        <v>371.65</v>
+        <v>392.77</v>
       </c>
       <c r="F88">
-        <v>391.04</v>
+        <v>394.9</v>
       </c>
       <c r="G88">
-        <v>260.93</v>
+        <v>271.5</v>
       </c>
       <c r="H88">
-        <v>174.41</v>
+        <v>178.82</v>
       </c>
       <c r="I88">
-        <v>111.69</v>
+        <v>121.81</v>
       </c>
       <c r="J88">
-        <v>48.32</v>
+        <v>48.249000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3245,31 +3245,31 @@
         <v>5220</v>
       </c>
       <c r="B89">
-        <v>921.24</v>
+        <v>919.44</v>
       </c>
       <c r="C89">
-        <v>826.16</v>
+        <v>819.31</v>
       </c>
       <c r="D89">
-        <v>602.54</v>
+        <v>585.78</v>
       </c>
       <c r="E89">
-        <v>375.01</v>
+        <v>396.49</v>
       </c>
       <c r="F89">
-        <v>394.44</v>
+        <v>398.63</v>
       </c>
       <c r="G89">
-        <v>264</v>
+        <v>274.86</v>
       </c>
       <c r="H89">
-        <v>177.05</v>
+        <v>181.69</v>
       </c>
       <c r="I89">
-        <v>113.25</v>
+        <v>123.71</v>
       </c>
       <c r="J89">
-        <v>49.216000000000001</v>
+        <v>49.136000000000003</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3277,31 +3277,31 @@
         <v>5280</v>
       </c>
       <c r="B90">
-        <v>923.71</v>
+        <v>921.91</v>
       </c>
       <c r="C90">
-        <v>829.06</v>
+        <v>822.39</v>
       </c>
       <c r="D90">
-        <v>605.95000000000005</v>
+        <v>589.53</v>
       </c>
       <c r="E90">
-        <v>378.33</v>
+        <v>400.18</v>
       </c>
       <c r="F90">
-        <v>397.8</v>
+        <v>402.33</v>
       </c>
       <c r="G90">
-        <v>267.04000000000002</v>
+        <v>278.19</v>
       </c>
       <c r="H90">
-        <v>179.69</v>
+        <v>184.55</v>
       </c>
       <c r="I90">
-        <v>114.83</v>
+        <v>125.63</v>
       </c>
       <c r="J90">
-        <v>50.12</v>
+        <v>50.031999999999996</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3309,31 +3309,31 @@
         <v>5340</v>
       </c>
       <c r="B91">
-        <v>926.14</v>
+        <v>924.3</v>
       </c>
       <c r="C91">
-        <v>831.92</v>
+        <v>825.39</v>
       </c>
       <c r="D91">
-        <v>609.32000000000005</v>
+        <v>593.21</v>
       </c>
       <c r="E91">
-        <v>381.63</v>
+        <v>403.82</v>
       </c>
       <c r="F91">
-        <v>401.13</v>
+        <v>405.98</v>
       </c>
       <c r="G91">
-        <v>270.06</v>
+        <v>281.5</v>
       </c>
       <c r="H91">
-        <v>182.33</v>
+        <v>187.41</v>
       </c>
       <c r="I91">
-        <v>116.44</v>
+        <v>127.58</v>
       </c>
       <c r="J91">
-        <v>51.031999999999996</v>
+        <v>50.936999999999998</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3341,31 +3341,31 @@
         <v>5400</v>
       </c>
       <c r="B92">
-        <v>928.53</v>
+        <v>926.64</v>
       </c>
       <c r="C92">
-        <v>834.74</v>
+        <v>828.32</v>
       </c>
       <c r="D92">
-        <v>612.65</v>
+        <v>596.84</v>
       </c>
       <c r="E92">
-        <v>384.89</v>
+        <v>407.42</v>
       </c>
       <c r="F92">
-        <v>404.42</v>
+        <v>409.59</v>
       </c>
       <c r="G92">
-        <v>273.05</v>
+        <v>284.77999999999997</v>
       </c>
       <c r="H92">
-        <v>184.96</v>
+        <v>190.26</v>
       </c>
       <c r="I92">
-        <v>118.06</v>
+        <v>129.56</v>
       </c>
       <c r="J92">
-        <v>51.951999999999998</v>
+        <v>51.85</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3373,31 +3373,31 @@
         <v>5460</v>
       </c>
       <c r="B93">
-        <v>930.88</v>
+        <v>928.92</v>
       </c>
       <c r="C93">
-        <v>837.51</v>
+        <v>831.18</v>
       </c>
       <c r="D93">
-        <v>615.94000000000005</v>
+        <v>600.4</v>
       </c>
       <c r="E93">
-        <v>388.12</v>
+        <v>410.97</v>
       </c>
       <c r="F93">
-        <v>407.69</v>
+        <v>413.15</v>
       </c>
       <c r="G93">
-        <v>276.02</v>
+        <v>288.02</v>
       </c>
       <c r="H93">
-        <v>187.58</v>
+        <v>193.09</v>
       </c>
       <c r="I93">
-        <v>119.71</v>
+        <v>131.56</v>
       </c>
       <c r="J93">
-        <v>52.878999999999998</v>
+        <v>52.77</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3405,31 +3405,31 @@
         <v>5520</v>
       </c>
       <c r="B94">
-        <v>933.2</v>
+        <v>931.15</v>
       </c>
       <c r="C94">
-        <v>840.23</v>
+        <v>833.98</v>
       </c>
       <c r="D94">
-        <v>619.19000000000005</v>
+        <v>603.91</v>
       </c>
       <c r="E94">
-        <v>391.33</v>
+        <v>414.49</v>
       </c>
       <c r="F94">
-        <v>410.92</v>
+        <v>416.68</v>
       </c>
       <c r="G94">
-        <v>278.97000000000003</v>
+        <v>291.24</v>
       </c>
       <c r="H94">
-        <v>190.2</v>
+        <v>195.9</v>
       </c>
       <c r="I94">
-        <v>121.39</v>
+        <v>133.58000000000001</v>
       </c>
       <c r="J94">
-        <v>53.814</v>
+        <v>53.698999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -3437,31 +3437,31 @@
         <v>5580</v>
       </c>
       <c r="B95">
-        <v>935.48</v>
+        <v>933.34</v>
       </c>
       <c r="C95">
-        <v>842.93</v>
+        <v>836.72</v>
       </c>
       <c r="D95">
-        <v>622.4</v>
+        <v>607.37</v>
       </c>
       <c r="E95">
-        <v>394.5</v>
+        <v>417.96</v>
       </c>
       <c r="F95">
-        <v>414.12</v>
+        <v>420.16</v>
       </c>
       <c r="G95">
-        <v>281.89999999999998</v>
+        <v>294.44</v>
       </c>
       <c r="H95">
-        <v>192.8</v>
+        <v>198.7</v>
       </c>
       <c r="I95">
-        <v>123.08</v>
+        <v>135.62</v>
       </c>
       <c r="J95">
-        <v>54.755000000000003</v>
+        <v>54.634999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -3469,31 +3469,31 @@
         <v>5640</v>
       </c>
       <c r="B96">
-        <v>937.73</v>
+        <v>935.48</v>
       </c>
       <c r="C96">
-        <v>845.58</v>
+        <v>839.4</v>
       </c>
       <c r="D96">
-        <v>625.55999999999995</v>
+        <v>610.77</v>
       </c>
       <c r="E96">
-        <v>397.65</v>
+        <v>421.4</v>
       </c>
       <c r="F96">
-        <v>417.29</v>
+        <v>423.6</v>
       </c>
       <c r="G96">
-        <v>284.8</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="H96">
-        <v>195.39</v>
+        <v>201.49</v>
       </c>
       <c r="I96">
-        <v>124.79</v>
+        <v>137.66999999999999</v>
       </c>
       <c r="J96">
-        <v>55.701999999999998</v>
+        <v>55.576999999999998</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3501,31 +3501,31 @@
         <v>5700</v>
       </c>
       <c r="B97">
-        <v>939.94</v>
+        <v>937.59</v>
       </c>
       <c r="C97">
-        <v>848.2</v>
+        <v>842.04</v>
       </c>
       <c r="D97">
-        <v>628.70000000000005</v>
+        <v>614.12</v>
       </c>
       <c r="E97">
-        <v>400.77</v>
+        <v>424.79</v>
       </c>
       <c r="F97">
-        <v>420.43</v>
+        <v>427.01</v>
       </c>
       <c r="G97">
-        <v>287.68</v>
+        <v>300.73</v>
       </c>
       <c r="H97">
-        <v>197.98</v>
+        <v>204.28</v>
       </c>
       <c r="I97">
-        <v>126.52</v>
+        <v>139.75</v>
       </c>
       <c r="J97">
-        <v>56.655000000000001</v>
+        <v>56.527000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3533,31 +3533,31 @@
         <v>5760</v>
       </c>
       <c r="B98">
-        <v>942.12</v>
+        <v>939.66</v>
       </c>
       <c r="C98">
-        <v>850.78</v>
+        <v>844.63</v>
       </c>
       <c r="D98">
-        <v>631.79</v>
+        <v>617.41999999999996</v>
       </c>
       <c r="E98">
-        <v>403.86</v>
+        <v>428.15</v>
       </c>
       <c r="F98">
-        <v>423.54</v>
+        <v>430.37</v>
       </c>
       <c r="G98">
-        <v>290.55</v>
+        <v>303.83999999999997</v>
       </c>
       <c r="H98">
-        <v>200.55</v>
+        <v>207.05</v>
       </c>
       <c r="I98">
-        <v>128.27000000000001</v>
+        <v>141.84</v>
       </c>
       <c r="J98">
-        <v>57.613999999999997</v>
+        <v>57.481999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3565,31 +3565,31 @@
         <v>5820</v>
       </c>
       <c r="B99">
-        <v>944.27</v>
+        <v>941.7</v>
       </c>
       <c r="C99">
-        <v>853.33</v>
+        <v>847.15</v>
       </c>
       <c r="D99">
-        <v>634.85</v>
+        <v>620.66999999999996</v>
       </c>
       <c r="E99">
-        <v>406.92</v>
+        <v>431.46</v>
       </c>
       <c r="F99">
-        <v>426.62</v>
+        <v>433.7</v>
       </c>
       <c r="G99">
-        <v>293.39</v>
+        <v>306.92</v>
       </c>
       <c r="H99">
-        <v>203.11</v>
+        <v>209.81</v>
       </c>
       <c r="I99">
-        <v>130.04</v>
+        <v>143.94999999999999</v>
       </c>
       <c r="J99">
-        <v>58.578000000000003</v>
+        <v>58.442999999999998</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -3597,31 +3597,31 @@
         <v>5880</v>
       </c>
       <c r="B100">
-        <v>946.39</v>
+        <v>943.7</v>
       </c>
       <c r="C100">
-        <v>855.84</v>
+        <v>849.63</v>
       </c>
       <c r="D100">
-        <v>637.88</v>
+        <v>623.88</v>
       </c>
       <c r="E100">
-        <v>409.96</v>
+        <v>434.74</v>
       </c>
       <c r="F100">
-        <v>429.68</v>
+        <v>436.98</v>
       </c>
       <c r="G100">
-        <v>296.20999999999998</v>
+        <v>309.98</v>
       </c>
       <c r="H100">
-        <v>205.66</v>
+        <v>212.54</v>
       </c>
       <c r="I100">
-        <v>131.82</v>
+        <v>146.07</v>
       </c>
       <c r="J100">
-        <v>59.545999999999999</v>
+        <v>59.41</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3629,31 +3629,31 @@
         <v>5940</v>
       </c>
       <c r="B101">
-        <v>948.48</v>
+        <v>945.68</v>
       </c>
       <c r="C101">
-        <v>858.32</v>
+        <v>852.07</v>
       </c>
       <c r="D101">
-        <v>640.87</v>
+        <v>627.04999999999995</v>
       </c>
       <c r="E101">
-        <v>412.97</v>
+        <v>437.99</v>
       </c>
       <c r="F101">
-        <v>432.7</v>
+        <v>440.23</v>
       </c>
       <c r="G101">
-        <v>299.01</v>
+        <v>313.01</v>
       </c>
       <c r="H101">
-        <v>208.19</v>
+        <v>215.25</v>
       </c>
       <c r="I101">
-        <v>133.63</v>
+        <v>148.21</v>
       </c>
       <c r="J101">
-        <v>60.52</v>
+        <v>60.381999999999998</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -3661,31 +3661,31 @@
         <v>6000</v>
       </c>
       <c r="B102">
-        <v>950.54</v>
+        <v>947.62</v>
       </c>
       <c r="C102">
-        <v>860.76</v>
+        <v>854.5</v>
       </c>
       <c r="D102">
-        <v>643.83000000000004</v>
+        <v>630.16999999999996</v>
       </c>
       <c r="E102">
-        <v>415.95</v>
+        <v>441.2</v>
       </c>
       <c r="F102">
-        <v>435.7</v>
+        <v>443.45</v>
       </c>
       <c r="G102">
-        <v>301.79000000000002</v>
+        <v>316.01</v>
       </c>
       <c r="H102">
-        <v>210.71</v>
+        <v>217.94</v>
       </c>
       <c r="I102">
-        <v>135.44</v>
+        <v>150.35</v>
       </c>
       <c r="J102">
-        <v>61.497</v>
+        <v>61.359000000000002</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -3693,31 +3693,31 @@
         <v>6060</v>
       </c>
       <c r="B103">
-        <v>952.57</v>
+        <v>949.53</v>
       </c>
       <c r="C103">
-        <v>863.18</v>
+        <v>856.89</v>
       </c>
       <c r="D103">
-        <v>646.76</v>
+        <v>633.26</v>
       </c>
       <c r="E103">
-        <v>418.91</v>
+        <v>444.37</v>
       </c>
       <c r="F103">
-        <v>438.68</v>
+        <v>446.63</v>
       </c>
       <c r="G103">
-        <v>304.56</v>
+        <v>318.99</v>
       </c>
       <c r="H103">
-        <v>213.22</v>
+        <v>220.62</v>
       </c>
       <c r="I103">
-        <v>137.27000000000001</v>
+        <v>152.51</v>
       </c>
       <c r="J103">
-        <v>62.478999999999999</v>
+        <v>62.34</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -3725,31 +3725,31 @@
         <v>6120</v>
       </c>
       <c r="B104">
-        <v>954.58</v>
+        <v>951.41</v>
       </c>
       <c r="C104">
-        <v>865.57</v>
+        <v>859.25</v>
       </c>
       <c r="D104">
-        <v>649.66</v>
+        <v>636.29999999999995</v>
       </c>
       <c r="E104">
-        <v>421.84</v>
+        <v>447.52</v>
       </c>
       <c r="F104">
-        <v>441.63</v>
+        <v>449.78</v>
       </c>
       <c r="G104">
-        <v>307.3</v>
+        <v>321.94</v>
       </c>
       <c r="H104">
-        <v>215.71</v>
+        <v>223.29</v>
       </c>
       <c r="I104">
-        <v>139.12</v>
+        <v>154.66999999999999</v>
       </c>
       <c r="J104">
-        <v>63.463999999999999</v>
+        <v>63.326000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -3757,31 +3757,31 @@
         <v>6180</v>
       </c>
       <c r="B105">
-        <v>956.56</v>
+        <v>953.27</v>
       </c>
       <c r="C105">
-        <v>867.92</v>
+        <v>861.58</v>
       </c>
       <c r="D105">
-        <v>652.52</v>
+        <v>639.29999999999995</v>
       </c>
       <c r="E105">
-        <v>424.75</v>
+        <v>450.62</v>
       </c>
       <c r="F105">
-        <v>444.55</v>
+        <v>452.89</v>
       </c>
       <c r="G105">
-        <v>310.02</v>
+        <v>324.87</v>
       </c>
       <c r="H105">
-        <v>218.19</v>
+        <v>225.94</v>
       </c>
       <c r="I105">
-        <v>140.97999999999999</v>
+        <v>156.85</v>
       </c>
       <c r="J105">
-        <v>64.451999999999998</v>
+        <v>64.314999999999998</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -3789,31 +3789,31 @@
         <v>6240</v>
       </c>
       <c r="B106">
-        <v>958.51</v>
+        <v>955.11</v>
       </c>
       <c r="C106">
-        <v>870.25</v>
+        <v>863.89</v>
       </c>
       <c r="D106">
-        <v>655.36</v>
+        <v>642.27</v>
       </c>
       <c r="E106">
-        <v>427.63</v>
+        <v>453.7</v>
       </c>
       <c r="F106">
-        <v>447.45</v>
+        <v>455.98</v>
       </c>
       <c r="G106">
-        <v>312.73</v>
+        <v>327.77</v>
       </c>
       <c r="H106">
-        <v>220.66</v>
+        <v>228.58</v>
       </c>
       <c r="I106">
-        <v>142.85</v>
+        <v>159.03</v>
       </c>
       <c r="J106">
-        <v>65.442999999999998</v>
+        <v>65.308000000000007</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -3821,31 +3821,31 @@
         <v>6300</v>
       </c>
       <c r="B107">
-        <v>960.44</v>
+        <v>956.93</v>
       </c>
       <c r="C107">
-        <v>872.55</v>
+        <v>866.16</v>
       </c>
       <c r="D107">
-        <v>658.17</v>
+        <v>645.20000000000005</v>
       </c>
       <c r="E107">
-        <v>430.49</v>
+        <v>456.75</v>
       </c>
       <c r="F107">
-        <v>450.32</v>
+        <v>459.03</v>
       </c>
       <c r="G107">
-        <v>315.41000000000003</v>
+        <v>330.65</v>
       </c>
       <c r="H107">
-        <v>223.11</v>
+        <v>231.21</v>
       </c>
       <c r="I107">
-        <v>144.74</v>
+        <v>161.22</v>
       </c>
       <c r="J107">
-        <v>66.436000000000007</v>
+        <v>66.304000000000002</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -3853,31 +3853,31 @@
         <v>6360</v>
       </c>
       <c r="B108">
-        <v>962.35</v>
+        <v>958.72</v>
       </c>
       <c r="C108">
-        <v>874.82</v>
+        <v>868.4</v>
       </c>
       <c r="D108">
-        <v>660.94</v>
+        <v>648.1</v>
       </c>
       <c r="E108">
-        <v>433.32</v>
+        <v>459.76</v>
       </c>
       <c r="F108">
-        <v>453.17</v>
+        <v>462.05</v>
       </c>
       <c r="G108">
-        <v>318.08</v>
+        <v>333.51</v>
       </c>
       <c r="H108">
-        <v>225.55</v>
+        <v>233.81</v>
       </c>
       <c r="I108">
-        <v>146.63</v>
+        <v>163.41999999999999</v>
       </c>
       <c r="J108">
-        <v>67.430999999999997</v>
+        <v>67.302999999999997</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -3885,31 +3885,31 @@
         <v>6420</v>
       </c>
       <c r="B109">
-        <v>964.23</v>
+        <v>960.49</v>
       </c>
       <c r="C109">
-        <v>877.06</v>
+        <v>870.62</v>
       </c>
       <c r="D109">
-        <v>663.69</v>
+        <v>650.96</v>
       </c>
       <c r="E109">
-        <v>436.14</v>
+        <v>462.75</v>
       </c>
       <c r="F109">
-        <v>455.99</v>
+        <v>465.05</v>
       </c>
       <c r="G109">
-        <v>320.72000000000003</v>
+        <v>336.34</v>
       </c>
       <c r="H109">
-        <v>227.98</v>
+        <v>236.39</v>
       </c>
       <c r="I109">
-        <v>148.54</v>
+        <v>165.62</v>
       </c>
       <c r="J109">
-        <v>68.429000000000002</v>
+        <v>68.304000000000002</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -3917,31 +3917,31 @@
         <v>6480</v>
       </c>
       <c r="B110">
-        <v>966.09</v>
+        <v>962.24</v>
       </c>
       <c r="C110">
-        <v>879.28</v>
+        <v>872.81</v>
       </c>
       <c r="D110">
-        <v>666.42</v>
+        <v>653.79</v>
       </c>
       <c r="E110">
-        <v>438.92</v>
+        <v>465.7</v>
       </c>
       <c r="F110">
-        <v>458.8</v>
+        <v>468.01</v>
       </c>
       <c r="G110">
-        <v>323.35000000000002</v>
+        <v>339.15</v>
       </c>
       <c r="H110">
-        <v>230.39</v>
+        <v>238.95</v>
       </c>
       <c r="I110">
-        <v>150.44999999999999</v>
+        <v>167.82</v>
       </c>
       <c r="J110">
-        <v>69.427000000000007</v>
+        <v>69.307000000000002</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -3949,31 +3949,31 @@
         <v>6540</v>
       </c>
       <c r="B111">
-        <v>967.92</v>
+        <v>963.97</v>
       </c>
       <c r="C111">
-        <v>881.48</v>
+        <v>874.97</v>
       </c>
       <c r="D111">
-        <v>669.12</v>
+        <v>656.58</v>
       </c>
       <c r="E111">
-        <v>441.69</v>
+        <v>468.63</v>
       </c>
       <c r="F111">
-        <v>461.58</v>
+        <v>470.94</v>
       </c>
       <c r="G111">
-        <v>325.97000000000003</v>
+        <v>341.94</v>
       </c>
       <c r="H111">
-        <v>232.79</v>
+        <v>241.51</v>
       </c>
       <c r="I111">
-        <v>152.38</v>
+        <v>170.03</v>
       </c>
       <c r="J111">
-        <v>70.427000000000007</v>
+        <v>70.311999999999998</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -3981,31 +3981,31 @@
         <v>6600</v>
       </c>
       <c r="B112">
-        <v>969.74</v>
+        <v>965.68</v>
       </c>
       <c r="C112">
-        <v>883.65</v>
+        <v>877.12</v>
       </c>
       <c r="D112">
-        <v>671.79</v>
+        <v>659.34</v>
       </c>
       <c r="E112">
-        <v>444.44</v>
+        <v>471.53</v>
       </c>
       <c r="F112">
-        <v>464.33</v>
+        <v>473.85</v>
       </c>
       <c r="G112">
-        <v>328.56</v>
+        <v>344.71</v>
       </c>
       <c r="H112">
-        <v>235.17</v>
+        <v>244.04</v>
       </c>
       <c r="I112">
-        <v>154.31</v>
+        <v>172.24</v>
       </c>
       <c r="J112">
-        <v>71.427000000000007</v>
+        <v>71.317999999999998</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -4013,31 +4013,31 @@
         <v>6660</v>
       </c>
       <c r="B113">
-        <v>971.53</v>
+        <v>967.37</v>
       </c>
       <c r="C113">
-        <v>885.79</v>
+        <v>879.23</v>
       </c>
       <c r="D113">
-        <v>674.43</v>
+        <v>662.07</v>
       </c>
       <c r="E113">
-        <v>447.16</v>
+        <v>474.41</v>
       </c>
       <c r="F113">
-        <v>467.07</v>
+        <v>476.73</v>
       </c>
       <c r="G113">
-        <v>331.14</v>
+        <v>347.45</v>
       </c>
       <c r="H113">
-        <v>237.55</v>
+        <v>246.57</v>
       </c>
       <c r="I113">
-        <v>156.25</v>
+        <v>174.45</v>
       </c>
       <c r="J113">
-        <v>72.427000000000007</v>
+        <v>72.325000000000003</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -4045,31 +4045,31 @@
         <v>6720</v>
       </c>
       <c r="B114">
-        <v>973.3</v>
+        <v>969.04</v>
       </c>
       <c r="C114">
-        <v>887.91</v>
+        <v>881.33</v>
       </c>
       <c r="D114">
-        <v>677.05</v>
+        <v>664.77</v>
       </c>
       <c r="E114">
-        <v>449.87</v>
+        <v>477.26</v>
       </c>
       <c r="F114">
-        <v>469.79</v>
+        <v>479.58</v>
       </c>
       <c r="G114">
-        <v>333.7</v>
+        <v>350.17</v>
       </c>
       <c r="H114">
-        <v>239.91</v>
+        <v>249.08</v>
       </c>
       <c r="I114">
-        <v>158.19999999999999</v>
+        <v>176.66</v>
       </c>
       <c r="J114">
-        <v>73.427000000000007</v>
+        <v>73.331999999999994</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4077,31 +4077,31 @@
         <v>6780</v>
       </c>
       <c r="B115">
-        <v>975.05</v>
+        <v>970.7</v>
       </c>
       <c r="C115">
-        <v>890.01</v>
+        <v>883.4</v>
       </c>
       <c r="D115">
-        <v>679.65</v>
+        <v>667.44</v>
       </c>
       <c r="E115">
-        <v>452.55</v>
+        <v>480.08</v>
       </c>
       <c r="F115">
-        <v>472.48</v>
+        <v>482.41</v>
       </c>
       <c r="G115">
-        <v>336.24</v>
+        <v>352.88</v>
       </c>
       <c r="H115">
-        <v>242.26</v>
+        <v>251.57</v>
       </c>
       <c r="I115">
-        <v>160.15</v>
+        <v>178.87</v>
       </c>
       <c r="J115">
-        <v>74.427000000000007</v>
+        <v>74.34</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -4109,31 +4109,31 @@
         <v>6840</v>
       </c>
       <c r="B116">
-        <v>976.78</v>
+        <v>972.34</v>
       </c>
       <c r="C116">
-        <v>892.08</v>
+        <v>885.45</v>
       </c>
       <c r="D116">
-        <v>682.22</v>
+        <v>670.09</v>
       </c>
       <c r="E116">
-        <v>455.21</v>
+        <v>482.88</v>
       </c>
       <c r="F116">
-        <v>475.15</v>
+        <v>485.21</v>
       </c>
       <c r="G116">
-        <v>338.76</v>
+        <v>355.56</v>
       </c>
       <c r="H116">
-        <v>244.6</v>
+        <v>254.05</v>
       </c>
       <c r="I116">
-        <v>162.11000000000001</v>
+        <v>181.07</v>
       </c>
       <c r="J116">
-        <v>75.426000000000002</v>
+        <v>75.347999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4141,31 +4141,31 @@
         <v>6900</v>
       </c>
       <c r="B117">
-        <v>978.5</v>
+        <v>973.96</v>
       </c>
       <c r="C117">
-        <v>894.13</v>
+        <v>887.47</v>
       </c>
       <c r="D117">
-        <v>684.77</v>
+        <v>672.71</v>
       </c>
       <c r="E117">
-        <v>457.85</v>
+        <v>485.65</v>
       </c>
       <c r="F117">
-        <v>477.81</v>
+        <v>487.99</v>
       </c>
       <c r="G117">
-        <v>341.28</v>
+        <v>358.22</v>
       </c>
       <c r="H117">
-        <v>246.92</v>
+        <v>256.52</v>
       </c>
       <c r="I117">
-        <v>164.08</v>
+        <v>183.28</v>
       </c>
       <c r="J117">
-        <v>76.424000000000007</v>
+        <v>76.355000000000004</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4173,31 +4173,31 @@
         <v>6960</v>
       </c>
       <c r="B118">
-        <v>980.19</v>
+        <v>975.56</v>
       </c>
       <c r="C118">
-        <v>896.16</v>
+        <v>889.47</v>
       </c>
       <c r="D118">
-        <v>687.3</v>
+        <v>675.3</v>
       </c>
       <c r="E118">
-        <v>460.47</v>
+        <v>488.4</v>
       </c>
       <c r="F118">
-        <v>480.44</v>
+        <v>490.74</v>
       </c>
       <c r="G118">
-        <v>343.77</v>
+        <v>360.86</v>
       </c>
       <c r="H118">
-        <v>249.24</v>
+        <v>258.95999999999998</v>
       </c>
       <c r="I118">
-        <v>166.05</v>
+        <v>185.48</v>
       </c>
       <c r="J118">
-        <v>77.42</v>
+        <v>77.361000000000004</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -4205,31 +4205,31 @@
         <v>7020</v>
       </c>
       <c r="B119">
-        <v>981.86</v>
+        <v>977.15</v>
       </c>
       <c r="C119">
-        <v>898.18</v>
+        <v>891.45</v>
       </c>
       <c r="D119">
-        <v>689.81</v>
+        <v>677.86</v>
       </c>
       <c r="E119">
-        <v>463.08</v>
+        <v>491.13</v>
       </c>
       <c r="F119">
-        <v>483.05</v>
+        <v>493.47</v>
       </c>
       <c r="G119">
-        <v>346.25</v>
+        <v>363.49</v>
       </c>
       <c r="H119">
-        <v>251.54</v>
+        <v>261.39999999999998</v>
       </c>
       <c r="I119">
-        <v>168.02</v>
+        <v>187.68</v>
       </c>
       <c r="J119">
-        <v>78.414000000000001</v>
+        <v>78.366</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -4237,31 +4237,31 @@
         <v>7080</v>
       </c>
       <c r="B120">
-        <v>983.52</v>
+        <v>978.72</v>
       </c>
       <c r="C120">
-        <v>900.17</v>
+        <v>893.41</v>
       </c>
       <c r="D120">
-        <v>692.29</v>
+        <v>680.41</v>
       </c>
       <c r="E120">
-        <v>465.66</v>
+        <v>493.83</v>
       </c>
       <c r="F120">
-        <v>485.65</v>
+        <v>496.17</v>
       </c>
       <c r="G120">
-        <v>348.71</v>
+        <v>366.09</v>
       </c>
       <c r="H120">
-        <v>253.83</v>
+        <v>263.82</v>
       </c>
       <c r="I120">
-        <v>170</v>
+        <v>189.88</v>
       </c>
       <c r="J120">
-        <v>79.406000000000006</v>
+        <v>79.37</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -4269,31 +4269,31 @@
         <v>7140</v>
       </c>
       <c r="B121">
-        <v>985.16</v>
+        <v>980.27</v>
       </c>
       <c r="C121">
-        <v>902.14</v>
+        <v>895.34</v>
       </c>
       <c r="D121">
-        <v>694.75</v>
+        <v>682.93</v>
       </c>
       <c r="E121">
-        <v>468.23</v>
+        <v>496.51</v>
       </c>
       <c r="F121">
-        <v>488.23</v>
+        <v>498.86</v>
       </c>
       <c r="G121">
-        <v>351.16</v>
+        <v>368.67</v>
       </c>
       <c r="H121">
-        <v>256.11</v>
+        <v>266.22000000000003</v>
       </c>
       <c r="I121">
-        <v>171.98</v>
+        <v>192.07</v>
       </c>
       <c r="J121">
-        <v>80.394999999999996</v>
+        <v>80.370999999999995</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -4301,31 +4301,31 @@
         <v>7200</v>
       </c>
       <c r="B122">
-        <v>986.78</v>
+        <v>981.82</v>
       </c>
       <c r="C122">
-        <v>904.09</v>
+        <v>897.26</v>
       </c>
       <c r="D122">
-        <v>697.19</v>
+        <v>685.42</v>
       </c>
       <c r="E122">
-        <v>470.78</v>
+        <v>499.17</v>
       </c>
       <c r="F122">
-        <v>490.78</v>
+        <v>501.52</v>
       </c>
       <c r="G122">
-        <v>353.59</v>
+        <v>371.24</v>
       </c>
       <c r="H122">
-        <v>258.37</v>
+        <v>268.62</v>
       </c>
       <c r="I122">
-        <v>173.96</v>
+        <v>194.25</v>
       </c>
       <c r="J122">
-        <v>81.38</v>
+        <v>81.369</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4333,31 +4333,31 @@
         <v>7260</v>
       </c>
       <c r="B123">
-        <v>988.38</v>
+        <v>983.34</v>
       </c>
       <c r="C123">
-        <v>906.01</v>
+        <v>899.16</v>
       </c>
       <c r="D123">
-        <v>699.61</v>
+        <v>687.89</v>
       </c>
       <c r="E123">
-        <v>473.31</v>
+        <v>501.8</v>
       </c>
       <c r="F123">
-        <v>493.32</v>
+        <v>504.16</v>
       </c>
       <c r="G123">
-        <v>356.01</v>
+        <v>373.79</v>
       </c>
       <c r="H123">
-        <v>260.63</v>
+        <v>271</v>
       </c>
       <c r="I123">
-        <v>175.94</v>
+        <v>196.43</v>
       </c>
       <c r="J123">
-        <v>82.361999999999995</v>
+        <v>82.364999999999995</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -4365,31 +4365,31 @@
         <v>7320</v>
       </c>
       <c r="B124">
-        <v>989.97</v>
+        <v>984.85</v>
       </c>
       <c r="C124">
-        <v>907.92</v>
+        <v>901.03</v>
       </c>
       <c r="D124">
-        <v>702.01</v>
+        <v>690.34</v>
       </c>
       <c r="E124">
-        <v>475.82</v>
+        <v>504.42</v>
       </c>
       <c r="F124">
-        <v>495.84</v>
+        <v>506.77</v>
       </c>
       <c r="G124">
-        <v>358.41</v>
+        <v>376.32</v>
       </c>
       <c r="H124">
-        <v>262.88</v>
+        <v>273.37</v>
       </c>
       <c r="I124">
-        <v>177.92</v>
+        <v>198.59</v>
       </c>
       <c r="J124">
-        <v>83.338999999999999</v>
+        <v>83.356999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -4397,31 +4397,31 @@
         <v>7380</v>
       </c>
       <c r="B125">
-        <v>991.54</v>
+        <v>986.35</v>
       </c>
       <c r="C125">
-        <v>909.81</v>
+        <v>902.89</v>
       </c>
       <c r="D125">
-        <v>704.39</v>
+        <v>692.76</v>
       </c>
       <c r="E125">
-        <v>478.31</v>
+        <v>507.01</v>
       </c>
       <c r="F125">
-        <v>498.35</v>
+        <v>509.37</v>
       </c>
       <c r="G125">
-        <v>360.8</v>
+        <v>378.84</v>
       </c>
       <c r="H125">
-        <v>265.11</v>
+        <v>275.72000000000003</v>
       </c>
       <c r="I125">
-        <v>179.9</v>
+        <v>200.75</v>
       </c>
       <c r="J125">
-        <v>84.311999999999998</v>
+        <v>84.344999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -4429,31 +4429,31 @@
         <v>7440</v>
       </c>
       <c r="B126">
-        <v>993.09</v>
+        <v>987.83</v>
       </c>
       <c r="C126">
-        <v>911.68</v>
+        <v>904.73</v>
       </c>
       <c r="D126">
-        <v>706.74</v>
+        <v>695.16</v>
       </c>
       <c r="E126">
-        <v>480.79</v>
+        <v>509.58</v>
       </c>
       <c r="F126">
-        <v>500.83</v>
+        <v>511.94</v>
       </c>
       <c r="G126">
-        <v>363.18</v>
+        <v>381.33</v>
       </c>
       <c r="H126">
-        <v>267.33</v>
+        <v>278.06</v>
       </c>
       <c r="I126">
-        <v>181.89</v>
+        <v>202.91</v>
       </c>
       <c r="J126">
-        <v>85.278999999999996</v>
+        <v>85.328000000000003</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -4461,31 +4461,31 @@
         <v>7500</v>
       </c>
       <c r="B127">
-        <v>994.63</v>
+        <v>989.3</v>
       </c>
       <c r="C127">
-        <v>913.53</v>
+        <v>906.56</v>
       </c>
       <c r="D127">
-        <v>709.08</v>
+        <v>697.54</v>
       </c>
       <c r="E127">
-        <v>483.25</v>
+        <v>512.13</v>
       </c>
       <c r="F127">
-        <v>503.3</v>
+        <v>514.49</v>
       </c>
       <c r="G127">
-        <v>365.54</v>
+        <v>383.82</v>
       </c>
       <c r="H127">
-        <v>269.55</v>
+        <v>280.39</v>
       </c>
       <c r="I127">
-        <v>183.87</v>
+        <v>205.06</v>
       </c>
       <c r="J127">
-        <v>86.241</v>
+        <v>86.308000000000007</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -4493,31 +4493,31 @@
         <v>7560</v>
       </c>
       <c r="B128">
-        <v>996.15</v>
+        <v>990.76</v>
       </c>
       <c r="C128">
-        <v>915.36</v>
+        <v>908.36</v>
       </c>
       <c r="D128">
-        <v>711.39</v>
+        <v>699.89</v>
       </c>
       <c r="E128">
-        <v>485.7</v>
+        <v>514.66</v>
       </c>
       <c r="F128">
-        <v>505.75</v>
+        <v>517.03</v>
       </c>
       <c r="G128">
-        <v>367.89</v>
+        <v>386.28</v>
       </c>
       <c r="H128">
-        <v>271.75</v>
+        <v>282.7</v>
       </c>
       <c r="I128">
-        <v>185.85</v>
+        <v>207.2</v>
       </c>
       <c r="J128">
-        <v>87.195999999999998</v>
+        <v>87.281999999999996</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -4525,31 +4525,31 @@
         <v>7620</v>
       </c>
       <c r="B129">
-        <v>997.66</v>
+        <v>992.2</v>
       </c>
       <c r="C129">
-        <v>917.17</v>
+        <v>910.14</v>
       </c>
       <c r="D129">
-        <v>713.69</v>
+        <v>702.23</v>
       </c>
       <c r="E129">
-        <v>488.13</v>
+        <v>517.16999999999996</v>
       </c>
       <c r="F129">
-        <v>508.19</v>
+        <v>519.54</v>
       </c>
       <c r="G129">
-        <v>370.22</v>
+        <v>388.73</v>
       </c>
       <c r="H129">
-        <v>273.94</v>
+        <v>285</v>
       </c>
       <c r="I129">
-        <v>187.83</v>
+        <v>209.34</v>
       </c>
       <c r="J129">
-        <v>88.144999999999996</v>
+        <v>88.248999999999995</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -4557,31 +4557,31 @@
         <v>7680</v>
       </c>
       <c r="B130">
-        <v>999.15</v>
+        <v>993.63</v>
       </c>
       <c r="C130">
-        <v>918.96</v>
+        <v>911.91</v>
       </c>
       <c r="D130">
-        <v>715.97</v>
+        <v>704.55</v>
       </c>
       <c r="E130">
-        <v>490.54</v>
+        <v>519.66</v>
       </c>
       <c r="F130">
-        <v>510.61</v>
+        <v>522.03</v>
       </c>
       <c r="G130">
-        <v>372.55</v>
+        <v>391.16</v>
       </c>
       <c r="H130">
-        <v>276.12</v>
+        <v>287.3</v>
       </c>
       <c r="I130">
-        <v>189.8</v>
+        <v>211.47</v>
       </c>
       <c r="J130">
-        <v>89.084999999999994</v>
+        <v>89.21</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -4589,31 +4589,31 @@
         <v>7740</v>
       </c>
       <c r="B131">
-        <v>1000.6</v>
+        <v>995.04</v>
       </c>
       <c r="C131">
-        <v>920.74</v>
+        <v>913.66</v>
       </c>
       <c r="D131">
-        <v>718.23</v>
+        <v>706.84</v>
       </c>
       <c r="E131">
-        <v>492.94</v>
+        <v>522.13</v>
       </c>
       <c r="F131">
-        <v>513.01</v>
+        <v>524.51</v>
       </c>
       <c r="G131">
-        <v>374.86</v>
+        <v>393.58</v>
       </c>
       <c r="H131">
-        <v>278.29000000000002</v>
+        <v>289.57</v>
       </c>
       <c r="I131">
-        <v>191.77</v>
+        <v>213.58</v>
       </c>
       <c r="J131">
-        <v>90.018000000000001</v>
+        <v>90.165000000000006</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -4621,31 +4621,31 @@
         <v>7800</v>
       </c>
       <c r="B132">
-        <v>1002.1</v>
+        <v>996.45</v>
       </c>
       <c r="C132">
-        <v>922.5</v>
+        <v>915.39</v>
       </c>
       <c r="D132">
-        <v>720.47</v>
+        <v>709.12</v>
       </c>
       <c r="E132">
-        <v>495.32</v>
+        <v>524.58000000000004</v>
       </c>
       <c r="F132">
-        <v>515.39</v>
+        <v>526.96</v>
       </c>
       <c r="G132">
-        <v>377.15</v>
+        <v>395.98</v>
       </c>
       <c r="H132">
-        <v>280.45999999999998</v>
+        <v>291.83999999999997</v>
       </c>
       <c r="I132">
-        <v>193.74</v>
+        <v>215.68</v>
       </c>
       <c r="J132">
-        <v>90.941999999999993</v>
+        <v>91.111999999999995</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -4653,31 +4653,31 @@
         <v>7860</v>
       </c>
       <c r="B133">
-        <v>1003.5</v>
+        <v>997.84</v>
       </c>
       <c r="C133">
-        <v>924.24</v>
+        <v>917.1</v>
       </c>
       <c r="D133">
-        <v>722.69</v>
+        <v>711.38</v>
       </c>
       <c r="E133">
-        <v>497.69</v>
+        <v>527.02</v>
       </c>
       <c r="F133">
-        <v>517.76</v>
+        <v>529.39</v>
       </c>
       <c r="G133">
-        <v>379.43</v>
+        <v>398.37</v>
       </c>
       <c r="H133">
-        <v>282.61</v>
+        <v>294.08999999999997</v>
       </c>
       <c r="I133">
-        <v>195.71</v>
+        <v>217.77</v>
       </c>
       <c r="J133">
-        <v>91.855999999999995</v>
+        <v>92.048000000000002</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -4685,31 +4685,31 @@
         <v>7920</v>
       </c>
       <c r="B134">
-        <v>1005</v>
+        <v>999.21</v>
       </c>
       <c r="C134">
-        <v>925.97</v>
+        <v>918.8</v>
       </c>
       <c r="D134">
-        <v>724.9</v>
+        <v>713.62</v>
       </c>
       <c r="E134">
-        <v>500.04</v>
+        <v>529.42999999999995</v>
       </c>
       <c r="F134">
-        <v>520.12</v>
+        <v>531.80999999999995</v>
       </c>
       <c r="G134">
-        <v>381.71</v>
+        <v>400.74</v>
       </c>
       <c r="H134">
-        <v>284.75</v>
+        <v>296.33999999999997</v>
       </c>
       <c r="I134">
-        <v>197.67</v>
+        <v>219.86</v>
       </c>
       <c r="J134">
-        <v>92.76</v>
+        <v>92.977999999999994</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -4717,31 +4717,31 @@
         <v>7980</v>
       </c>
       <c r="B135">
-        <v>1006.4</v>
+        <v>1000.6</v>
       </c>
       <c r="C135">
-        <v>927.68</v>
+        <v>920.48</v>
       </c>
       <c r="D135">
-        <v>727.08</v>
+        <v>715.84</v>
       </c>
       <c r="E135">
-        <v>502.37</v>
+        <v>531.83000000000004</v>
       </c>
       <c r="F135">
-        <v>522.45000000000005</v>
+        <v>534.21</v>
       </c>
       <c r="G135">
-        <v>383.96</v>
+        <v>403.09</v>
       </c>
       <c r="H135">
-        <v>286.88</v>
+        <v>298.56</v>
       </c>
       <c r="I135">
-        <v>199.62</v>
+        <v>221.94</v>
       </c>
       <c r="J135">
-        <v>93.653000000000006</v>
+        <v>93.9</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -4749,31 +4749,31 @@
         <v>8040</v>
       </c>
       <c r="B136">
-        <v>1007.8</v>
+        <v>1001.9</v>
       </c>
       <c r="C136">
-        <v>929.38</v>
+        <v>922.14</v>
       </c>
       <c r="D136">
-        <v>729.25</v>
+        <v>718.04</v>
       </c>
       <c r="E136">
-        <v>504.7</v>
+        <v>534.21</v>
       </c>
       <c r="F136">
-        <v>524.78</v>
+        <v>536.59</v>
       </c>
       <c r="G136">
-        <v>386.21</v>
+        <v>405.44</v>
       </c>
       <c r="H136">
-        <v>289</v>
+        <v>300.77999999999997</v>
       </c>
       <c r="I136">
-        <v>201.57</v>
+        <v>224.02</v>
       </c>
       <c r="J136">
-        <v>94.534000000000006</v>
+        <v>94.807000000000002</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -4781,31 +4781,31 @@
         <v>8100</v>
       </c>
       <c r="B137">
-        <v>1009.2</v>
+        <v>1003.3</v>
       </c>
       <c r="C137">
-        <v>931.06</v>
+        <v>923.8</v>
       </c>
       <c r="D137">
-        <v>731.41</v>
+        <v>720.23</v>
       </c>
       <c r="E137">
-        <v>507</v>
+        <v>536.57000000000005</v>
       </c>
       <c r="F137">
-        <v>527.08000000000004</v>
+        <v>538.95000000000005</v>
       </c>
       <c r="G137">
-        <v>388.45</v>
+        <v>407.76</v>
       </c>
       <c r="H137">
-        <v>291.12</v>
+        <v>302.99</v>
       </c>
       <c r="I137">
-        <v>203.52</v>
+        <v>226.09</v>
       </c>
       <c r="J137">
-        <v>95.400999999999996</v>
+        <v>95.703000000000003</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -4813,31 +4813,31 @@
         <v>8160</v>
       </c>
       <c r="B138">
-        <v>1010.6</v>
+        <v>1004.6</v>
       </c>
       <c r="C138">
-        <v>932.72</v>
+        <v>925.43</v>
       </c>
       <c r="D138">
-        <v>733.54</v>
+        <v>722.39</v>
       </c>
       <c r="E138">
-        <v>509.3</v>
+        <v>538.91</v>
       </c>
       <c r="F138">
-        <v>529.37</v>
+        <v>541.29999999999995</v>
       </c>
       <c r="G138">
-        <v>390.67</v>
+        <v>410.08</v>
       </c>
       <c r="H138">
-        <v>293.22000000000003</v>
+        <v>305.19</v>
       </c>
       <c r="I138">
-        <v>205.46</v>
+        <v>228.14</v>
       </c>
       <c r="J138">
-        <v>96.254999999999995</v>
+        <v>96.591999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -4845,31 +4845,31 @@
         <v>8220</v>
       </c>
       <c r="B139">
-        <v>1012</v>
+        <v>1005.9</v>
       </c>
       <c r="C139">
-        <v>934.38</v>
+        <v>927.06</v>
       </c>
       <c r="D139">
-        <v>735.66</v>
+        <v>724.54</v>
       </c>
       <c r="E139">
-        <v>511.57</v>
+        <v>541.24</v>
       </c>
       <c r="F139">
-        <v>531.65</v>
+        <v>543.63</v>
       </c>
       <c r="G139">
-        <v>392.88</v>
+        <v>412.37</v>
       </c>
       <c r="H139">
-        <v>295.32</v>
+        <v>307.37</v>
       </c>
       <c r="I139">
-        <v>207.39</v>
+        <v>230.19</v>
       </c>
       <c r="J139">
-        <v>97.093999999999994</v>
+        <v>97.466999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -4877,31 +4877,31 @@
         <v>8280</v>
       </c>
       <c r="B140">
-        <v>1013.3</v>
+        <v>1007.2</v>
       </c>
       <c r="C140">
-        <v>936.01</v>
+        <v>928.66</v>
       </c>
       <c r="D140">
-        <v>737.76</v>
+        <v>726.67</v>
       </c>
       <c r="E140">
-        <v>513.84</v>
+        <v>543.54999999999995</v>
       </c>
       <c r="F140">
-        <v>533.91</v>
+        <v>545.94000000000005</v>
       </c>
       <c r="G140">
-        <v>395.08</v>
+        <v>414.66</v>
       </c>
       <c r="H140">
-        <v>297.39999999999998</v>
+        <v>309.55</v>
       </c>
       <c r="I140">
-        <v>209.32</v>
+        <v>232.22</v>
       </c>
       <c r="J140">
-        <v>97.921000000000006</v>
+        <v>98.328000000000003</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -4909,31 +4909,31 @@
         <v>8340</v>
       </c>
       <c r="B141">
-        <v>1014.7</v>
+        <v>1008.5</v>
       </c>
       <c r="C141">
-        <v>937.64</v>
+        <v>930.26</v>
       </c>
       <c r="D141">
-        <v>739.85</v>
+        <v>728.78</v>
       </c>
       <c r="E141">
-        <v>516.09</v>
+        <v>545.85</v>
       </c>
       <c r="F141">
-        <v>536.16</v>
+        <v>548.23</v>
       </c>
       <c r="G141">
-        <v>397.27</v>
+        <v>416.93</v>
       </c>
       <c r="H141">
-        <v>299.48</v>
+        <v>311.70999999999998</v>
       </c>
       <c r="I141">
-        <v>211.24</v>
+        <v>234.25</v>
       </c>
       <c r="J141">
-        <v>98.736000000000004</v>
+        <v>99.182000000000002</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -4941,31 +4941,31 @@
         <v>8400</v>
       </c>
       <c r="B142">
-        <v>1016</v>
+        <v>1009.8</v>
       </c>
       <c r="C142">
-        <v>939.24</v>
+        <v>931.84</v>
       </c>
       <c r="D142">
-        <v>741.92</v>
+        <v>730.88</v>
       </c>
       <c r="E142">
-        <v>518.33000000000004</v>
+        <v>548.12</v>
       </c>
       <c r="F142">
-        <v>538.39</v>
+        <v>550.51</v>
       </c>
       <c r="G142">
-        <v>399.45</v>
+        <v>419.19</v>
       </c>
       <c r="H142">
-        <v>301.55</v>
+        <v>313.86</v>
       </c>
       <c r="I142">
-        <v>213.16</v>
+        <v>236.27</v>
       </c>
       <c r="J142">
-        <v>99.540999999999997</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -4973,31 +4973,31 @@
         <v>8460</v>
       </c>
       <c r="B143">
-        <v>1017.3</v>
+        <v>1011.1</v>
       </c>
       <c r="C143">
-        <v>940.84</v>
+        <v>933.4</v>
       </c>
       <c r="D143">
-        <v>743.98</v>
+        <v>732.96</v>
       </c>
       <c r="E143">
-        <v>520.54999999999995</v>
+        <v>550.39</v>
       </c>
       <c r="F143">
-        <v>540.61</v>
+        <v>552.78</v>
       </c>
       <c r="G143">
-        <v>401.62</v>
+        <v>421.43</v>
       </c>
       <c r="H143">
-        <v>303.61</v>
+        <v>316</v>
       </c>
       <c r="I143">
-        <v>215.07</v>
+        <v>238.29</v>
       </c>
       <c r="J143">
-        <v>100.34</v>
+        <v>100.87</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5005,31 +5005,31 @@
         <v>8520</v>
       </c>
       <c r="B144">
-        <v>1018.7</v>
+        <v>1012.4</v>
       </c>
       <c r="C144">
-        <v>942.42</v>
+        <v>934.95</v>
       </c>
       <c r="D144">
-        <v>746.02</v>
+        <v>735.02</v>
       </c>
       <c r="E144">
-        <v>522.76</v>
+        <v>552.64</v>
       </c>
       <c r="F144">
-        <v>542.82000000000005</v>
+        <v>555.03</v>
       </c>
       <c r="G144">
-        <v>403.77</v>
+        <v>423.66</v>
       </c>
       <c r="H144">
-        <v>305.66000000000003</v>
+        <v>318.13</v>
       </c>
       <c r="I144">
-        <v>216.97</v>
+        <v>240.29</v>
       </c>
       <c r="J144">
-        <v>101.13</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -5037,31 +5037,31 @@
         <v>8580</v>
       </c>
       <c r="B145">
-        <v>1020</v>
+        <v>1013.6</v>
       </c>
       <c r="C145">
-        <v>943.98</v>
+        <v>936.49</v>
       </c>
       <c r="D145">
-        <v>748.05</v>
+        <v>737.07</v>
       </c>
       <c r="E145">
-        <v>524.95000000000005</v>
+        <v>554.87</v>
       </c>
       <c r="F145">
-        <v>545.01</v>
+        <v>557.27</v>
       </c>
       <c r="G145">
-        <v>405.92</v>
+        <v>425.88</v>
       </c>
       <c r="H145">
-        <v>307.7</v>
+        <v>320.25</v>
       </c>
       <c r="I145">
-        <v>218.86</v>
+        <v>242.29</v>
       </c>
       <c r="J145">
-        <v>101.91</v>
+        <v>102.52</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -5069,31 +5069,31 @@
         <v>8640</v>
       </c>
       <c r="B146">
-        <v>1021.3</v>
+        <v>1014.9</v>
       </c>
       <c r="C146">
-        <v>945.54</v>
+        <v>938.01</v>
       </c>
       <c r="D146">
-        <v>750.06</v>
+        <v>739.1</v>
       </c>
       <c r="E146">
-        <v>527.14</v>
+        <v>557.09</v>
       </c>
       <c r="F146">
-        <v>547.19000000000005</v>
+        <v>559.49</v>
       </c>
       <c r="G146">
-        <v>408.05</v>
+        <v>428.08</v>
       </c>
       <c r="H146">
-        <v>309.73</v>
+        <v>322.36</v>
       </c>
       <c r="I146">
-        <v>220.75</v>
+        <v>244.28</v>
       </c>
       <c r="J146">
-        <v>102.68</v>
+        <v>103.35</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -5101,31 +5101,31 @@
         <v>8700</v>
       </c>
       <c r="B147">
-        <v>1022.5</v>
+        <v>1016.1</v>
       </c>
       <c r="C147">
-        <v>947.08</v>
+        <v>939.52</v>
       </c>
       <c r="D147">
-        <v>752.06</v>
+        <v>741.12</v>
       </c>
       <c r="E147">
-        <v>529.30999999999995</v>
+        <v>559.29</v>
       </c>
       <c r="F147">
-        <v>549.36</v>
+        <v>561.69000000000005</v>
       </c>
       <c r="G147">
-        <v>410.17</v>
+        <v>430.27</v>
       </c>
       <c r="H147">
-        <v>311.75</v>
+        <v>324.45999999999998</v>
       </c>
       <c r="I147">
-        <v>222.64</v>
+        <v>246.26</v>
       </c>
       <c r="J147">
-        <v>103.45</v>
+        <v>104.17</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -5133,31 +5133,31 @@
         <v>8760</v>
       </c>
       <c r="B148">
-        <v>1023.8</v>
+        <v>1017.3</v>
       </c>
       <c r="C148">
-        <v>948.61</v>
+        <v>941.02</v>
       </c>
       <c r="D148">
-        <v>754.04</v>
+        <v>743.13</v>
       </c>
       <c r="E148">
-        <v>531.46</v>
+        <v>561.48</v>
       </c>
       <c r="F148">
-        <v>551.51</v>
+        <v>563.88</v>
       </c>
       <c r="G148">
-        <v>412.28</v>
+        <v>432.45</v>
       </c>
       <c r="H148">
-        <v>313.77</v>
+        <v>326.55</v>
       </c>
       <c r="I148">
-        <v>224.52</v>
+        <v>248.24</v>
       </c>
       <c r="J148">
-        <v>104.22</v>
+        <v>104.98</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -5165,31 +5165,31 @@
         <v>8820</v>
       </c>
       <c r="B149">
-        <v>1025.0999999999999</v>
+        <v>1018.6</v>
       </c>
       <c r="C149">
-        <v>950.13</v>
+        <v>942.5</v>
       </c>
       <c r="D149">
-        <v>756.01</v>
+        <v>745.12</v>
       </c>
       <c r="E149">
-        <v>533.61</v>
+        <v>563.65</v>
       </c>
       <c r="F149">
-        <v>553.66</v>
+        <v>566.05999999999995</v>
       </c>
       <c r="G149">
-        <v>414.39</v>
+        <v>434.62</v>
       </c>
       <c r="H149">
-        <v>315.77</v>
+        <v>328.63</v>
       </c>
       <c r="I149">
-        <v>226.39</v>
+        <v>250.2</v>
       </c>
       <c r="J149">
-        <v>104.99</v>
+        <v>105.8</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -5197,31 +5197,31 @@
         <v>8880</v>
       </c>
       <c r="B150">
-        <v>1026.3</v>
+        <v>1019.8</v>
       </c>
       <c r="C150">
-        <v>951.64</v>
+        <v>943.98</v>
       </c>
       <c r="D150">
-        <v>757.97</v>
+        <v>747.09</v>
       </c>
       <c r="E150">
-        <v>535.74</v>
+        <v>565.80999999999995</v>
       </c>
       <c r="F150">
-        <v>555.79</v>
+        <v>568.22</v>
       </c>
       <c r="G150">
-        <v>416.48</v>
+        <v>436.78</v>
       </c>
       <c r="H150">
-        <v>317.77</v>
+        <v>330.69</v>
       </c>
       <c r="I150">
-        <v>228.25</v>
+        <v>252.16</v>
       </c>
       <c r="J150">
-        <v>105.75</v>
+        <v>106.61</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -5229,31 +5229,31 @@
         <v>8940</v>
       </c>
       <c r="B151">
-        <v>1027.5</v>
+        <v>1021</v>
       </c>
       <c r="C151">
-        <v>953.13</v>
+        <v>945.44</v>
       </c>
       <c r="D151">
-        <v>759.91</v>
+        <v>749.04</v>
       </c>
       <c r="E151">
-        <v>537.86</v>
+        <v>567.96</v>
       </c>
       <c r="F151">
-        <v>557.9</v>
+        <v>570.37</v>
       </c>
       <c r="G151">
-        <v>418.56</v>
+        <v>438.92</v>
       </c>
       <c r="H151">
-        <v>319.76</v>
+        <v>332.75</v>
       </c>
       <c r="I151">
-        <v>230.11</v>
+        <v>254.11</v>
       </c>
       <c r="J151">
-        <v>106.51</v>
+        <v>107.43</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -5261,31 +5261,31 @@
         <v>9000</v>
       </c>
       <c r="B152">
-        <v>1028.8</v>
+        <v>1022.2</v>
       </c>
       <c r="C152">
-        <v>954.61</v>
+        <v>946.9</v>
       </c>
       <c r="D152">
-        <v>761.84</v>
+        <v>750.99</v>
       </c>
       <c r="E152">
-        <v>539.96</v>
+        <v>570.1</v>
       </c>
       <c r="F152">
-        <v>560.01</v>
+        <v>572.51</v>
       </c>
       <c r="G152">
-        <v>420.63</v>
+        <v>441.05</v>
       </c>
       <c r="H152">
-        <v>321.74</v>
+        <v>334.8</v>
       </c>
       <c r="I152">
-        <v>231.97</v>
+        <v>256.05</v>
       </c>
       <c r="J152">
-        <v>107.28</v>
+        <v>108.25</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -5293,31 +5293,31 @@
         <v>9060</v>
       </c>
       <c r="B153">
-        <v>1030</v>
+        <v>1023.3</v>
       </c>
       <c r="C153">
-        <v>956.08</v>
+        <v>948.34</v>
       </c>
       <c r="D153">
-        <v>763.76</v>
+        <v>752.91</v>
       </c>
       <c r="E153">
-        <v>542.05999999999995</v>
+        <v>572.22</v>
       </c>
       <c r="F153">
-        <v>562.1</v>
+        <v>574.63</v>
       </c>
       <c r="G153">
-        <v>422.69</v>
+        <v>443.17</v>
       </c>
       <c r="H153">
-        <v>323.70999999999998</v>
+        <v>336.84</v>
       </c>
       <c r="I153">
-        <v>233.81</v>
+        <v>257.99</v>
       </c>
       <c r="J153">
-        <v>108.04</v>
+        <v>109.07</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -5325,31 +5325,31 @@
         <v>9120</v>
       </c>
       <c r="B154">
-        <v>1031.2</v>
+        <v>1024.5</v>
       </c>
       <c r="C154">
-        <v>957.54</v>
+        <v>949.77</v>
       </c>
       <c r="D154">
-        <v>765.66</v>
+        <v>754.82</v>
       </c>
       <c r="E154">
-        <v>544.14</v>
+        <v>574.33000000000004</v>
       </c>
       <c r="F154">
-        <v>564.17999999999995</v>
+        <v>576.74</v>
       </c>
       <c r="G154">
-        <v>424.74</v>
+        <v>445.28</v>
       </c>
       <c r="H154">
-        <v>325.67</v>
+        <v>338.87</v>
       </c>
       <c r="I154">
-        <v>235.65</v>
+        <v>259.92</v>
       </c>
       <c r="J154">
-        <v>108.81</v>
+        <v>109.89</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -5357,31 +5357,31 @@
         <v>9180</v>
       </c>
       <c r="B155">
-        <v>1032.4000000000001</v>
+        <v>1025.7</v>
       </c>
       <c r="C155">
-        <v>958.99</v>
+        <v>951.19</v>
       </c>
       <c r="D155">
-        <v>767.55</v>
+        <v>756.72</v>
       </c>
       <c r="E155">
-        <v>546.22</v>
+        <v>576.41999999999996</v>
       </c>
       <c r="F155">
-        <v>566.25</v>
+        <v>578.84</v>
       </c>
       <c r="G155">
-        <v>426.78</v>
+        <v>447.37</v>
       </c>
       <c r="H155">
-        <v>327.63</v>
+        <v>340.89</v>
       </c>
       <c r="I155">
-        <v>237.49</v>
+        <v>261.83999999999997</v>
       </c>
       <c r="J155">
-        <v>109.58</v>
+        <v>110.72</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -5389,31 +5389,31 @@
         <v>9240</v>
       </c>
       <c r="B156">
-        <v>1033.5999999999999</v>
+        <v>1026.8</v>
       </c>
       <c r="C156">
-        <v>960.42</v>
+        <v>952.6</v>
       </c>
       <c r="D156">
-        <v>769.43</v>
+        <v>758.61</v>
       </c>
       <c r="E156">
-        <v>548.28</v>
+        <v>578.5</v>
       </c>
       <c r="F156">
-        <v>568.30999999999995</v>
+        <v>580.91999999999996</v>
       </c>
       <c r="G156">
-        <v>428.81</v>
+        <v>449.46</v>
       </c>
       <c r="H156">
-        <v>329.57</v>
+        <v>342.9</v>
       </c>
       <c r="I156">
-        <v>239.32</v>
+        <v>263.76</v>
       </c>
       <c r="J156">
-        <v>110.35</v>
+        <v>111.56</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -5421,31 +5421,31 @@
         <v>9300</v>
       </c>
       <c r="B157">
-        <v>1034.8</v>
+        <v>1028</v>
       </c>
       <c r="C157">
-        <v>961.85</v>
+        <v>954</v>
       </c>
       <c r="D157">
-        <v>771.3</v>
+        <v>760.48</v>
       </c>
       <c r="E157">
-        <v>550.33000000000004</v>
+        <v>580.58000000000004</v>
       </c>
       <c r="F157">
-        <v>570.35</v>
+        <v>582.99</v>
       </c>
       <c r="G157">
-        <v>430.83</v>
+        <v>451.53</v>
       </c>
       <c r="H157">
-        <v>331.51</v>
+        <v>344.9</v>
       </c>
       <c r="I157">
-        <v>241.14</v>
+        <v>265.66000000000003</v>
       </c>
       <c r="J157">
-        <v>111.13</v>
+        <v>112.4</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -5453,31 +5453,31 @@
         <v>9360</v>
       </c>
       <c r="B158">
-        <v>1035.9000000000001</v>
+        <v>1029.0999999999999</v>
       </c>
       <c r="C158">
-        <v>963.27</v>
+        <v>955.38</v>
       </c>
       <c r="D158">
-        <v>773.15</v>
+        <v>762.33</v>
       </c>
       <c r="E158">
-        <v>552.37</v>
+        <v>582.63</v>
       </c>
       <c r="F158">
-        <v>572.39</v>
+        <v>585.04999999999995</v>
       </c>
       <c r="G158">
-        <v>432.84</v>
+        <v>453.6</v>
       </c>
       <c r="H158">
-        <v>333.45</v>
+        <v>346.9</v>
       </c>
       <c r="I158">
-        <v>242.96</v>
+        <v>267.56</v>
       </c>
       <c r="J158">
-        <v>111.92</v>
+        <v>113.25</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -5485,31 +5485,31 @@
         <v>9420</v>
       </c>
       <c r="B159">
-        <v>1037.0999999999999</v>
+        <v>1030.2</v>
       </c>
       <c r="C159">
-        <v>964.67</v>
+        <v>956.76</v>
       </c>
       <c r="D159">
-        <v>774.99</v>
+        <v>764.18</v>
       </c>
       <c r="E159">
-        <v>554.39</v>
+        <v>584.67999999999995</v>
       </c>
       <c r="F159">
-        <v>574.41</v>
+        <v>587.1</v>
       </c>
       <c r="G159">
-        <v>434.85</v>
+        <v>455.65</v>
       </c>
       <c r="H159">
-        <v>335.37</v>
+        <v>348.88</v>
       </c>
       <c r="I159">
-        <v>244.77</v>
+        <v>269.45999999999998</v>
       </c>
       <c r="J159">
-        <v>112.71</v>
+        <v>114.12</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -5517,31 +5517,31 @@
         <v>9480</v>
       </c>
       <c r="B160">
-        <v>1038.3</v>
+        <v>1031.4000000000001</v>
       </c>
       <c r="C160">
-        <v>966.07</v>
+        <v>958.14</v>
       </c>
       <c r="D160">
-        <v>776.83</v>
+        <v>766.02</v>
       </c>
       <c r="E160">
-        <v>556.41</v>
+        <v>586.72</v>
       </c>
       <c r="F160">
-        <v>576.42999999999995</v>
+        <v>589.14</v>
       </c>
       <c r="G160">
-        <v>436.84</v>
+        <v>457.69</v>
       </c>
       <c r="H160">
-        <v>337.28</v>
+        <v>350.86</v>
       </c>
       <c r="I160">
-        <v>246.58</v>
+        <v>271.33999999999997</v>
       </c>
       <c r="J160">
-        <v>113.52</v>
+        <v>114.99</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -5549,31 +5549,31 @@
         <v>9540</v>
       </c>
       <c r="B161">
-        <v>1039.4000000000001</v>
+        <v>1032.5</v>
       </c>
       <c r="C161">
-        <v>967.45</v>
+        <v>959.5</v>
       </c>
       <c r="D161">
-        <v>778.65</v>
+        <v>767.84</v>
       </c>
       <c r="E161">
-        <v>558.41999999999996</v>
+        <v>588.74</v>
       </c>
       <c r="F161">
-        <v>578.42999999999995</v>
+        <v>591.16</v>
       </c>
       <c r="G161">
-        <v>438.82</v>
+        <v>459.73</v>
       </c>
       <c r="H161">
-        <v>339.19</v>
+        <v>352.82</v>
       </c>
       <c r="I161">
-        <v>248.38</v>
+        <v>273.22000000000003</v>
       </c>
       <c r="J161">
-        <v>114.33</v>
+        <v>115.87</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -5581,31 +5581,31 @@
         <v>9600</v>
       </c>
       <c r="B162">
-        <v>1040.5</v>
+        <v>1033.5999999999999</v>
       </c>
       <c r="C162">
-        <v>968.83</v>
+        <v>960.86</v>
       </c>
       <c r="D162">
-        <v>780.45</v>
+        <v>769.66</v>
       </c>
       <c r="E162">
-        <v>560.41</v>
+        <v>590.76</v>
       </c>
       <c r="F162">
-        <v>580.41999999999996</v>
+        <v>593.16999999999996</v>
       </c>
       <c r="G162">
-        <v>440.8</v>
+        <v>461.75</v>
       </c>
       <c r="H162">
-        <v>341.09</v>
+        <v>354.78</v>
       </c>
       <c r="I162">
-        <v>250.18</v>
+        <v>275.10000000000002</v>
       </c>
       <c r="J162">
-        <v>115.16</v>
+        <v>116.77</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -5613,31 +5613,31 @@
         <v>9660</v>
       </c>
       <c r="B163">
-        <v>1041.7</v>
+        <v>1034.7</v>
       </c>
       <c r="C163">
-        <v>970.19</v>
+        <v>962.2</v>
       </c>
       <c r="D163">
-        <v>782.25</v>
+        <v>771.46</v>
       </c>
       <c r="E163">
-        <v>562.4</v>
+        <v>592.76</v>
       </c>
       <c r="F163">
-        <v>582.41</v>
+        <v>595.16999999999996</v>
       </c>
       <c r="G163">
-        <v>442.76</v>
+        <v>463.76</v>
       </c>
       <c r="H163">
-        <v>342.99</v>
+        <v>356.73</v>
       </c>
       <c r="I163">
-        <v>251.97</v>
+        <v>276.95999999999998</v>
       </c>
       <c r="J163">
-        <v>116</v>
+        <v>117.68</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -5645,31 +5645,31 @@
         <v>9720</v>
       </c>
       <c r="B164">
-        <v>1042.8</v>
+        <v>1035.8</v>
       </c>
       <c r="C164">
-        <v>971.55</v>
+        <v>963.54</v>
       </c>
       <c r="D164">
-        <v>784.04</v>
+        <v>773.25</v>
       </c>
       <c r="E164">
-        <v>564.37</v>
+        <v>594.75</v>
       </c>
       <c r="F164">
-        <v>584.38</v>
+        <v>597.16</v>
       </c>
       <c r="G164">
-        <v>444.72</v>
+        <v>465.76</v>
       </c>
       <c r="H164">
-        <v>344.87</v>
+        <v>358.67</v>
       </c>
       <c r="I164">
-        <v>253.75</v>
+        <v>278.82</v>
       </c>
       <c r="J164">
-        <v>116.86</v>
+        <v>118.61</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -5677,31 +5677,31 @@
         <v>9780</v>
       </c>
       <c r="B165">
-        <v>1043.9000000000001</v>
+        <v>1036.9000000000001</v>
       </c>
       <c r="C165">
-        <v>972.9</v>
+        <v>964.87</v>
       </c>
       <c r="D165">
-        <v>785.81</v>
+        <v>775.03</v>
       </c>
       <c r="E165">
-        <v>566.34</v>
+        <v>596.73</v>
       </c>
       <c r="F165">
-        <v>586.34</v>
+        <v>599.14</v>
       </c>
       <c r="G165">
-        <v>446.67</v>
+        <v>467.75</v>
       </c>
       <c r="H165">
-        <v>346.75</v>
+        <v>360.61</v>
       </c>
       <c r="I165">
-        <v>255.53</v>
+        <v>280.68</v>
       </c>
       <c r="J165">
-        <v>117.72</v>
+        <v>119.54</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -5709,31 +5709,31 @@
         <v>9840</v>
       </c>
       <c r="B166">
-        <v>1045</v>
+        <v>1037.9000000000001</v>
       </c>
       <c r="C166">
-        <v>974.23</v>
+        <v>966.18</v>
       </c>
       <c r="D166">
-        <v>787.58</v>
+        <v>776.81</v>
       </c>
       <c r="E166">
-        <v>568.29</v>
+        <v>598.70000000000005</v>
       </c>
       <c r="F166">
-        <v>588.29</v>
+        <v>601.11</v>
       </c>
       <c r="G166">
-        <v>448.61</v>
+        <v>469.74</v>
       </c>
       <c r="H166">
-        <v>348.63</v>
+        <v>362.53</v>
       </c>
       <c r="I166">
-        <v>257.31</v>
+        <v>282.52</v>
       </c>
       <c r="J166">
-        <v>118.6</v>
+        <v>120.49</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -5741,31 +5741,31 @@
         <v>9900</v>
       </c>
       <c r="B167">
-        <v>1046.0999999999999</v>
+        <v>1039</v>
       </c>
       <c r="C167">
-        <v>975.56</v>
+        <v>967.49</v>
       </c>
       <c r="D167">
-        <v>789.33</v>
+        <v>778.57</v>
       </c>
       <c r="E167">
-        <v>570.24</v>
+        <v>600.66</v>
       </c>
       <c r="F167">
-        <v>590.24</v>
+        <v>603.07000000000005</v>
       </c>
       <c r="G167">
-        <v>450.54</v>
+        <v>471.71</v>
       </c>
       <c r="H167">
-        <v>350.49</v>
+        <v>364.45</v>
       </c>
       <c r="I167">
-        <v>259.08</v>
+        <v>284.36</v>
       </c>
       <c r="J167">
-        <v>119.5</v>
+        <v>121.46</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -5773,31 +5773,31 @@
         <v>9960</v>
       </c>
       <c r="B168">
-        <v>1047.2</v>
+        <v>1040.0999999999999</v>
       </c>
       <c r="C168">
-        <v>976.88</v>
+        <v>968.79</v>
       </c>
       <c r="D168">
-        <v>791.08</v>
+        <v>780.32</v>
       </c>
       <c r="E168">
-        <v>572.17999999999995</v>
+        <v>602.6</v>
       </c>
       <c r="F168">
-        <v>592.16999999999996</v>
+        <v>605.01</v>
       </c>
       <c r="G168">
-        <v>452.46</v>
+        <v>473.67</v>
       </c>
       <c r="H168">
-        <v>352.35</v>
+        <v>366.36</v>
       </c>
       <c r="I168">
-        <v>260.83999999999997</v>
+        <v>286.2</v>
       </c>
       <c r="J168">
-        <v>120.4</v>
+        <v>122.43</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -5805,31 +5805,31 @@
         <v>10020</v>
       </c>
       <c r="B169">
-        <v>1048.3</v>
+        <v>1041.0999999999999</v>
       </c>
       <c r="C169">
-        <v>978.19</v>
+        <v>970.08</v>
       </c>
       <c r="D169">
-        <v>792.81</v>
+        <v>782.07</v>
       </c>
       <c r="E169">
-        <v>574.1</v>
+        <v>604.54</v>
       </c>
       <c r="F169">
-        <v>594.09</v>
+        <v>606.95000000000005</v>
       </c>
       <c r="G169">
-        <v>454.38</v>
+        <v>475.63</v>
       </c>
       <c r="H169">
-        <v>354.2</v>
+        <v>368.26</v>
       </c>
       <c r="I169">
-        <v>262.60000000000002</v>
+        <v>288.02999999999997</v>
       </c>
       <c r="J169">
-        <v>121.32</v>
+        <v>123.42</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -5837,31 +5837,31 @@
         <v>10080</v>
       </c>
       <c r="B170">
-        <v>1049.4000000000001</v>
+        <v>1042.2</v>
       </c>
       <c r="C170">
-        <v>979.49</v>
+        <v>971.37</v>
       </c>
       <c r="D170">
-        <v>794.53</v>
+        <v>783.8</v>
       </c>
       <c r="E170">
-        <v>576.02</v>
+        <v>606.47</v>
       </c>
       <c r="F170">
-        <v>596.01</v>
+        <v>608.87</v>
       </c>
       <c r="G170">
-        <v>456.28</v>
+        <v>477.57</v>
       </c>
       <c r="H170">
-        <v>356.04</v>
+        <v>370.15</v>
       </c>
       <c r="I170">
-        <v>264.35000000000002</v>
+        <v>289.85000000000002</v>
       </c>
       <c r="J170">
-        <v>122.25</v>
+        <v>124.42</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -5869,31 +5869,31 @@
         <v>10140</v>
       </c>
       <c r="B171">
-        <v>1050.4000000000001</v>
+        <v>1043.2</v>
       </c>
       <c r="C171">
-        <v>980.78</v>
+        <v>972.64</v>
       </c>
       <c r="D171">
-        <v>796.25</v>
+        <v>785.52</v>
       </c>
       <c r="E171">
-        <v>577.92999999999995</v>
+        <v>608.38</v>
       </c>
       <c r="F171">
-        <v>597.91</v>
+        <v>610.79</v>
       </c>
       <c r="G171">
-        <v>458.18</v>
+        <v>479.51</v>
       </c>
       <c r="H171">
-        <v>357.88</v>
+        <v>372.04</v>
       </c>
       <c r="I171">
-        <v>266.10000000000002</v>
+        <v>291.66000000000003</v>
       </c>
       <c r="J171">
-        <v>123.2</v>
+        <v>125.44</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -5901,31 +5901,31 @@
         <v>10200</v>
       </c>
       <c r="B172">
-        <v>1051.5</v>
+        <v>1044.2</v>
       </c>
       <c r="C172">
-        <v>982.06</v>
+        <v>973.91</v>
       </c>
       <c r="D172">
-        <v>797.95</v>
+        <v>787.23</v>
       </c>
       <c r="E172">
-        <v>579.83000000000004</v>
+        <v>610.29</v>
       </c>
       <c r="F172">
-        <v>599.80999999999995</v>
+        <v>612.70000000000005</v>
       </c>
       <c r="G172">
-        <v>460.07</v>
+        <v>481.44</v>
       </c>
       <c r="H172">
-        <v>359.71</v>
+        <v>373.92</v>
       </c>
       <c r="I172">
-        <v>267.83999999999997</v>
+        <v>293.47000000000003</v>
       </c>
       <c r="J172">
-        <v>124.16</v>
+        <v>126.47</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -5933,31 +5933,31 @@
         <v>10260</v>
       </c>
       <c r="B173">
-        <v>1052.5</v>
+        <v>1045.3</v>
       </c>
       <c r="C173">
-        <v>983.34</v>
+        <v>975.16</v>
       </c>
       <c r="D173">
-        <v>799.64</v>
+        <v>788.93</v>
       </c>
       <c r="E173">
-        <v>581.71</v>
+        <v>612.17999999999995</v>
       </c>
       <c r="F173">
-        <v>601.70000000000005</v>
+        <v>614.59</v>
       </c>
       <c r="G173">
-        <v>461.95</v>
+        <v>483.36</v>
       </c>
       <c r="H173">
-        <v>361.53</v>
+        <v>375.79</v>
       </c>
       <c r="I173">
-        <v>269.58</v>
+        <v>295.27999999999997</v>
       </c>
       <c r="J173">
-        <v>125.13</v>
+        <v>127.51</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -5965,31 +5965,31 @@
         <v>10320</v>
       </c>
       <c r="B174">
-        <v>1053.5999999999999</v>
+        <v>1046.3</v>
       </c>
       <c r="C174">
-        <v>984.6</v>
+        <v>976.41</v>
       </c>
       <c r="D174">
-        <v>801.32</v>
+        <v>790.62</v>
       </c>
       <c r="E174">
-        <v>583.6</v>
+        <v>614.07000000000005</v>
       </c>
       <c r="F174">
-        <v>603.57000000000005</v>
+        <v>616.48</v>
       </c>
       <c r="G174">
-        <v>463.83</v>
+        <v>485.27</v>
       </c>
       <c r="H174">
-        <v>363.35</v>
+        <v>377.65</v>
       </c>
       <c r="I174">
-        <v>271.31</v>
+        <v>297.07</v>
       </c>
       <c r="J174">
-        <v>126.11</v>
+        <v>128.56</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -5997,31 +5997,31 @@
         <v>10380</v>
       </c>
       <c r="B175">
-        <v>1054.5999999999999</v>
+        <v>1047.3</v>
       </c>
       <c r="C175">
-        <v>985.86</v>
+        <v>977.66</v>
       </c>
       <c r="D175">
-        <v>803</v>
+        <v>792.3</v>
       </c>
       <c r="E175">
-        <v>585.47</v>
+        <v>615.94000000000005</v>
       </c>
       <c r="F175">
-        <v>605.44000000000005</v>
+        <v>618.35</v>
       </c>
       <c r="G175">
-        <v>465.69</v>
+        <v>487.17</v>
       </c>
       <c r="H175">
-        <v>365.16</v>
+        <v>379.51</v>
       </c>
       <c r="I175">
-        <v>273.04000000000002</v>
+        <v>298.86</v>
       </c>
       <c r="J175">
-        <v>127.11</v>
+        <v>129.63</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -6029,31 +6029,31 @@
         <v>10440</v>
       </c>
       <c r="B176">
-        <v>1055.5999999999999</v>
+        <v>1048.3</v>
       </c>
       <c r="C176">
-        <v>987.11</v>
+        <v>978.9</v>
       </c>
       <c r="D176">
-        <v>804.66</v>
+        <v>793.97</v>
       </c>
       <c r="E176">
-        <v>587.33000000000004</v>
+        <v>617.80999999999995</v>
       </c>
       <c r="F176">
-        <v>607.29999999999995</v>
+        <v>620.22</v>
       </c>
       <c r="G176">
-        <v>467.55</v>
+        <v>489.06</v>
       </c>
       <c r="H176">
-        <v>366.97</v>
+        <v>381.36</v>
       </c>
       <c r="I176">
-        <v>274.76</v>
+        <v>300.64999999999998</v>
       </c>
       <c r="J176">
-        <v>128.12</v>
+        <v>130.71</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -6061,31 +6061,31 @@
         <v>10500</v>
       </c>
       <c r="B177">
-        <v>1056.7</v>
+        <v>1049.3</v>
       </c>
       <c r="C177">
-        <v>988.35</v>
+        <v>980.13</v>
       </c>
       <c r="D177">
-        <v>806.32</v>
+        <v>795.63</v>
       </c>
       <c r="E177">
-        <v>589.19000000000005</v>
+        <v>619.66</v>
       </c>
       <c r="F177">
-        <v>609.15</v>
+        <v>622.08000000000004</v>
       </c>
       <c r="G177">
-        <v>469.4</v>
+        <v>490.94</v>
       </c>
       <c r="H177">
-        <v>368.77</v>
+        <v>383.21</v>
       </c>
       <c r="I177">
-        <v>276.48</v>
+        <v>302.43</v>
       </c>
       <c r="J177">
-        <v>129.15</v>
+        <v>131.80000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -6093,31 +6093,31 @@
         <v>10560</v>
       </c>
       <c r="B178">
-        <v>1057.7</v>
+        <v>1050.3</v>
       </c>
       <c r="C178">
-        <v>989.59</v>
+        <v>981.35</v>
       </c>
       <c r="D178">
-        <v>807.96</v>
+        <v>797.28</v>
       </c>
       <c r="E178">
-        <v>591.03</v>
+        <v>621.51</v>
       </c>
       <c r="F178">
-        <v>610.99</v>
+        <v>623.91999999999996</v>
       </c>
       <c r="G178">
-        <v>471.25</v>
+        <v>492.82</v>
       </c>
       <c r="H178">
-        <v>370.56</v>
+        <v>385.04</v>
       </c>
       <c r="I178">
-        <v>278.19</v>
+        <v>304.2</v>
       </c>
       <c r="J178">
-        <v>130.18</v>
+        <v>132.9</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -6125,31 +6125,31 @@
         <v>10620</v>
       </c>
       <c r="B179">
-        <v>1058.7</v>
+        <v>1051.3</v>
       </c>
       <c r="C179">
-        <v>990.81</v>
+        <v>982.57</v>
       </c>
       <c r="D179">
-        <v>809.6</v>
+        <v>798.92</v>
       </c>
       <c r="E179">
-        <v>592.87</v>
+        <v>623.34</v>
       </c>
       <c r="F179">
-        <v>612.82000000000005</v>
+        <v>625.76</v>
       </c>
       <c r="G179">
-        <v>473.08</v>
+        <v>494.69</v>
       </c>
       <c r="H179">
-        <v>372.34</v>
+        <v>386.87</v>
       </c>
       <c r="I179">
-        <v>279.89999999999998</v>
+        <v>305.97000000000003</v>
       </c>
       <c r="J179">
-        <v>131.22999999999999</v>
+        <v>134.02000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -6157,31 +6157,31 @@
         <v>10680</v>
       </c>
       <c r="B180">
-        <v>1059.7</v>
+        <v>1052.3</v>
       </c>
       <c r="C180">
-        <v>992.03</v>
+        <v>983.78</v>
       </c>
       <c r="D180">
-        <v>811.22</v>
+        <v>800.55</v>
       </c>
       <c r="E180">
-        <v>594.70000000000005</v>
+        <v>625.16999999999996</v>
       </c>
       <c r="F180">
-        <v>614.64</v>
+        <v>627.58000000000004</v>
       </c>
       <c r="G180">
-        <v>474.91</v>
+        <v>496.55</v>
       </c>
       <c r="H180">
-        <v>374.12</v>
+        <v>388.69</v>
       </c>
       <c r="I180">
-        <v>281.60000000000002</v>
+        <v>307.73</v>
       </c>
       <c r="J180">
-        <v>132.30000000000001</v>
+        <v>135.15</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -6189,31 +6189,31 @@
         <v>10740</v>
       </c>
       <c r="B181">
-        <v>1060.7</v>
+        <v>1053.3</v>
       </c>
       <c r="C181">
-        <v>993.24</v>
+        <v>984.99</v>
       </c>
       <c r="D181">
-        <v>812.84</v>
+        <v>802.17</v>
       </c>
       <c r="E181">
-        <v>596.52</v>
+        <v>626.99</v>
       </c>
       <c r="F181">
-        <v>616.46</v>
+        <v>629.4</v>
       </c>
       <c r="G181">
-        <v>476.74</v>
+        <v>498.4</v>
       </c>
       <c r="H181">
-        <v>375.9</v>
+        <v>390.51</v>
       </c>
       <c r="I181">
-        <v>283.3</v>
+        <v>309.48</v>
       </c>
       <c r="J181">
-        <v>133.38</v>
+        <v>136.29</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -6221,31 +6221,31 @@
         <v>10800</v>
       </c>
       <c r="B182">
-        <v>1061.7</v>
+        <v>1054.2</v>
       </c>
       <c r="C182">
-        <v>994.44</v>
+        <v>986.18</v>
       </c>
       <c r="D182">
-        <v>814.45</v>
+        <v>803.78</v>
       </c>
       <c r="E182">
-        <v>598.33000000000004</v>
+        <v>628.79999999999995</v>
       </c>
       <c r="F182">
-        <v>618.26</v>
+        <v>631.21</v>
       </c>
       <c r="G182">
-        <v>478.55</v>
+        <v>500.24</v>
       </c>
       <c r="H182">
-        <v>377.67</v>
+        <v>392.32</v>
       </c>
       <c r="I182">
-        <v>285</v>
+        <v>311.23</v>
       </c>
       <c r="J182">
-        <v>134.47</v>
+        <v>137.44</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -6253,31 +6253,31 @@
         <v>10860</v>
       </c>
       <c r="B183">
-        <v>1062.7</v>
+        <v>1055.2</v>
       </c>
       <c r="C183">
-        <v>995.64</v>
+        <v>987.37</v>
       </c>
       <c r="D183">
-        <v>816.04</v>
+        <v>805.38</v>
       </c>
       <c r="E183">
-        <v>600.14</v>
+        <v>630.6</v>
       </c>
       <c r="F183">
-        <v>620.05999999999995</v>
+        <v>633.01</v>
       </c>
       <c r="G183">
-        <v>480.36</v>
+        <v>502.08</v>
       </c>
       <c r="H183">
-        <v>379.43</v>
+        <v>394.12</v>
       </c>
       <c r="I183">
-        <v>286.68</v>
+        <v>312.98</v>
       </c>
       <c r="J183">
-        <v>135.57</v>
+        <v>138.61000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -6285,31 +6285,31 @@
         <v>10920</v>
       </c>
       <c r="B184">
-        <v>1063.5999999999999</v>
+        <v>1056.2</v>
       </c>
       <c r="C184">
-        <v>996.83</v>
+        <v>988.55</v>
       </c>
       <c r="D184">
-        <v>817.63</v>
+        <v>806.98</v>
       </c>
       <c r="E184">
-        <v>601.94000000000005</v>
+        <v>632.39</v>
       </c>
       <c r="F184">
-        <v>621.85</v>
+        <v>634.79999999999995</v>
       </c>
       <c r="G184">
-        <v>482.16</v>
+        <v>503.91</v>
       </c>
       <c r="H184">
-        <v>381.19</v>
+        <v>395.91</v>
       </c>
       <c r="I184">
-        <v>288.37</v>
+        <v>314.72000000000003</v>
       </c>
       <c r="J184">
-        <v>136.69</v>
+        <v>139.79</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -6317,31 +6317,31 @@
         <v>10980</v>
       </c>
       <c r="B185">
-        <v>1064.5999999999999</v>
+        <v>1057.0999999999999</v>
       </c>
       <c r="C185">
-        <v>998.01</v>
+        <v>989.72</v>
       </c>
       <c r="D185">
-        <v>819.21</v>
+        <v>808.56</v>
       </c>
       <c r="E185">
-        <v>603.73</v>
+        <v>634.16999999999996</v>
       </c>
       <c r="F185">
-        <v>623.63</v>
+        <v>636.58000000000004</v>
       </c>
       <c r="G185">
-        <v>483.95</v>
+        <v>505.73</v>
       </c>
       <c r="H185">
-        <v>382.94</v>
+        <v>397.7</v>
       </c>
       <c r="I185">
-        <v>290.05</v>
+        <v>316.45</v>
       </c>
       <c r="J185">
-        <v>137.82</v>
+        <v>140.97999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -6349,31 +6349,31 @@
         <v>11040</v>
       </c>
       <c r="B186">
-        <v>1065.5999999999999</v>
+        <v>1058.0999999999999</v>
       </c>
       <c r="C186">
-        <v>999.18</v>
+        <v>990.89</v>
       </c>
       <c r="D186">
-        <v>820.78</v>
+        <v>810.14</v>
       </c>
       <c r="E186">
-        <v>605.51</v>
+        <v>635.94000000000005</v>
       </c>
       <c r="F186">
-        <v>625.4</v>
+        <v>638.36</v>
       </c>
       <c r="G186">
-        <v>485.74</v>
+        <v>507.54</v>
       </c>
       <c r="H186">
-        <v>384.68</v>
+        <v>399.48</v>
       </c>
       <c r="I186">
-        <v>291.73</v>
+        <v>318.18</v>
       </c>
       <c r="J186">
-        <v>138.96</v>
+        <v>142.18</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -6381,31 +6381,31 @@
         <v>11100</v>
       </c>
       <c r="B187">
-        <v>1066.5</v>
+        <v>1059</v>
       </c>
       <c r="C187">
-        <v>1000.3</v>
+        <v>992.05</v>
       </c>
       <c r="D187">
-        <v>822.34</v>
+        <v>811.7</v>
       </c>
       <c r="E187">
-        <v>607.28</v>
+        <v>637.71</v>
       </c>
       <c r="F187">
-        <v>627.16</v>
+        <v>640.12</v>
       </c>
       <c r="G187">
-        <v>487.52</v>
+        <v>509.34</v>
       </c>
       <c r="H187">
-        <v>386.42</v>
+        <v>401.26</v>
       </c>
       <c r="I187">
-        <v>293.39999999999998</v>
+        <v>319.89999999999998</v>
       </c>
       <c r="J187">
-        <v>140.12</v>
+        <v>143.4</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -6413,31 +6413,31 @@
         <v>11160</v>
       </c>
       <c r="B188">
-        <v>1067.5</v>
+        <v>1060</v>
       </c>
       <c r="C188">
-        <v>1001.5</v>
+        <v>993.2</v>
       </c>
       <c r="D188">
-        <v>823.9</v>
+        <v>813.26</v>
       </c>
       <c r="E188">
-        <v>609.04999999999995</v>
+        <v>639.46</v>
       </c>
       <c r="F188">
-        <v>628.91</v>
+        <v>641.87</v>
       </c>
       <c r="G188">
-        <v>489.3</v>
+        <v>511.14</v>
       </c>
       <c r="H188">
-        <v>388.15</v>
+        <v>403.03</v>
       </c>
       <c r="I188">
-        <v>295.06</v>
+        <v>321.61</v>
       </c>
       <c r="J188">
-        <v>141.29</v>
+        <v>144.62</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -6445,31 +6445,31 @@
         <v>11220</v>
       </c>
       <c r="B189">
-        <v>1068.4000000000001</v>
+        <v>1060.9000000000001</v>
       </c>
       <c r="C189">
-        <v>1002.7</v>
+        <v>994.34</v>
       </c>
       <c r="D189">
-        <v>825.44</v>
+        <v>814.82</v>
       </c>
       <c r="E189">
-        <v>610.80999999999995</v>
+        <v>641.21</v>
       </c>
       <c r="F189">
-        <v>630.66</v>
+        <v>643.62</v>
       </c>
       <c r="G189">
-        <v>491.06</v>
+        <v>512.92999999999995</v>
       </c>
       <c r="H189">
-        <v>389.88</v>
+        <v>404.79</v>
       </c>
       <c r="I189">
-        <v>296.73</v>
+        <v>323.32</v>
       </c>
       <c r="J189">
-        <v>142.47</v>
+        <v>145.86000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -6477,31 +6477,31 @@
         <v>11280</v>
       </c>
       <c r="B190">
-        <v>1069.4000000000001</v>
+        <v>1061.8</v>
       </c>
       <c r="C190">
-        <v>1003.8</v>
+        <v>995.48</v>
       </c>
       <c r="D190">
-        <v>826.98</v>
+        <v>816.36</v>
       </c>
       <c r="E190">
-        <v>612.54999999999995</v>
+        <v>642.95000000000005</v>
       </c>
       <c r="F190">
-        <v>632.4</v>
+        <v>645.36</v>
       </c>
       <c r="G190">
-        <v>492.82</v>
+        <v>514.71</v>
       </c>
       <c r="H190">
-        <v>391.61</v>
+        <v>406.55</v>
       </c>
       <c r="I190">
-        <v>298.39</v>
+        <v>325.02999999999997</v>
       </c>
       <c r="J190">
-        <v>143.66</v>
+        <v>147.11000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -6509,31 +6509,31 @@
         <v>11340</v>
       </c>
       <c r="B191">
-        <v>1070.3</v>
+        <v>1062.7</v>
       </c>
       <c r="C191">
-        <v>1004.9</v>
+        <v>996.6</v>
       </c>
       <c r="D191">
-        <v>828.5</v>
+        <v>817.9</v>
       </c>
       <c r="E191">
-        <v>614.29999999999995</v>
+        <v>644.67999999999995</v>
       </c>
       <c r="F191">
-        <v>634.13</v>
+        <v>647.09</v>
       </c>
       <c r="G191">
-        <v>494.58</v>
+        <v>516.49</v>
       </c>
       <c r="H191">
-        <v>393.32</v>
+        <v>408.3</v>
       </c>
       <c r="I191">
-        <v>300.04000000000002</v>
+        <v>326.73</v>
       </c>
       <c r="J191">
-        <v>144.87</v>
+        <v>148.37</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -6541,31 +6541,31 @@
         <v>11400</v>
       </c>
       <c r="B192">
-        <v>1071.2</v>
+        <v>1063.5999999999999</v>
       </c>
       <c r="C192">
-        <v>1006.1</v>
+        <v>997.73</v>
       </c>
       <c r="D192">
-        <v>830.02</v>
+        <v>819.43</v>
       </c>
       <c r="E192">
-        <v>616.03</v>
+        <v>646.4</v>
       </c>
       <c r="F192">
-        <v>635.85</v>
+        <v>648.80999999999995</v>
       </c>
       <c r="G192">
-        <v>496.33</v>
+        <v>518.25</v>
       </c>
       <c r="H192">
-        <v>395.03</v>
+        <v>410.05</v>
       </c>
       <c r="I192">
-        <v>301.69</v>
+        <v>328.42</v>
       </c>
       <c r="J192">
-        <v>146.09</v>
+        <v>149.65</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -6573,31 +6573,31 @@
         <v>11460</v>
       </c>
       <c r="B193">
-        <v>1072.2</v>
+        <v>1064.5999999999999</v>
       </c>
       <c r="C193">
-        <v>1007.2</v>
+        <v>998.84</v>
       </c>
       <c r="D193">
-        <v>831.53</v>
+        <v>820.95</v>
       </c>
       <c r="E193">
-        <v>617.76</v>
+        <v>648.12</v>
       </c>
       <c r="F193">
-        <v>637.57000000000005</v>
+        <v>650.53</v>
       </c>
       <c r="G193">
-        <v>498.07</v>
+        <v>520.01</v>
       </c>
       <c r="H193">
-        <v>396.74</v>
+        <v>411.79</v>
       </c>
       <c r="I193">
-        <v>303.33999999999997</v>
+        <v>330.11</v>
       </c>
       <c r="J193">
-        <v>147.33000000000001</v>
+        <v>150.93</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -6605,31 +6605,31 @@
         <v>11520</v>
       </c>
       <c r="B194">
-        <v>1073.0999999999999</v>
+        <v>1065.5</v>
       </c>
       <c r="C194">
-        <v>1008.3</v>
+        <v>999.95</v>
       </c>
       <c r="D194">
-        <v>833.04</v>
+        <v>822.46</v>
       </c>
       <c r="E194">
-        <v>619.48</v>
+        <v>649.82000000000005</v>
       </c>
       <c r="F194">
-        <v>639.28</v>
+        <v>652.23</v>
       </c>
       <c r="G194">
-        <v>499.8</v>
+        <v>521.76</v>
       </c>
       <c r="H194">
-        <v>398.44</v>
+        <v>413.52</v>
       </c>
       <c r="I194">
-        <v>304.98</v>
+        <v>331.79</v>
       </c>
       <c r="J194">
-        <v>148.57</v>
+        <v>152.22999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -6637,31 +6637,31 @@
         <v>11580</v>
       </c>
       <c r="B195">
-        <v>1074</v>
+        <v>1066.4000000000001</v>
       </c>
       <c r="C195">
-        <v>1009.4</v>
+        <v>1001.1</v>
       </c>
       <c r="D195">
-        <v>834.53</v>
+        <v>823.96</v>
       </c>
       <c r="E195">
-        <v>621.19000000000005</v>
+        <v>651.52</v>
       </c>
       <c r="F195">
-        <v>640.98</v>
+        <v>653.92999999999995</v>
       </c>
       <c r="G195">
-        <v>501.53</v>
+        <v>523.51</v>
       </c>
       <c r="H195">
-        <v>400.14</v>
+        <v>415.25</v>
       </c>
       <c r="I195">
-        <v>306.61</v>
+        <v>333.47</v>
       </c>
       <c r="J195">
-        <v>149.83000000000001</v>
+        <v>153.53</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -6669,31 +6669,31 @@
         <v>11640</v>
       </c>
       <c r="B196">
-        <v>1074.9000000000001</v>
+        <v>1067.3</v>
       </c>
       <c r="C196">
-        <v>1010.5</v>
+        <v>1002.2</v>
       </c>
       <c r="D196">
-        <v>836.02</v>
+        <v>825.46</v>
       </c>
       <c r="E196">
-        <v>622.89</v>
+        <v>653.21</v>
       </c>
       <c r="F196">
-        <v>642.66999999999996</v>
+        <v>655.62</v>
       </c>
       <c r="G196">
-        <v>503.25</v>
+        <v>525.25</v>
       </c>
       <c r="H196">
-        <v>401.83</v>
+        <v>416.97</v>
       </c>
       <c r="I196">
-        <v>308.25</v>
+        <v>335.15</v>
       </c>
       <c r="J196">
-        <v>151.1</v>
+        <v>154.85</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -6701,31 +6701,31 @@
         <v>11700</v>
       </c>
       <c r="B197">
-        <v>1075.8</v>
+        <v>1068.2</v>
       </c>
       <c r="C197">
-        <v>1011.6</v>
+        <v>1003.2</v>
       </c>
       <c r="D197">
-        <v>837.5</v>
+        <v>826.95</v>
       </c>
       <c r="E197">
-        <v>624.59</v>
+        <v>654.9</v>
       </c>
       <c r="F197">
-        <v>644.36</v>
+        <v>657.3</v>
       </c>
       <c r="G197">
-        <v>504.97</v>
+        <v>526.98</v>
       </c>
       <c r="H197">
-        <v>403.52</v>
+        <v>418.68</v>
       </c>
       <c r="I197">
-        <v>309.87</v>
+        <v>336.81</v>
       </c>
       <c r="J197">
-        <v>152.38999999999999</v>
+        <v>156.18</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -6733,31 +6733,31 @@
         <v>11760</v>
       </c>
       <c r="B198">
-        <v>1076.7</v>
+        <v>1069</v>
       </c>
       <c r="C198">
-        <v>1012.7</v>
+        <v>1004.3</v>
       </c>
       <c r="D198">
-        <v>838.97</v>
+        <v>828.43</v>
       </c>
       <c r="E198">
-        <v>626.28</v>
+        <v>656.57</v>
       </c>
       <c r="F198">
-        <v>646.03</v>
+        <v>658.98</v>
       </c>
       <c r="G198">
-        <v>506.68</v>
+        <v>528.70000000000005</v>
       </c>
       <c r="H198">
-        <v>405.2</v>
+        <v>420.39</v>
       </c>
       <c r="I198">
-        <v>311.5</v>
+        <v>338.48</v>
       </c>
       <c r="J198">
-        <v>153.68</v>
+        <v>157.52000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -6765,31 +6765,31 @@
         <v>11820</v>
       </c>
       <c r="B199">
-        <v>1077.5999999999999</v>
+        <v>1069.9000000000001</v>
       </c>
       <c r="C199">
-        <v>1013.8</v>
+        <v>1005.4</v>
       </c>
       <c r="D199">
-        <v>840.44</v>
+        <v>829.9</v>
       </c>
       <c r="E199">
-        <v>627.96</v>
+        <v>658.24</v>
       </c>
       <c r="F199">
-        <v>647.71</v>
+        <v>660.65</v>
       </c>
       <c r="G199">
-        <v>508.38</v>
+        <v>530.41999999999996</v>
       </c>
       <c r="H199">
-        <v>406.87</v>
+        <v>422.09</v>
       </c>
       <c r="I199">
-        <v>313.12</v>
+        <v>340.14</v>
       </c>
       <c r="J199">
-        <v>154.99</v>
+        <v>158.86000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -6797,31 +6797,31 @@
         <v>11880</v>
       </c>
       <c r="B200">
-        <v>1078.5</v>
+        <v>1070.8</v>
       </c>
       <c r="C200">
-        <v>1014.9</v>
+        <v>1006.5</v>
       </c>
       <c r="D200">
-        <v>841.89</v>
+        <v>831.37</v>
       </c>
       <c r="E200">
-        <v>629.63</v>
+        <v>659.9</v>
       </c>
       <c r="F200">
-        <v>649.37</v>
+        <v>662.31</v>
       </c>
       <c r="G200">
-        <v>510.08</v>
+        <v>532.13</v>
       </c>
       <c r="H200">
-        <v>408.54</v>
+        <v>423.79</v>
       </c>
       <c r="I200">
-        <v>314.73</v>
+        <v>341.79</v>
       </c>
       <c r="J200">
-        <v>156.31</v>
+        <v>160.22</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -6829,31 +6829,31 @@
         <v>11940</v>
       </c>
       <c r="B201">
-        <v>1079.4000000000001</v>
+        <v>1071.7</v>
       </c>
       <c r="C201">
-        <v>1015.9</v>
+        <v>1007.5</v>
       </c>
       <c r="D201">
-        <v>843.34</v>
+        <v>832.83</v>
       </c>
       <c r="E201">
-        <v>631.29999999999995</v>
+        <v>661.55</v>
       </c>
       <c r="F201">
-        <v>651.03</v>
+        <v>663.96</v>
       </c>
       <c r="G201">
-        <v>511.77</v>
+        <v>533.84</v>
       </c>
       <c r="H201">
-        <v>410.21</v>
+        <v>425.48</v>
       </c>
       <c r="I201">
-        <v>316.33999999999997</v>
+        <v>343.44</v>
       </c>
       <c r="J201">
-        <v>157.65</v>
+        <v>161.59</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -6861,31 +6861,31 @@
         <v>12000</v>
       </c>
       <c r="B202">
-        <v>1080.3</v>
+        <v>1072.5</v>
       </c>
       <c r="C202">
-        <v>1017</v>
+        <v>1008.6</v>
       </c>
       <c r="D202">
-        <v>844.78</v>
+        <v>834.28</v>
       </c>
       <c r="E202">
-        <v>632.96</v>
+        <v>663.2</v>
       </c>
       <c r="F202">
-        <v>652.67999999999995</v>
+        <v>665.61</v>
       </c>
       <c r="G202">
-        <v>513.45000000000005</v>
+        <v>535.53</v>
       </c>
       <c r="H202">
-        <v>411.86</v>
+        <v>427.16</v>
       </c>
       <c r="I202">
-        <v>317.95</v>
+        <v>345.08</v>
       </c>
       <c r="J202">
-        <v>158.99</v>
+        <v>162.97</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -6893,31 +6893,31 @@
         <v>12060</v>
       </c>
       <c r="B203">
-        <v>1081.0999999999999</v>
+        <v>1073.4000000000001</v>
       </c>
       <c r="C203">
-        <v>1018.1</v>
+        <v>1009.7</v>
       </c>
       <c r="D203">
-        <v>846.22</v>
+        <v>835.73</v>
       </c>
       <c r="E203">
-        <v>634.62</v>
+        <v>664.84</v>
       </c>
       <c r="F203">
-        <v>654.32000000000005</v>
+        <v>667.25</v>
       </c>
       <c r="G203">
-        <v>515.13</v>
+        <v>537.22</v>
       </c>
       <c r="H203">
-        <v>413.52</v>
+        <v>428.84</v>
       </c>
       <c r="I203">
-        <v>319.55</v>
+        <v>346.72</v>
       </c>
       <c r="J203">
-        <v>160.35</v>
+        <v>164.36</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -6925,31 +6925,31 @@
         <v>12120</v>
       </c>
       <c r="B204">
-        <v>1082</v>
+        <v>1074.3</v>
       </c>
       <c r="C204">
-        <v>1019.1</v>
+        <v>1010.7</v>
       </c>
       <c r="D204">
-        <v>847.65</v>
+        <v>837.16</v>
       </c>
       <c r="E204">
-        <v>636.26</v>
+        <v>666.47</v>
       </c>
       <c r="F204">
-        <v>655.96</v>
+        <v>668.88</v>
       </c>
       <c r="G204">
-        <v>516.80999999999995</v>
+        <v>538.91</v>
       </c>
       <c r="H204">
-        <v>415.17</v>
+        <v>430.52</v>
       </c>
       <c r="I204">
-        <v>321.14999999999998</v>
+        <v>348.35</v>
       </c>
       <c r="J204">
-        <v>161.72</v>
+        <v>165.76</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -6957,31 +6957,31 @@
         <v>12180</v>
       </c>
       <c r="B205">
-        <v>1082.9000000000001</v>
+        <v>1075.0999999999999</v>
       </c>
       <c r="C205">
-        <v>1020.2</v>
+        <v>1011.8</v>
       </c>
       <c r="D205">
-        <v>849.07</v>
+        <v>838.59</v>
       </c>
       <c r="E205">
-        <v>637.9</v>
+        <v>668.1</v>
       </c>
       <c r="F205">
-        <v>657.59</v>
+        <v>670.51</v>
       </c>
       <c r="G205">
-        <v>518.47</v>
+        <v>540.58000000000004</v>
       </c>
       <c r="H205">
-        <v>416.81</v>
+        <v>432.19</v>
       </c>
       <c r="I205">
-        <v>322.75</v>
+        <v>349.98</v>
       </c>
       <c r="J205">
-        <v>163.1</v>
+        <v>167.17</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -6989,31 +6989,31 @@
         <v>12240</v>
       </c>
       <c r="B206">
-        <v>1083.7</v>
+        <v>1076</v>
       </c>
       <c r="C206">
-        <v>1021.2</v>
+        <v>1012.8</v>
       </c>
       <c r="D206">
-        <v>850.48</v>
+        <v>840.01</v>
       </c>
       <c r="E206">
-        <v>639.54</v>
+        <v>669.72</v>
       </c>
       <c r="F206">
-        <v>659.21</v>
+        <v>672.13</v>
       </c>
       <c r="G206">
-        <v>520.13</v>
+        <v>542.26</v>
       </c>
       <c r="H206">
-        <v>418.45</v>
+        <v>433.85</v>
       </c>
       <c r="I206">
-        <v>324.33999999999997</v>
+        <v>351.61</v>
       </c>
       <c r="J206">
-        <v>164.49</v>
+        <v>168.59</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -7021,31 +7021,31 @@
         <v>12300</v>
       </c>
       <c r="B207">
-        <v>1084.5999999999999</v>
+        <v>1076.8</v>
       </c>
       <c r="C207">
-        <v>1022.2</v>
+        <v>1013.8</v>
       </c>
       <c r="D207">
-        <v>851.89</v>
+        <v>841.42</v>
       </c>
       <c r="E207">
-        <v>641.16</v>
+        <v>671.33</v>
       </c>
       <c r="F207">
-        <v>660.83</v>
+        <v>673.74</v>
       </c>
       <c r="G207">
-        <v>521.79</v>
+        <v>543.91999999999996</v>
       </c>
       <c r="H207">
-        <v>420.09</v>
+        <v>435.5</v>
       </c>
       <c r="I207">
-        <v>325.92</v>
+        <v>353.23</v>
       </c>
       <c r="J207">
-        <v>165.9</v>
+        <v>170.01</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -7053,31 +7053,31 @@
         <v>12360</v>
       </c>
       <c r="B208">
-        <v>1085.4000000000001</v>
+        <v>1077.5999999999999</v>
       </c>
       <c r="C208">
-        <v>1023.3</v>
+        <v>1014.8</v>
       </c>
       <c r="D208">
-        <v>853.28</v>
+        <v>842.83</v>
       </c>
       <c r="E208">
-        <v>642.79</v>
+        <v>672.93</v>
       </c>
       <c r="F208">
-        <v>662.44</v>
+        <v>675.35</v>
       </c>
       <c r="G208">
-        <v>523.44000000000005</v>
+        <v>545.58000000000004</v>
       </c>
       <c r="H208">
-        <v>421.72</v>
+        <v>437.16</v>
       </c>
       <c r="I208">
-        <v>327.51</v>
+        <v>354.85</v>
       </c>
       <c r="J208">
-        <v>167.31</v>
+        <v>171.45</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -7085,31 +7085,31 @@
         <v>12420</v>
       </c>
       <c r="B209">
-        <v>1086.3</v>
+        <v>1078.5</v>
       </c>
       <c r="C209">
-        <v>1024.3</v>
+        <v>1015.9</v>
       </c>
       <c r="D209">
-        <v>854.68</v>
+        <v>844.22</v>
       </c>
       <c r="E209">
-        <v>644.4</v>
+        <v>674.53</v>
       </c>
       <c r="F209">
-        <v>664.04</v>
+        <v>676.94</v>
       </c>
       <c r="G209">
-        <v>525.08000000000004</v>
+        <v>547.23</v>
       </c>
       <c r="H209">
-        <v>423.34</v>
+        <v>438.8</v>
       </c>
       <c r="I209">
-        <v>329.09</v>
+        <v>356.46</v>
       </c>
       <c r="J209">
-        <v>168.74</v>
+        <v>172.89</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -7117,31 +7117,31 @@
         <v>12480</v>
       </c>
       <c r="B210">
-        <v>1087.0999999999999</v>
+        <v>1079.3</v>
       </c>
       <c r="C210">
-        <v>1025.3</v>
+        <v>1016.9</v>
       </c>
       <c r="D210">
-        <v>856.06</v>
+        <v>845.61</v>
       </c>
       <c r="E210">
-        <v>646.01</v>
+        <v>676.12</v>
       </c>
       <c r="F210">
-        <v>665.64</v>
+        <v>678.54</v>
       </c>
       <c r="G210">
-        <v>526.72</v>
+        <v>548.88</v>
       </c>
       <c r="H210">
-        <v>424.96</v>
+        <v>440.44</v>
       </c>
       <c r="I210">
-        <v>330.66</v>
+        <v>358.06</v>
       </c>
       <c r="J210">
-        <v>170.18</v>
+        <v>174.35</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -7149,31 +7149,31 @@
         <v>12540</v>
       </c>
       <c r="B211">
-        <v>1087.9000000000001</v>
+        <v>1080.0999999999999</v>
       </c>
       <c r="C211">
-        <v>1026.3</v>
+        <v>1017.9</v>
       </c>
       <c r="D211">
-        <v>857.44</v>
+        <v>846.99</v>
       </c>
       <c r="E211">
-        <v>647.61</v>
+        <v>677.71</v>
       </c>
       <c r="F211">
-        <v>667.23</v>
+        <v>680.12</v>
       </c>
       <c r="G211">
-        <v>528.35</v>
+        <v>550.52</v>
       </c>
       <c r="H211">
-        <v>426.58</v>
+        <v>442.08</v>
       </c>
       <c r="I211">
-        <v>332.23</v>
+        <v>359.67</v>
       </c>
       <c r="J211">
-        <v>171.62</v>
+        <v>175.81</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -7181,31 +7181,31 @@
         <v>12600</v>
       </c>
       <c r="B212">
-        <v>1088.7</v>
+        <v>1081</v>
       </c>
       <c r="C212">
-        <v>1027.3</v>
+        <v>1018.9</v>
       </c>
       <c r="D212">
-        <v>858.81</v>
+        <v>848.36</v>
       </c>
       <c r="E212">
-        <v>649.20000000000005</v>
+        <v>679.29</v>
       </c>
       <c r="F212">
-        <v>668.82</v>
+        <v>681.7</v>
       </c>
       <c r="G212">
-        <v>529.98</v>
+        <v>552.16</v>
       </c>
       <c r="H212">
-        <v>428.19</v>
+        <v>443.71</v>
       </c>
       <c r="I212">
-        <v>333.8</v>
+        <v>361.26</v>
       </c>
       <c r="J212">
-        <v>173.08</v>
+        <v>177.28</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -7213,31 +7213,31 @@
         <v>12660</v>
       </c>
       <c r="B213">
-        <v>1089.5999999999999</v>
+        <v>1081.8</v>
       </c>
       <c r="C213">
-        <v>1028.3</v>
+        <v>1019.9</v>
       </c>
       <c r="D213">
-        <v>860.18</v>
+        <v>849.73</v>
       </c>
       <c r="E213">
-        <v>650.79</v>
+        <v>680.86</v>
       </c>
       <c r="F213">
-        <v>670.4</v>
+        <v>683.27</v>
       </c>
       <c r="G213">
-        <v>531.6</v>
+        <v>553.79</v>
       </c>
       <c r="H213">
-        <v>429.79</v>
+        <v>445.34</v>
       </c>
       <c r="I213">
-        <v>335.36</v>
+        <v>362.86</v>
       </c>
       <c r="J213">
-        <v>174.55</v>
+        <v>178.76</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -7245,31 +7245,31 @@
         <v>12720</v>
       </c>
       <c r="B214">
-        <v>1090.4000000000001</v>
+        <v>1082.5999999999999</v>
       </c>
       <c r="C214">
-        <v>1029.3</v>
+        <v>1020.9</v>
       </c>
       <c r="D214">
-        <v>861.54</v>
+        <v>851.09</v>
       </c>
       <c r="E214">
-        <v>652.38</v>
+        <v>682.43</v>
       </c>
       <c r="F214">
-        <v>671.97</v>
+        <v>684.84</v>
       </c>
       <c r="G214">
-        <v>533.21</v>
+        <v>555.41</v>
       </c>
       <c r="H214">
-        <v>431.39</v>
+        <v>446.96</v>
       </c>
       <c r="I214">
-        <v>336.92</v>
+        <v>364.45</v>
       </c>
       <c r="J214">
-        <v>176.03</v>
+        <v>180.24</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -7277,31 +7277,31 @@
         <v>12780</v>
       </c>
       <c r="B215">
-        <v>1091.0999999999999</v>
+        <v>1083.4000000000001</v>
       </c>
       <c r="C215">
-        <v>1030.3</v>
+        <v>1021.9</v>
       </c>
       <c r="D215">
-        <v>862.89</v>
+        <v>852.44</v>
       </c>
       <c r="E215">
-        <v>653.95000000000005</v>
+        <v>683.99</v>
       </c>
       <c r="F215">
-        <v>673.54</v>
+        <v>686.4</v>
       </c>
       <c r="G215">
-        <v>534.82000000000005</v>
+        <v>557.02</v>
       </c>
       <c r="H215">
-        <v>432.99</v>
+        <v>448.57</v>
       </c>
       <c r="I215">
-        <v>338.48</v>
+        <v>366.04</v>
       </c>
       <c r="J215">
-        <v>177.52</v>
+        <v>181.73</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -7309,31 +7309,31 @@
         <v>12840</v>
       </c>
       <c r="B216">
-        <v>1091.9000000000001</v>
+        <v>1084.2</v>
       </c>
       <c r="C216">
-        <v>1031.2</v>
+        <v>1022.8</v>
       </c>
       <c r="D216">
-        <v>864.23</v>
+        <v>853.79</v>
       </c>
       <c r="E216">
-        <v>655.52</v>
+        <v>685.55</v>
       </c>
       <c r="F216">
-        <v>675.1</v>
+        <v>687.96</v>
       </c>
       <c r="G216">
-        <v>536.42999999999995</v>
+        <v>558.64</v>
       </c>
       <c r="H216">
-        <v>434.58</v>
+        <v>450.18</v>
       </c>
       <c r="I216">
-        <v>340.03</v>
+        <v>367.62</v>
       </c>
       <c r="J216">
-        <v>179.02</v>
+        <v>183.23</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -7341,31 +7341,31 @@
         <v>12900</v>
       </c>
       <c r="B217">
-        <v>1092.7</v>
+        <v>1085</v>
       </c>
       <c r="C217">
-        <v>1032.2</v>
+        <v>1023.8</v>
       </c>
       <c r="D217">
-        <v>865.57</v>
+        <v>855.13</v>
       </c>
       <c r="E217">
-        <v>657.09</v>
+        <v>687.1</v>
       </c>
       <c r="F217">
-        <v>676.65</v>
+        <v>689.5</v>
       </c>
       <c r="G217">
-        <v>538.03</v>
+        <v>560.24</v>
       </c>
       <c r="H217">
-        <v>436.17</v>
+        <v>451.79</v>
       </c>
       <c r="I217">
-        <v>341.58</v>
+        <v>369.2</v>
       </c>
       <c r="J217">
-        <v>180.53</v>
+        <v>184.74</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -7373,31 +7373,31 @@
         <v>12960</v>
       </c>
       <c r="B218">
-        <v>1093.5</v>
+        <v>1085.8</v>
       </c>
       <c r="C218">
-        <v>1033.0999999999999</v>
+        <v>1024.8</v>
       </c>
       <c r="D218">
-        <v>866.9</v>
+        <v>856.46</v>
       </c>
       <c r="E218">
-        <v>658.65</v>
+        <v>688.64</v>
       </c>
       <c r="F218">
-        <v>678.2</v>
+        <v>691.05</v>
       </c>
       <c r="G218">
-        <v>539.62</v>
+        <v>561.84</v>
       </c>
       <c r="H218">
-        <v>437.75</v>
+        <v>453.39</v>
       </c>
       <c r="I218">
-        <v>343.13</v>
+        <v>370.77</v>
       </c>
       <c r="J218">
-        <v>182.04</v>
+        <v>186.25</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -7405,31 +7405,31 @@
         <v>13020</v>
       </c>
       <c r="B219">
-        <v>1094.3</v>
+        <v>1086.5999999999999</v>
       </c>
       <c r="C219">
-        <v>1034.0999999999999</v>
+        <v>1025.8</v>
       </c>
       <c r="D219">
-        <v>868.23</v>
+        <v>857.79</v>
       </c>
       <c r="E219">
-        <v>660.2</v>
+        <v>690.18</v>
       </c>
       <c r="F219">
-        <v>679.74</v>
+        <v>692.58</v>
       </c>
       <c r="G219">
-        <v>541.21</v>
+        <v>563.44000000000005</v>
       </c>
       <c r="H219">
-        <v>439.33</v>
+        <v>454.99</v>
       </c>
       <c r="I219">
-        <v>344.67</v>
+        <v>372.34</v>
       </c>
       <c r="J219">
-        <v>183.57</v>
+        <v>187.76</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -7437,31 +7437,31 @@
         <v>13080</v>
       </c>
       <c r="B220">
-        <v>1095</v>
+        <v>1087.4000000000001</v>
       </c>
       <c r="C220">
-        <v>1035</v>
+        <v>1026.7</v>
       </c>
       <c r="D220">
-        <v>869.54</v>
+        <v>859.11</v>
       </c>
       <c r="E220">
-        <v>661.75</v>
+        <v>691.71</v>
       </c>
       <c r="F220">
-        <v>681.28</v>
+        <v>694.11</v>
       </c>
       <c r="G220">
-        <v>542.79</v>
+        <v>565.03</v>
       </c>
       <c r="H220">
-        <v>440.9</v>
+        <v>456.58</v>
       </c>
       <c r="I220">
-        <v>346.21</v>
+        <v>373.91</v>
       </c>
       <c r="J220">
-        <v>185.1</v>
+        <v>189.29</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -7469,31 +7469,31 @@
         <v>13140</v>
       </c>
       <c r="B221">
-        <v>1095.8</v>
+        <v>1088.2</v>
       </c>
       <c r="C221">
-        <v>1036</v>
+        <v>1027.7</v>
       </c>
       <c r="D221">
-        <v>870.85</v>
+        <v>860.42</v>
       </c>
       <c r="E221">
-        <v>663.29</v>
+        <v>693.24</v>
       </c>
       <c r="F221">
-        <v>682.81</v>
+        <v>695.63</v>
       </c>
       <c r="G221">
-        <v>544.37</v>
+        <v>566.61</v>
       </c>
       <c r="H221">
-        <v>442.47</v>
+        <v>458.17</v>
       </c>
       <c r="I221">
-        <v>347.75</v>
+        <v>375.47</v>
       </c>
       <c r="J221">
-        <v>186.64</v>
+        <v>190.81</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -7501,31 +7501,31 @@
         <v>13200</v>
       </c>
       <c r="B222">
-        <v>1096.5999999999999</v>
+        <v>1089</v>
       </c>
       <c r="C222">
-        <v>1036.9000000000001</v>
+        <v>1028.5999999999999</v>
       </c>
       <c r="D222">
-        <v>872.16</v>
+        <v>861.73</v>
       </c>
       <c r="E222">
-        <v>664.82</v>
+        <v>694.75</v>
       </c>
       <c r="F222">
-        <v>684.34</v>
+        <v>697.15</v>
       </c>
       <c r="G222">
-        <v>545.94000000000005</v>
+        <v>568.19000000000005</v>
       </c>
       <c r="H222">
-        <v>444.04</v>
+        <v>459.75</v>
       </c>
       <c r="I222">
-        <v>349.28</v>
+        <v>377.03</v>
       </c>
       <c r="J222">
-        <v>188.19</v>
+        <v>192.35</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -7533,31 +7533,31 @@
         <v>13260</v>
       </c>
       <c r="B223">
-        <v>1097.3</v>
+        <v>1089.7</v>
       </c>
       <c r="C223">
-        <v>1037.8</v>
+        <v>1029.5999999999999</v>
       </c>
       <c r="D223">
-        <v>873.45</v>
+        <v>863.04</v>
       </c>
       <c r="E223">
-        <v>666.35</v>
+        <v>696.27</v>
       </c>
       <c r="F223">
-        <v>685.86</v>
+        <v>698.66</v>
       </c>
       <c r="G223">
-        <v>547.51</v>
+        <v>569.76</v>
       </c>
       <c r="H223">
-        <v>445.6</v>
+        <v>461.33</v>
       </c>
       <c r="I223">
-        <v>350.81</v>
+        <v>378.58</v>
       </c>
       <c r="J223">
-        <v>189.75</v>
+        <v>193.88</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -7565,31 +7565,31 @@
         <v>13320</v>
       </c>
       <c r="B224">
-        <v>1098.0999999999999</v>
+        <v>1090.5</v>
       </c>
       <c r="C224">
-        <v>1038.8</v>
+        <v>1030.5</v>
       </c>
       <c r="D224">
-        <v>874.75</v>
+        <v>864.33</v>
       </c>
       <c r="E224">
-        <v>667.88</v>
+        <v>697.77</v>
       </c>
       <c r="F224">
-        <v>687.37</v>
+        <v>700.16</v>
       </c>
       <c r="G224">
-        <v>549.07000000000005</v>
+        <v>571.33000000000004</v>
       </c>
       <c r="H224">
-        <v>447.16</v>
+        <v>462.9</v>
       </c>
       <c r="I224">
-        <v>352.34</v>
+        <v>380.13</v>
       </c>
       <c r="J224">
-        <v>191.31</v>
+        <v>195.43</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -7597,31 +7597,31 @@
         <v>13380</v>
       </c>
       <c r="B225">
-        <v>1098.8</v>
+        <v>1091.3</v>
       </c>
       <c r="C225">
-        <v>1039.7</v>
+        <v>1031.5</v>
       </c>
       <c r="D225">
-        <v>876.03</v>
+        <v>865.63</v>
       </c>
       <c r="E225">
-        <v>669.4</v>
+        <v>699.28</v>
       </c>
       <c r="F225">
-        <v>688.88</v>
+        <v>701.66</v>
       </c>
       <c r="G225">
-        <v>550.63</v>
+        <v>572.89</v>
       </c>
       <c r="H225">
-        <v>448.71</v>
+        <v>464.47</v>
       </c>
       <c r="I225">
-        <v>353.86</v>
+        <v>381.68</v>
       </c>
       <c r="J225">
-        <v>192.88</v>
+        <v>196.97</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -7629,31 +7629,31 @@
         <v>13440</v>
       </c>
       <c r="B226">
-        <v>1099.5999999999999</v>
+        <v>1092</v>
       </c>
       <c r="C226">
-        <v>1040.5999999999999</v>
+        <v>1032.4000000000001</v>
       </c>
       <c r="D226">
-        <v>877.31</v>
+        <v>866.92</v>
       </c>
       <c r="E226">
-        <v>670.91</v>
+        <v>700.77</v>
       </c>
       <c r="F226">
-        <v>690.38</v>
+        <v>703.16</v>
       </c>
       <c r="G226">
-        <v>552.17999999999995</v>
+        <v>574.45000000000005</v>
       </c>
       <c r="H226">
-        <v>450.26</v>
+        <v>466.03</v>
       </c>
       <c r="I226">
-        <v>355.38</v>
+        <v>383.22</v>
       </c>
       <c r="J226">
-        <v>194.45</v>
+        <v>198.52</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -7661,31 +7661,31 @@
         <v>13500</v>
       </c>
       <c r="B227">
-        <v>1100.3</v>
+        <v>1092.8</v>
       </c>
       <c r="C227">
-        <v>1041.5</v>
+        <v>1033.3</v>
       </c>
       <c r="D227">
-        <v>878.58</v>
+        <v>868.2</v>
       </c>
       <c r="E227">
-        <v>672.42</v>
+        <v>702.26</v>
       </c>
       <c r="F227">
-        <v>691.88</v>
+        <v>704.65</v>
       </c>
       <c r="G227">
-        <v>553.73</v>
+        <v>576</v>
       </c>
       <c r="H227">
-        <v>451.81</v>
+        <v>467.59</v>
       </c>
       <c r="I227">
-        <v>356.9</v>
+        <v>384.77</v>
       </c>
       <c r="J227">
-        <v>196.03</v>
+        <v>200.07</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -7693,31 +7693,31 @@
         <v>13560</v>
       </c>
       <c r="B228">
-        <v>1101</v>
+        <v>1093.5999999999999</v>
       </c>
       <c r="C228">
-        <v>1042.4000000000001</v>
+        <v>1034.2</v>
       </c>
       <c r="D228">
-        <v>879.85</v>
+        <v>869.48</v>
       </c>
       <c r="E228">
-        <v>673.92</v>
+        <v>703.75</v>
       </c>
       <c r="F228">
-        <v>693.37</v>
+        <v>706.13</v>
       </c>
       <c r="G228">
-        <v>555.27</v>
+        <v>577.54999999999995</v>
       </c>
       <c r="H228">
-        <v>453.35</v>
+        <v>469.15</v>
       </c>
       <c r="I228">
-        <v>358.41</v>
+        <v>386.3</v>
       </c>
       <c r="J228">
-        <v>197.61</v>
+        <v>201.62</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -7725,31 +7725,31 @@
         <v>13620</v>
       </c>
       <c r="B229">
-        <v>1101.8</v>
+        <v>1094.3</v>
       </c>
       <c r="C229">
-        <v>1043.3</v>
+        <v>1035.2</v>
       </c>
       <c r="D229">
-        <v>881.11</v>
+        <v>870.75</v>
       </c>
       <c r="E229">
-        <v>675.42</v>
+        <v>705.22</v>
       </c>
       <c r="F229">
-        <v>694.86</v>
+        <v>707.6</v>
       </c>
       <c r="G229">
-        <v>556.80999999999995</v>
+        <v>579.09</v>
       </c>
       <c r="H229">
-        <v>454.88</v>
+        <v>470.7</v>
       </c>
       <c r="I229">
-        <v>359.92</v>
+        <v>387.84</v>
       </c>
       <c r="J229">
-        <v>199.2</v>
+        <v>203.18</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -7757,31 +7757,31 @@
         <v>13680</v>
       </c>
       <c r="B230">
-        <v>1102.5</v>
+        <v>1095.0999999999999</v>
       </c>
       <c r="C230">
-        <v>1044.2</v>
+        <v>1036.0999999999999</v>
       </c>
       <c r="D230">
-        <v>882.36</v>
+        <v>872.02</v>
       </c>
       <c r="E230">
-        <v>676.91</v>
+        <v>706.7</v>
       </c>
       <c r="F230">
-        <v>696.34</v>
+        <v>709.08</v>
       </c>
       <c r="G230">
-        <v>558.35</v>
+        <v>580.63</v>
       </c>
       <c r="H230">
-        <v>456.42</v>
+        <v>472.24</v>
       </c>
       <c r="I230">
-        <v>361.43</v>
+        <v>389.37</v>
       </c>
       <c r="J230">
-        <v>200.8</v>
+        <v>204.74</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -7789,31 +7789,31 @@
         <v>13740</v>
       </c>
       <c r="B231">
-        <v>1103.2</v>
+        <v>1095.8</v>
       </c>
       <c r="C231">
-        <v>1045.0999999999999</v>
+        <v>1037</v>
       </c>
       <c r="D231">
-        <v>883.61</v>
+        <v>873.28</v>
       </c>
       <c r="E231">
-        <v>678.39</v>
+        <v>708.16</v>
       </c>
       <c r="F231">
-        <v>697.82</v>
+        <v>710.54</v>
       </c>
       <c r="G231">
-        <v>559.88</v>
+        <v>582.16</v>
       </c>
       <c r="H231">
-        <v>457.95</v>
+        <v>473.79</v>
       </c>
       <c r="I231">
-        <v>362.94</v>
+        <v>390.9</v>
       </c>
       <c r="J231">
-        <v>202.39</v>
+        <v>206.3</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -7821,31 +7821,31 @@
         <v>13800</v>
       </c>
       <c r="B232">
-        <v>1103.9000000000001</v>
+        <v>1096.5999999999999</v>
       </c>
       <c r="C232">
-        <v>1045.9000000000001</v>
+        <v>1037.9000000000001</v>
       </c>
       <c r="D232">
-        <v>884.85</v>
+        <v>874.54</v>
       </c>
       <c r="E232">
-        <v>679.87</v>
+        <v>709.63</v>
       </c>
       <c r="F232">
-        <v>699.29</v>
+        <v>712</v>
       </c>
       <c r="G232">
-        <v>561.4</v>
+        <v>583.69000000000005</v>
       </c>
       <c r="H232">
-        <v>459.47</v>
+        <v>475.33</v>
       </c>
       <c r="I232">
-        <v>364.44</v>
+        <v>392.42</v>
       </c>
       <c r="J232">
-        <v>203.99</v>
+        <v>207.86</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -7853,31 +7853,31 @@
         <v>13860</v>
       </c>
       <c r="B233">
-        <v>1104.7</v>
+        <v>1097.3</v>
       </c>
       <c r="C233">
-        <v>1046.8</v>
+        <v>1038.8</v>
       </c>
       <c r="D233">
-        <v>886.09</v>
+        <v>875.79</v>
       </c>
       <c r="E233">
-        <v>681.35</v>
+        <v>711.08</v>
       </c>
       <c r="F233">
-        <v>700.75</v>
+        <v>713.46</v>
       </c>
       <c r="G233">
-        <v>562.91999999999996</v>
+        <v>585.21</v>
       </c>
       <c r="H233">
-        <v>460.99</v>
+        <v>476.86</v>
       </c>
       <c r="I233">
-        <v>365.94</v>
+        <v>393.94</v>
       </c>
       <c r="J233">
-        <v>205.59</v>
+        <v>209.43</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -7885,31 +7885,31 @@
         <v>13920</v>
       </c>
       <c r="B234">
-        <v>1105.4000000000001</v>
+        <v>1098.0999999999999</v>
       </c>
       <c r="C234">
-        <v>1047.7</v>
+        <v>1039.7</v>
       </c>
       <c r="D234">
-        <v>887.32</v>
+        <v>877.04</v>
       </c>
       <c r="E234">
-        <v>682.82</v>
+        <v>712.53</v>
       </c>
       <c r="F234">
-        <v>702.21</v>
+        <v>714.9</v>
       </c>
       <c r="G234">
-        <v>564.44000000000005</v>
+        <v>586.73</v>
       </c>
       <c r="H234">
-        <v>462.51</v>
+        <v>478.39</v>
       </c>
       <c r="I234">
-        <v>367.44</v>
+        <v>395.46</v>
       </c>
       <c r="J234">
-        <v>207.2</v>
+        <v>210.99</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -7917,31 +7917,31 @@
         <v>13980</v>
       </c>
       <c r="B235">
-        <v>1106.0999999999999</v>
+        <v>1098.8</v>
       </c>
       <c r="C235">
-        <v>1048.5999999999999</v>
+        <v>1040.5999999999999</v>
       </c>
       <c r="D235">
-        <v>888.55</v>
+        <v>878.28</v>
       </c>
       <c r="E235">
-        <v>684.28</v>
+        <v>713.98</v>
       </c>
       <c r="F235">
-        <v>703.66</v>
+        <v>716.35</v>
       </c>
       <c r="G235">
-        <v>565.95000000000005</v>
+        <v>588.24</v>
       </c>
       <c r="H235">
-        <v>464.02</v>
+        <v>479.92</v>
       </c>
       <c r="I235">
-        <v>368.93</v>
+        <v>396.97</v>
       </c>
       <c r="J235">
-        <v>208.81</v>
+        <v>212.56</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -7949,31 +7949,31 @@
         <v>14040</v>
       </c>
       <c r="B236">
-        <v>1106.8</v>
+        <v>1099.5</v>
       </c>
       <c r="C236">
-        <v>1049.4000000000001</v>
+        <v>1041.4000000000001</v>
       </c>
       <c r="D236">
-        <v>889.77</v>
+        <v>879.52</v>
       </c>
       <c r="E236">
-        <v>685.74</v>
+        <v>715.42</v>
       </c>
       <c r="F236">
-        <v>705.11</v>
+        <v>717.79</v>
       </c>
       <c r="G236">
-        <v>567.45000000000005</v>
+        <v>589.75</v>
       </c>
       <c r="H236">
-        <v>465.53</v>
+        <v>481.44</v>
       </c>
       <c r="I236">
-        <v>370.42</v>
+        <v>398.48</v>
       </c>
       <c r="J236">
-        <v>210.41</v>
+        <v>214.13</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -7981,31 +7981,31 @@
         <v>14100</v>
       </c>
       <c r="B237">
-        <v>1107.5</v>
+        <v>1100.2</v>
       </c>
       <c r="C237">
-        <v>1050.3</v>
+        <v>1042.3</v>
       </c>
       <c r="D237">
-        <v>890.98</v>
+        <v>880.75</v>
       </c>
       <c r="E237">
-        <v>687.2</v>
+        <v>716.85</v>
       </c>
       <c r="F237">
-        <v>706.55</v>
+        <v>719.22</v>
       </c>
       <c r="G237">
-        <v>568.95000000000005</v>
+        <v>591.25</v>
       </c>
       <c r="H237">
-        <v>467.04</v>
+        <v>482.96</v>
       </c>
       <c r="I237">
-        <v>371.91</v>
+        <v>399.99</v>
       </c>
       <c r="J237">
-        <v>212.02</v>
+        <v>215.7</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -8013,31 +8013,31 @@
         <v>14160</v>
       </c>
       <c r="B238">
-        <v>1108.2</v>
+        <v>1101</v>
       </c>
       <c r="C238">
-        <v>1051.2</v>
+        <v>1043.2</v>
       </c>
       <c r="D238">
-        <v>892.19</v>
+        <v>881.98</v>
       </c>
       <c r="E238">
-        <v>688.65</v>
+        <v>718.28</v>
       </c>
       <c r="F238">
-        <v>707.99</v>
+        <v>720.65</v>
       </c>
       <c r="G238">
-        <v>570.45000000000005</v>
+        <v>592.75</v>
       </c>
       <c r="H238">
-        <v>468.54</v>
+        <v>484.47</v>
       </c>
       <c r="I238">
-        <v>373.4</v>
+        <v>401.49</v>
       </c>
       <c r="J238">
-        <v>213.63</v>
+        <v>217.27</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -8045,31 +8045,31 @@
         <v>14220</v>
       </c>
       <c r="B239">
-        <v>1108.9000000000001</v>
+        <v>1101.7</v>
       </c>
       <c r="C239">
-        <v>1052</v>
+        <v>1044.0999999999999</v>
       </c>
       <c r="D239">
-        <v>893.4</v>
+        <v>883.2</v>
       </c>
       <c r="E239">
-        <v>690.09</v>
+        <v>719.7</v>
       </c>
       <c r="F239">
-        <v>709.42</v>
+        <v>722.07</v>
       </c>
       <c r="G239">
-        <v>571.94000000000005</v>
+        <v>594.25</v>
       </c>
       <c r="H239">
-        <v>470.04</v>
+        <v>485.98</v>
       </c>
       <c r="I239">
-        <v>374.88</v>
+        <v>402.99</v>
       </c>
       <c r="J239">
-        <v>215.24</v>
+        <v>218.84</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -8077,31 +8077,31 @@
         <v>14280</v>
       </c>
       <c r="B240">
-        <v>1109.5999999999999</v>
+        <v>1102.4000000000001</v>
       </c>
       <c r="C240">
-        <v>1052.9000000000001</v>
+        <v>1044.9000000000001</v>
       </c>
       <c r="D240">
-        <v>894.6</v>
+        <v>884.42</v>
       </c>
       <c r="E240">
-        <v>691.53</v>
+        <v>721.12</v>
       </c>
       <c r="F240">
-        <v>710.85</v>
+        <v>723.49</v>
       </c>
       <c r="G240">
-        <v>573.42999999999995</v>
+        <v>595.74</v>
       </c>
       <c r="H240">
-        <v>471.54</v>
+        <v>487.49</v>
       </c>
       <c r="I240">
-        <v>376.36</v>
+        <v>404.49</v>
       </c>
       <c r="J240">
-        <v>216.85</v>
+        <v>220.41</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -8109,31 +8109,31 @@
         <v>14340</v>
       </c>
       <c r="B241">
-        <v>1110.3</v>
+        <v>1103.0999999999999</v>
       </c>
       <c r="C241">
-        <v>1053.7</v>
+        <v>1045.8</v>
       </c>
       <c r="D241">
-        <v>895.79</v>
+        <v>885.63</v>
       </c>
       <c r="E241">
-        <v>692.97</v>
+        <v>722.54</v>
       </c>
       <c r="F241">
-        <v>712.27</v>
+        <v>724.9</v>
       </c>
       <c r="G241">
-        <v>574.91999999999996</v>
+        <v>597.22</v>
       </c>
       <c r="H241">
-        <v>473.03</v>
+        <v>488.99</v>
       </c>
       <c r="I241">
-        <v>377.84</v>
+        <v>405.98</v>
       </c>
       <c r="J241">
-        <v>218.46</v>
+        <v>221.98</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -8141,31 +8141,31 @@
         <v>14400</v>
       </c>
       <c r="B242">
-        <v>1111</v>
+        <v>1103.8</v>
       </c>
       <c r="C242">
-        <v>1054.5999999999999</v>
+        <v>1046.7</v>
       </c>
       <c r="D242">
-        <v>896.98</v>
+        <v>886.84</v>
       </c>
       <c r="E242">
-        <v>694.4</v>
+        <v>723.94</v>
       </c>
       <c r="F242">
-        <v>713.69</v>
+        <v>726.31</v>
       </c>
       <c r="G242">
-        <v>576.4</v>
+        <v>598.70000000000005</v>
       </c>
       <c r="H242">
-        <v>474.52</v>
+        <v>490.49</v>
       </c>
       <c r="I242">
-        <v>379.32</v>
+        <v>407.47</v>
       </c>
       <c r="J242">
-        <v>220.07</v>
+        <v>223.55</v>
       </c>
     </row>
   </sheetData>
